--- a/AOQ.xlsx
+++ b/AOQ.xlsx
@@ -15,43 +15,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
   <si>
     <t>ABSTRACT OF QUOTATION</t>
   </si>
   <si>
-    <t>Department: Admin</t>
-  </si>
-  <si>
-    <t>Date: August 5, 2019</t>
-  </si>
-  <si>
-    <t>Purpose: Lorem Ipsum Dolor</t>
-  </si>
-  <si>
-    <t>PR#: ADM19-1000</t>
-  </si>
-  <si>
-    <t>Enduse: enduse enduse enduse</t>
+    <t>Department: IT Department - BCD</t>
+  </si>
+  <si>
+    <t>Date: August 13, 2019</t>
+  </si>
+  <si>
+    <t>Purpose: TEST PURPOSE</t>
+  </si>
+  <si>
+    <t>PR#: IT Department - BCD19-1000</t>
+  </si>
+  <si>
+    <t>Enduse: TEST ENDUSE</t>
   </si>
   <si>
     <t xml:space="preserve">Date Needed: </t>
   </si>
   <si>
-    <t>Requested By: Lloyd Jamero/Jushkyle Jambongana</t>
-  </si>
-  <si>
-    <t>2GO Express
-(034) 704-1339</t>
-  </si>
-  <si>
-    <t>7RJ Brothers Sand &amp; Gravel &amp; Gen. Mdse.
-Ms. Tata
-(034)458-0190/213-2249</t>
-  </si>
-  <si>
-    <t>A.C. Parts Merchandising
-(034) 433-2512</t>
+    <t>Requested By: Stephine David Severino</t>
   </si>
   <si>
     <t>A-1 Gas Corporation
@@ -59,6 +46,20 @@
 434-0708; 433-3637; 433-3638; 432-2079</t>
   </si>
   <si>
+    <t>AA Electrical Supply
+Rene 
+435-3811; 432-3712; 708-1212</t>
+  </si>
+  <si>
+    <t>Ablao Enterprises
+461-0376</t>
+  </si>
+  <si>
+    <t>Abomar Equipment Sales Corporation
+Danilo Palomar
+433-1687; 432-3673</t>
+  </si>
+  <si>
     <t>#</t>
   </si>
   <si>
@@ -83,93 +84,174 @@
     <t>COMMENTS</t>
   </si>
   <si>
-    <t>Laptop Charger</t>
-  </si>
-  <si>
-    <t>unit/s</t>
-  </si>
-  <si>
-    <t>2GO Express, Laptop Charger</t>
-  </si>
-  <si>
-    <t>7RJ Brothers, Laptop Charger</t>
-  </si>
-  <si>
-    <t>A.C. Parts Merchandising, Laptop Charger</t>
-  </si>
-  <si>
-    <t>A-1 Gas, Laptop Charger</t>
-  </si>
-  <si>
-    <t>2GO Express1, Laptop Charger</t>
-  </si>
-  <si>
-    <t>7RJ Brothers1, Laptop Charger</t>
-  </si>
-  <si>
-    <t>A.C. Parts Merchandising1, Laptop Charger</t>
-  </si>
-  <si>
-    <t>USB</t>
-  </si>
-  <si>
-    <t>2GO Express2, USB</t>
-  </si>
-  <si>
-    <t>7RJ Brothers3, USB</t>
-  </si>
-  <si>
-    <t>A.C. Parts Merchandising2, USB</t>
-  </si>
-  <si>
-    <t>A-1 Gas1, USB</t>
-  </si>
-  <si>
-    <t>2GO Express3, USB</t>
-  </si>
-  <si>
-    <t>7RJ Brothers4, USB</t>
-  </si>
-  <si>
-    <t>Wifi Adapter</t>
-  </si>
-  <si>
-    <t>2GO Express4, Wifi Adapter</t>
-  </si>
-  <si>
-    <t>7RJ Brothers6, Wifi Adapter</t>
-  </si>
-  <si>
-    <t>A.C. Parts Merchandising3, Wifi Adapter</t>
-  </si>
-  <si>
-    <t>A-1 Gas2, Wifi Adapter</t>
-  </si>
-  <si>
-    <t>2GO Express5, Wifi Adapter</t>
-  </si>
-  <si>
-    <t>7RJ Brothers7, Wifi Adapter</t>
-  </si>
-  <si>
-    <t>7RJ Brothers8, Wifi Adapter</t>
+    <t>Test Ballpen</t>
+  </si>
+  <si>
+    <t>pc/s</t>
+  </si>
+  <si>
+    <t>A-1 Gas, Test Ballpen</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>AA Electrical, Test Ballpen</t>
+  </si>
+  <si>
+    <t>Ablao, Test Ballpen</t>
+  </si>
+  <si>
+    <t>Abomar, Test Ballpen</t>
+  </si>
+  <si>
+    <t>A-1 Gas1, Test Ballpen</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>Ablao1, Test Ballpen</t>
+  </si>
+  <si>
+    <t>Ablao2, Test Ballpen</t>
+  </si>
+  <si>
+    <t>Test Monitor</t>
+  </si>
+  <si>
+    <t>A-1 Gas2, Test Monitor</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>AA Electrical1, Test Monitor</t>
+  </si>
+  <si>
+    <t>Ablao3, Test Monitor</t>
+  </si>
+  <si>
+    <t>Abomar1, Test Monitor</t>
+  </si>
+  <si>
+    <t>AA Electrica2l, Test Monitor</t>
+  </si>
+  <si>
+    <t>Abomar2, Test Monitor</t>
+  </si>
+  <si>
+    <t>AA Electrical3, Test Monitor</t>
+  </si>
+  <si>
+    <t>Test Paper</t>
+  </si>
+  <si>
+    <t>A-1 Gas3, Test Paper</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>AA Electrical4, Test Paper</t>
+  </si>
+  <si>
+    <t>Ablao4, Test Paper</t>
+  </si>
+  <si>
+    <t>Abomar3, Test Paper</t>
+  </si>
+  <si>
+    <t>A-1 Gas4, Test Paper</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>Ablao5, Test Paper</t>
+  </si>
+  <si>
+    <t>A-1 Gas5, Test Paper</t>
+  </si>
+  <si>
+    <t>test5</t>
   </si>
   <si>
     <t>a. Price Validity</t>
   </si>
   <si>
+    <t>test price</t>
+  </si>
+  <si>
+    <t>test price1</t>
+  </si>
+  <si>
+    <t>test price2</t>
+  </si>
+  <si>
+    <t>test price3</t>
+  </si>
+  <si>
     <t>b. Payment Terms</t>
   </si>
   <si>
+    <t>Terms</t>
+  </si>
+  <si>
+    <t>Terms1</t>
+  </si>
+  <si>
+    <t>Terms2</t>
+  </si>
+  <si>
+    <t>Terms3</t>
+  </si>
+  <si>
     <t>c. Date of Delivery</t>
   </si>
   <si>
-    <t>August 5, 2019</t>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Time1</t>
+  </si>
+  <si>
+    <t>Time2</t>
+  </si>
+  <si>
+    <t>Time3</t>
   </si>
   <si>
     <t>d. Items Warranty</t>
   </si>
   <si>
+    <t>Warranty</t>
+  </si>
+  <si>
+    <t>Warranty1</t>
+  </si>
+  <si>
+    <t>Warranty2</t>
+  </si>
+  <si>
+    <t>Warranty3</t>
+  </si>
+  <si>
+    <t>e. In-land Freight</t>
+  </si>
+  <si>
+    <t>Freight</t>
+  </si>
+  <si>
+    <t>Freight1</t>
+  </si>
+  <si>
+    <t>Freight2</t>
+  </si>
+  <si>
+    <t>Freight3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Prepared by: </t>
   </si>
   <si>
@@ -185,13 +267,10 @@
     <t>Jonah Benares</t>
   </si>
   <si>
-    <t>Lloyd Jamero/Jushkyle Jambongana</t>
-  </si>
-  <si>
-    <t>Caesariane Jo</t>
-  </si>
-  <si>
-    <t>Concordio Matuod</t>
+    <t>Stephine David Severino</t>
+  </si>
+  <si>
+    <t>Celina Marie Grabillo</t>
   </si>
 </sst>
 </file>
@@ -630,7 +709,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A8" sqref="A8"/>
@@ -639,22 +718,22 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="2.285156" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="17.567139" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="55.272217" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="44.703369" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="38.847656" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="24.708252" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="35.2771" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="19.995117" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="28.135986" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="37.705078" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="34.134521" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="25.85083" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="49.416504" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="24.708252" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="28.135986" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="25.85083" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="20" max="20" width="10.568848" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -791,7 +870,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>21</v>
@@ -800,40 +879,42 @@
         <v>22</v>
       </c>
       <c r="F9" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G9" s="6">
+        <v>10</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="7">
-        <v>31</v>
+      <c r="J9" s="5">
+        <v>10</v>
       </c>
       <c r="K9" s="7">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N9" s="7">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="O9" s="7">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R9" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S9" s="7">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="T9" s="2"/>
       <c r="V9" s="9"/>
@@ -845,33 +926,29 @@
       <c r="C10" s="4"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7">
-        <v>26</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="5">
-        <v>12</v>
-      </c>
-      <c r="K10" s="7">
-        <v>24</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
       <c r="L10" s="2"/>
       <c r="M10" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N10" s="7">
-        <v>334</v>
+        <v>13</v>
       </c>
       <c r="O10" s="7">
-        <v>668</v>
+        <v>13</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -882,148 +959,124 @@
       <c r="W10" s="9"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="2">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="4">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="7">
-        <v>14</v>
-      </c>
-      <c r="G11" s="6">
-        <v>70</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="7">
-        <v>123</v>
-      </c>
-      <c r="K11" s="7">
-        <v>615</v>
-      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
       <c r="L11" s="2"/>
       <c r="M11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N11" s="5">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="N11" s="7">
+        <v>14</v>
       </c>
       <c r="O11" s="7">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="P11" s="2"/>
-      <c r="Q11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="R11" s="7">
-        <v>424</v>
-      </c>
-      <c r="S11" s="7">
-        <v>2120</v>
-      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
       <c r="T11" s="2"/>
       <c r="V11" s="9"/>
       <c r="W11" s="9"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="2"/>
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="4">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="5">
+        <v>12</v>
+      </c>
+      <c r="G12" s="6">
+        <v>48</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="7">
-        <v>15</v>
-      </c>
-      <c r="G12" s="7">
-        <v>75</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="7">
+        <v>13</v>
+      </c>
+      <c r="K12" s="7">
+        <v>52</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="7">
-        <v>43</v>
-      </c>
-      <c r="K12" s="7">
-        <v>215</v>
-      </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="N12" s="7">
+        <v>14</v>
+      </c>
+      <c r="O12" s="7">
+        <v>56</v>
+      </c>
       <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
+      <c r="Q12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R12" s="5">
+        <v>12</v>
+      </c>
+      <c r="S12" s="7">
+        <v>48</v>
+      </c>
       <c r="T12" s="2"/>
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="2">
-        <v>3</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="7">
-        <v>16</v>
-      </c>
-      <c r="G13" s="6">
-        <v>16</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
       <c r="H13" s="2"/>
       <c r="I13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="5">
-        <v>12</v>
+        <v>37</v>
+      </c>
+      <c r="J13" s="7">
+        <v>14</v>
       </c>
       <c r="K13" s="7">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="L13" s="2"/>
-      <c r="M13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N13" s="7">
-        <v>13</v>
-      </c>
-      <c r="O13" s="7">
-        <v>13</v>
-      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R13" s="7">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="S13" s="7">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="T13" s="2"/>
       <c r="V13" s="9"/>
@@ -1034,24 +1087,18 @@
       <c r="B14" s="2"/>
       <c r="C14" s="4"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="7">
-        <v>17</v>
-      </c>
-      <c r="G14" s="7">
-        <v>17</v>
-      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
       <c r="H14" s="2"/>
       <c r="I14" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J14" s="7">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="K14" s="7">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1065,165 +1112,288 @@
       <c r="V14" s="9"/>
       <c r="W14" s="9"/>
     </row>
-    <row r="15" spans="1:23">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="3" t="s">
+    <row r="16" spans="1:23">
+      <c r="A16" s="2">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="4">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="7">
+        <v>13</v>
+      </c>
+      <c r="G16" s="7">
+        <v>195</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J15" s="7">
-        <v>112</v>
-      </c>
-      <c r="K15" s="7">
-        <v>112</v>
-      </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="2"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
+      <c r="J16" s="7">
+        <v>14</v>
+      </c>
+      <c r="K16" s="7">
+        <v>210</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" s="7">
+        <v>15</v>
+      </c>
+      <c r="O16" s="7">
+        <v>225</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R16" s="7">
+        <v>13</v>
+      </c>
+      <c r="S16" s="7">
+        <v>195</v>
+      </c>
+      <c r="T16" s="2"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
     </row>
     <row r="17" spans="1:23">
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="7">
+        <v>13.5</v>
+      </c>
+      <c r="G17" s="7">
+        <v>202.5</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N17" s="7">
+        <v>16</v>
+      </c>
+      <c r="O17" s="7">
+        <v>240</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="2"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="5">
         <v>12</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17"/>
-      <c r="I17" s="15">
-        <v>312</v>
-      </c>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="M17" s="15">
-        <v>123</v>
-      </c>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="Q17" s="15">
-        <v>123</v>
-      </c>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-    </row>
-    <row r="19" spans="1:23">
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="15">
-        <v>34</v>
-      </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="I19" s="15">
+      <c r="G18" s="6">
+        <v>180</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="2"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20"/>
+      <c r="I20" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="M20" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19"/>
-      <c r="M19" s="15">
-        <v>12</v>
-      </c>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="Q19" s="15">
-        <v>32</v>
-      </c>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="Q20" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
     </row>
     <row r="21" spans="1:23">
       <c r="C21" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
       <c r="I21" s="15" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
+      <c r="L21"/>
       <c r="M21" s="15" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
-      <c r="P21"/>
       <c r="Q21" s="15" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="R21" s="16"/>
       <c r="S21" s="16"/>
     </row>
+    <row r="22" spans="1:23">
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="I22" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="M22" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22"/>
+      <c r="Q22" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+    </row>
     <row r="23" spans="1:23">
       <c r="C23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="15">
-        <v>1</v>
+        <v>66</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
-      <c r="I23" s="15">
-        <v>2</v>
+      <c r="I23" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
-      <c r="M23" s="15">
-        <v>3</v>
+      <c r="M23" s="15" t="s">
+        <v>69</v>
       </c>
       <c r="N23" s="16"/>
       <c r="O23" s="16"/>
-      <c r="Q23" s="15">
-        <v>4</v>
+      <c r="Q23" s="15" t="s">
+        <v>70</v>
       </c>
       <c r="R23" s="16"/>
       <c r="S23" s="16"/>
     </row>
+    <row r="24" spans="1:23">
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="I24" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="M24" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="Q24" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+    </row>
     <row r="25" spans="1:23">
       <c r="E25" s="8" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23">
-      <c r="E27" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="K27" s="17" t="s">
-        <v>56</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="E26" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1234,9 +1404,9 @@
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="M7:P7"/>
     <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="M22:P22"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AOQ.xlsx
+++ b/AOQ.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
   <si>
     <t>ABSTRACT OF QUOTATION</t>
   </si>
@@ -23,40 +23,35 @@
     <t>Department: Admin</t>
   </si>
   <si>
-    <t>Date: August 5, 2019</t>
-  </si>
-  <si>
-    <t>Purpose: Lorem Ipsum Dolor</t>
-  </si>
-  <si>
-    <t>PR#: ADM19-1000</t>
-  </si>
-  <si>
-    <t>Enduse: enduse enduse enduse</t>
+    <t>Date: August 13, 2019</t>
+  </si>
+  <si>
+    <t>Purpose: Test Purpose</t>
+  </si>
+  <si>
+    <t>PR#: ADMIN19-1001</t>
+  </si>
+  <si>
+    <t>Enduse: Test Enduse</t>
   </si>
   <si>
     <t xml:space="preserve">Date Needed: </t>
   </si>
   <si>
-    <t>Requested By: Lloyd Jamero/Jushkyle Jambongana</t>
-  </si>
-  <si>
-    <t>2GO Express
-(034) 704-1339</t>
-  </si>
-  <si>
-    <t>7RJ Brothers Sand &amp; Gravel &amp; Gen. Mdse.
-Ms. Tata
-(034)458-0190/213-2249</t>
-  </si>
-  <si>
-    <t>A.C. Parts Merchandising
-(034) 433-2512</t>
-  </si>
-  <si>
-    <t>A-1 Gas Corporation
-Ms. Mary
-434-0708; 433-3637; 433-3638; 432-2079</t>
+    <t>Requested By: Jonah</t>
+  </si>
+  <si>
+    <t>MF Computer Solutions, Inc.
+Sir Che / Ms. Nova Oricio
+434-6544</t>
+  </si>
+  <si>
+    <t>Deco Machine Shop
+(082) 226-4338</t>
+  </si>
+  <si>
+    <t>PJL Auto  Center, Inc.
+(034) 441-1222, 441-1444</t>
   </si>
   <si>
     <t>#</t>
@@ -83,93 +78,147 @@
     <t>COMMENTS</t>
   </si>
   <si>
-    <t>Laptop Charger</t>
-  </si>
-  <si>
-    <t>unit/s</t>
-  </si>
-  <si>
-    <t>2GO Express, Laptop Charger</t>
-  </si>
-  <si>
-    <t>7RJ Brothers, Laptop Charger</t>
-  </si>
-  <si>
-    <t>A.C. Parts Merchandising, Laptop Charger</t>
-  </si>
-  <si>
-    <t>A-1 Gas, Laptop Charger</t>
-  </si>
-  <si>
-    <t>2GO Express1, Laptop Charger</t>
-  </si>
-  <si>
-    <t>7RJ Brothers1, Laptop Charger</t>
-  </si>
-  <si>
-    <t>A.C. Parts Merchandising1, Laptop Charger</t>
-  </si>
-  <si>
-    <t>USB</t>
-  </si>
-  <si>
-    <t>2GO Express2, USB</t>
-  </si>
-  <si>
-    <t>7RJ Brothers3, USB</t>
-  </si>
-  <si>
-    <t>A.C. Parts Merchandising2, USB</t>
-  </si>
-  <si>
-    <t>A-1 Gas1, USB</t>
-  </si>
-  <si>
-    <t>2GO Express3, USB</t>
-  </si>
-  <si>
-    <t>7RJ Brothers4, USB</t>
-  </si>
-  <si>
-    <t>Wifi Adapter</t>
-  </si>
-  <si>
-    <t>2GO Express4, Wifi Adapter</t>
-  </si>
-  <si>
-    <t>7RJ Brothers6, Wifi Adapter</t>
-  </si>
-  <si>
-    <t>A.C. Parts Merchandising3, Wifi Adapter</t>
-  </si>
-  <si>
-    <t>A-1 Gas2, Wifi Adapter</t>
-  </si>
-  <si>
-    <t>2GO Express5, Wifi Adapter</t>
-  </si>
-  <si>
-    <t>7RJ Brothers7, Wifi Adapter</t>
-  </si>
-  <si>
-    <t>7RJ Brothers8, Wifi Adapter</t>
+    <t>cord</t>
+  </si>
+  <si>
+    <t>pc/s</t>
+  </si>
+  <si>
+    <t>mf cord 1, cord</t>
+  </si>
+  <si>
+    <t>comment 1</t>
+  </si>
+  <si>
+    <t>dms cord 1, cord</t>
+  </si>
+  <si>
+    <t>comment 7</t>
+  </si>
+  <si>
+    <t>pjl cord 1, cord</t>
+  </si>
+  <si>
+    <t>comment 13</t>
+  </si>
+  <si>
+    <t>mf cord 2, cord</t>
+  </si>
+  <si>
+    <t>comment 2</t>
+  </si>
+  <si>
+    <t>dms cord 2, cord</t>
+  </si>
+  <si>
+    <t>comment 8</t>
+  </si>
+  <si>
+    <t>pjl cord 2, cord</t>
+  </si>
+  <si>
+    <t>comment 14</t>
+  </si>
+  <si>
+    <t>mf cord 3, cord</t>
+  </si>
+  <si>
+    <t>comment 3</t>
+  </si>
+  <si>
+    <t>dms cord 3, cord</t>
+  </si>
+  <si>
+    <t>comment 9</t>
+  </si>
+  <si>
+    <t>pjl cord 3, cord</t>
+  </si>
+  <si>
+    <t>comment 15</t>
+  </si>
+  <si>
+    <t>wire</t>
+  </si>
+  <si>
+    <t>mf wire 1, wire</t>
+  </si>
+  <si>
+    <t>comment 4</t>
+  </si>
+  <si>
+    <t>dms wire 1, wire</t>
+  </si>
+  <si>
+    <t>comment 10</t>
+  </si>
+  <si>
+    <t>pjl wire 1, wire</t>
+  </si>
+  <si>
+    <t>comment 16</t>
+  </si>
+  <si>
+    <t>mf wire 2, wire</t>
+  </si>
+  <si>
+    <t>comment 5</t>
+  </si>
+  <si>
+    <t>dms wire 2, wire</t>
+  </si>
+  <si>
+    <t>comment 11</t>
+  </si>
+  <si>
+    <t>pjl wire 2, wire</t>
+  </si>
+  <si>
+    <t>comment 17</t>
+  </si>
+  <si>
+    <t>mf wire 3, wire</t>
+  </si>
+  <si>
+    <t>comment 6</t>
+  </si>
+  <si>
+    <t>dms wire 3, wire</t>
+  </si>
+  <si>
+    <t>comment 12</t>
+  </si>
+  <si>
+    <t>pjl wire 3, wire</t>
+  </si>
+  <si>
+    <t>comment 18</t>
   </si>
   <si>
     <t>a. Price Validity</t>
   </si>
   <si>
+    <t>test 1</t>
+  </si>
+  <si>
+    <t>test 2</t>
+  </si>
+  <si>
+    <t>test 3</t>
+  </si>
+  <si>
     <t>b. Payment Terms</t>
   </si>
   <si>
     <t>c. Date of Delivery</t>
   </si>
   <si>
-    <t>August 5, 2019</t>
-  </si>
-  <si>
     <t>d. Items Warranty</t>
   </si>
   <si>
+    <t>e. In-land Freight</t>
+  </si>
+  <si>
     <t xml:space="preserve">Prepared by: </t>
   </si>
   <si>
@@ -185,13 +234,13 @@
     <t>Jonah Benares</t>
   </si>
   <si>
-    <t>Lloyd Jamero/Jushkyle Jambongana</t>
-  </si>
-  <si>
-    <t>Caesariane Jo</t>
-  </si>
-  <si>
-    <t>Concordio Matuod</t>
+    <t>Jonah</t>
+  </si>
+  <si>
+    <t>Daisy Jane Sanchez</t>
+  </si>
+  <si>
+    <t>trial</t>
   </si>
 </sst>
 </file>
@@ -240,13 +289,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFf4e542"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFf4e542"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -276,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -292,35 +341,32 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="4" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="4" fillId="3" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -630,7 +676,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A8" sqref="A8"/>
@@ -639,23 +685,19 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="2.285156" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="17.567139" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="55.272217" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="25.85083" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="38.847656" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="24.708252" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="35.2771" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="49.416504" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="26.993408" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="25.85083" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="19.995117" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="28.135986" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="12.854004" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -694,93 +736,73 @@
       </c>
     </row>
     <row r="7" spans="1:23">
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="11" t="s">
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="11" t="s">
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="11" t="s">
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="11"/>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="A8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="K8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="L8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="O8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="P8" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="P8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="R8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="S8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="T8" s="10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -788,56 +810,54 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="4">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="5">
+        <v>15</v>
+      </c>
+      <c r="G9" s="5">
+        <v>60</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="5">
-        <v>12</v>
-      </c>
-      <c r="G9" s="6">
-        <v>24</v>
-      </c>
-      <c r="H9" s="2"/>
       <c r="I9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="7">
-        <v>31</v>
-      </c>
-      <c r="K9" s="7">
-        <v>62</v>
-      </c>
-      <c r="L9" s="2"/>
+      <c r="J9" s="13">
+        <v>11</v>
+      </c>
+      <c r="K9" s="5">
+        <v>44</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="M9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="7">
-        <v>33</v>
-      </c>
-      <c r="O9" s="7">
-        <v>66</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="R9" s="7">
-        <v>13</v>
-      </c>
-      <c r="S9" s="7">
+      <c r="N9" s="5">
+        <v>14</v>
+      </c>
+      <c r="O9" s="5">
+        <v>56</v>
+      </c>
+      <c r="P9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T9" s="2"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="2"/>
@@ -845,189 +865,145 @@
       <c r="C10" s="4"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="7">
-        <v>13</v>
-      </c>
-      <c r="G10" s="7">
-        <v>26</v>
-      </c>
-      <c r="H10" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="F10" s="5">
+        <v>16</v>
+      </c>
+      <c r="G10" s="8">
+        <v>64</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="I10" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J10" s="5">
         <v>12</v>
       </c>
-      <c r="K10" s="7">
-        <v>24</v>
-      </c>
-      <c r="L10" s="2"/>
+      <c r="K10" s="5">
+        <v>48</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="M10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N10" s="7">
-        <v>334</v>
-      </c>
-      <c r="O10" s="7">
-        <v>668</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="N10" s="5">
+        <v>18</v>
+      </c>
+      <c r="O10" s="5">
+        <v>72</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
-      <c r="T10" s="2"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="2">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="4">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="2"/>
       <c r="E11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="7">
-        <v>14</v>
-      </c>
-      <c r="G11" s="6">
-        <v>70</v>
-      </c>
-      <c r="H11" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="F11" s="5">
+        <v>17</v>
+      </c>
+      <c r="G11" s="5">
+        <v>68</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="I11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="7">
-        <v>123</v>
-      </c>
-      <c r="K11" s="7">
-        <v>615</v>
-      </c>
-      <c r="L11" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="J11" s="5">
+        <v>13</v>
+      </c>
+      <c r="K11" s="5">
+        <v>52</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="M11" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="N11" s="5">
-        <v>12</v>
-      </c>
-      <c r="O11" s="7">
-        <v>60</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="R11" s="7">
-        <v>424</v>
-      </c>
-      <c r="S11" s="7">
-        <v>2120</v>
-      </c>
-      <c r="T11" s="2"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="7">
-        <v>15</v>
-      </c>
-      <c r="G12" s="7">
-        <v>75</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="7">
-        <v>43</v>
-      </c>
-      <c r="K12" s="7">
-        <v>215</v>
-      </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="2"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="O11" s="5">
+        <v>76</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C13" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="7">
-        <v>16</v>
-      </c>
-      <c r="G13" s="6">
-        <v>16</v>
-      </c>
-      <c r="H13" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="F13" s="5">
+        <v>15</v>
+      </c>
+      <c r="G13" s="5">
+        <v>60</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="I13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="5">
-        <v>12</v>
-      </c>
-      <c r="K13" s="7">
-        <v>12</v>
-      </c>
-      <c r="L13" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="J13" s="13">
+        <v>11</v>
+      </c>
+      <c r="K13" s="5">
+        <v>44</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="M13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N13" s="7">
-        <v>13</v>
-      </c>
-      <c r="O13" s="7">
-        <v>13</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R13" s="7">
-        <v>55</v>
-      </c>
-      <c r="S13" s="7">
-        <v>55</v>
-      </c>
-      <c r="T13" s="2"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="N13" s="5">
+        <v>14</v>
+      </c>
+      <c r="O13" s="5">
+        <v>56</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="2"/>
@@ -1035,195 +1011,221 @@
       <c r="C14" s="4"/>
       <c r="D14" s="2"/>
       <c r="E14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="7">
-        <v>17</v>
-      </c>
-      <c r="G14" s="7">
-        <v>17</v>
-      </c>
-      <c r="H14" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="F14" s="5">
+        <v>16</v>
+      </c>
+      <c r="G14" s="8">
+        <v>64</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="I14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="7">
-        <v>34</v>
-      </c>
-      <c r="K14" s="7">
-        <v>34</v>
-      </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="J14" s="5">
+        <v>12</v>
+      </c>
+      <c r="K14" s="5">
+        <v>48</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" s="5">
+        <v>18</v>
+      </c>
+      <c r="O14" s="5">
+        <v>72</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
-      <c r="T14" s="2"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="4"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="2"/>
+      <c r="E15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="5">
+        <v>17</v>
+      </c>
+      <c r="G15" s="5">
+        <v>68</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="I15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15" s="7">
-        <v>112</v>
-      </c>
-      <c r="K15" s="7">
-        <v>112</v>
-      </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="J15" s="5">
+        <v>13</v>
+      </c>
+      <c r="K15" s="5">
+        <v>52</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N15" s="5">
+        <v>19</v>
+      </c>
+      <c r="O15" s="5">
+        <v>76</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
-      <c r="T15" s="2"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-    </row>
-    <row r="17" spans="1:23">
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="15">
-        <v>12</v>
-      </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17"/>
-      <c r="I17" s="15">
-        <v>312</v>
-      </c>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="M17" s="15">
-        <v>123</v>
-      </c>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="Q17" s="15">
-        <v>123</v>
-      </c>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
     </row>
     <row r="19" spans="1:23">
       <c r="C19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="15">
-        <v>34</v>
-      </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="I19" s="15">
-        <v>54</v>
-      </c>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19"/>
-      <c r="M19" s="15">
-        <v>12</v>
-      </c>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="Q19" s="15">
-        <v>32</v>
-      </c>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
+        <v>58</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19"/>
+      <c r="I19" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="M19" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
     </row>
     <row r="21" spans="1:23">
       <c r="C21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="I21" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="M21" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21"/>
-      <c r="Q21" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
+        <v>62</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="I21" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21"/>
+      <c r="M21" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
     </row>
     <row r="23" spans="1:23">
       <c r="C23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="15">
-        <v>1</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="I23" s="15">
-        <v>2</v>
-      </c>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="M23" s="15">
-        <v>3</v>
-      </c>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="Q23" s="15">
-        <v>4</v>
-      </c>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
+        <v>63</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="I23" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="M23" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23"/>
     </row>
     <row r="25" spans="1:23">
-      <c r="E25" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>52</v>
-      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="I25" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="M25" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
     </row>
     <row r="27" spans="1:23">
-      <c r="E27" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="K27" s="17" t="s">
-        <v>56</v>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="I27" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="M27" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="E29" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="E31" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1233,10 +1235,9 @@
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="M7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="M23:P23"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AOQ.xlsx
+++ b/AOQ.xlsx
@@ -15,43 +15,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>ABSTRACT OF QUOTATION</t>
   </si>
   <si>
-    <t>Department: Admin</t>
-  </si>
-  <si>
-    <t>Date: August 13, 2019</t>
+    <t>Department: IT</t>
+  </si>
+  <si>
+    <t>Date: August 14, 2019</t>
   </si>
   <si>
     <t>Purpose: Test Purpose</t>
   </si>
   <si>
-    <t>PR#: ADMIN19-1001</t>
-  </si>
-  <si>
-    <t>Enduse: Test Enduse</t>
+    <t>PR#: ITB19-1000</t>
+  </si>
+  <si>
+    <t>Enduse: Test End-Use</t>
   </si>
   <si>
     <t xml:space="preserve">Date Needed: </t>
   </si>
   <si>
-    <t>Requested By: Jonah</t>
-  </si>
-  <si>
-    <t>MF Computer Solutions, Inc.
-Sir Che / Ms. Nova Oricio
-434-6544</t>
-  </si>
-  <si>
-    <t>Deco Machine Shop
-(082) 226-4338</t>
-  </si>
-  <si>
-    <t>PJL Auto  Center, Inc.
-(034) 441-1222, 441-1444</t>
+    <t>Requested By: Hennelen</t>
+  </si>
+  <si>
+    <t>Ace Hardware Philippines, Inc. - Bacolod Branch
+(034) 468 0135</t>
+  </si>
+  <si>
+    <t>Arising Builders Hardware and Construction Supply
+Ms. Jovelyn Macahipay
+435-4302</t>
+  </si>
+  <si>
+    <t>Bacolod Integral Trading
+Ms. Riza
+433-8170</t>
   </si>
   <si>
     <t>#</t>
@@ -78,133 +79,61 @@
     <t>COMMENTS</t>
   </si>
   <si>
-    <t>cord</t>
+    <t>Cable Ties</t>
+  </si>
+  <si>
+    <t>pack/s</t>
+  </si>
+  <si>
+    <t>Cable Ties A, Cable Ties</t>
+  </si>
+  <si>
+    <t>complying</t>
+  </si>
+  <si>
+    <t>Cable Ties, Cable Ties</t>
+  </si>
+  <si>
+    <t>Cable Ties B, Cable Ties</t>
+  </si>
+  <si>
+    <t>Cable Ties C, Cable Ties</t>
+  </si>
+  <si>
+    <t>PBC</t>
+  </si>
+  <si>
+    <t>meter/s</t>
+  </si>
+  <si>
+    <t>PBC, PBC</t>
+  </si>
+  <si>
+    <t>Screw</t>
   </si>
   <si>
     <t>pc/s</t>
   </si>
   <si>
-    <t>mf cord 1, cord</t>
-  </si>
-  <si>
-    <t>comment 1</t>
-  </si>
-  <si>
-    <t>dms cord 1, cord</t>
-  </si>
-  <si>
-    <t>comment 7</t>
-  </si>
-  <si>
-    <t>pjl cord 1, cord</t>
-  </si>
-  <si>
-    <t>comment 13</t>
-  </si>
-  <si>
-    <t>mf cord 2, cord</t>
-  </si>
-  <si>
-    <t>comment 2</t>
-  </si>
-  <si>
-    <t>dms cord 2, cord</t>
-  </si>
-  <si>
-    <t>comment 8</t>
-  </si>
-  <si>
-    <t>pjl cord 2, cord</t>
-  </si>
-  <si>
-    <t>comment 14</t>
-  </si>
-  <si>
-    <t>mf cord 3, cord</t>
-  </si>
-  <si>
-    <t>comment 3</t>
-  </si>
-  <si>
-    <t>dms cord 3, cord</t>
-  </si>
-  <si>
-    <t>comment 9</t>
-  </si>
-  <si>
-    <t>pjl cord 3, cord</t>
-  </si>
-  <si>
-    <t>comment 15</t>
-  </si>
-  <si>
-    <t>wire</t>
-  </si>
-  <si>
-    <t>mf wire 1, wire</t>
-  </si>
-  <si>
-    <t>comment 4</t>
-  </si>
-  <si>
-    <t>dms wire 1, wire</t>
-  </si>
-  <si>
-    <t>comment 10</t>
-  </si>
-  <si>
-    <t>pjl wire 1, wire</t>
-  </si>
-  <si>
-    <t>comment 16</t>
-  </si>
-  <si>
-    <t>mf wire 2, wire</t>
-  </si>
-  <si>
-    <t>comment 5</t>
-  </si>
-  <si>
-    <t>dms wire 2, wire</t>
-  </si>
-  <si>
-    <t>comment 11</t>
-  </si>
-  <si>
-    <t>pjl wire 2, wire</t>
-  </si>
-  <si>
-    <t>comment 17</t>
-  </si>
-  <si>
-    <t>mf wire 3, wire</t>
-  </si>
-  <si>
-    <t>comment 6</t>
-  </si>
-  <si>
-    <t>dms wire 3, wire</t>
-  </si>
-  <si>
-    <t>comment 12</t>
-  </si>
-  <si>
-    <t>pjl wire 3, wire</t>
-  </si>
-  <si>
-    <t>comment 18</t>
+    <t>Screw 1', Screw</t>
+  </si>
+  <si>
+    <t>Screw, Screw</t>
+  </si>
+  <si>
+    <t>Screw 2', Screw</t>
+  </si>
+  <si>
+    <t>Screw 4', Screw</t>
+  </si>
+  <si>
+    <t>Screw '3, Screw</t>
   </si>
   <si>
     <t>a. Price Validity</t>
   </si>
   <si>
-    <t>test 1</t>
-  </si>
-  <si>
-    <t>test 2</t>
-  </si>
-  <si>
-    <t>test 3</t>
+    <t>test</t>
   </si>
   <si>
     <t>b. Payment Terms</t>
@@ -234,13 +163,13 @@
     <t>Jonah Benares</t>
   </si>
   <si>
-    <t>Jonah</t>
-  </si>
-  <si>
-    <t>Daisy Jane Sanchez</t>
-  </si>
-  <si>
-    <t>trial</t>
+    <t>Hennelen</t>
+  </si>
+  <si>
+    <t>Carlito Alevio</t>
+  </si>
+  <si>
+    <t>Board Room</t>
   </si>
 </sst>
 </file>
@@ -289,13 +218,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFf4e542"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFf4e542"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -341,6 +270,12 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="3" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -350,9 +285,6 @@
     <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -364,9 +296,6 @@
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="3" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -676,7 +605,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:W31"/>
+  <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A8" sqref="A8"/>
@@ -686,18 +615,18 @@
   <cols>
     <col min="1" max="1" width="2.285156" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="25.85083" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="29.421387" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="26.993408" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="25.85083" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="22.280273" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="26.993408" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="29.421387" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="11.711426" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -736,72 +665,72 @@
       </c>
     </row>
     <row r="7" spans="1:23">
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="10" t="s">
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="10" t="s">
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="11"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="12"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -813,7 +742,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>20</v>
@@ -822,10 +751,10 @@
         <v>21</v>
       </c>
       <c r="F9" s="5">
-        <v>15</v>
-      </c>
-      <c r="G9" s="5">
-        <v>60</v>
+        <v>100</v>
+      </c>
+      <c r="G9" s="6">
+        <v>100</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>22</v>
@@ -833,31 +762,31 @@
       <c r="I9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="13">
-        <v>11</v>
-      </c>
-      <c r="K9" s="5">
-        <v>44</v>
+      <c r="J9" s="7">
+        <v>199</v>
+      </c>
+      <c r="K9" s="7">
+        <v>199</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" s="5">
-        <v>14</v>
-      </c>
-      <c r="O9" s="5">
-        <v>56</v>
+        <v>21</v>
+      </c>
+      <c r="N9" s="7">
+        <v>150</v>
+      </c>
+      <c r="O9" s="7">
+        <v>150</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="2"/>
@@ -865,367 +794,373 @@
       <c r="C10" s="4"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="5">
-        <v>16</v>
-      </c>
-      <c r="G10" s="8">
-        <v>64</v>
+        <v>24</v>
+      </c>
+      <c r="F10" s="7">
+        <v>120</v>
+      </c>
+      <c r="G10" s="7">
+        <v>120</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="5">
-        <v>12</v>
-      </c>
-      <c r="K10" s="5">
-        <v>48</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="2"/>
       <c r="M10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N10" s="5">
-        <v>18</v>
-      </c>
-      <c r="O10" s="5">
-        <v>72</v>
+        <v>24</v>
+      </c>
+      <c r="N10" s="7">
+        <v>155</v>
+      </c>
+      <c r="O10" s="7">
+        <v>155</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="4"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="7">
+        <v>160</v>
+      </c>
+      <c r="O11" s="7">
+        <v>160</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="2">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="4">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="5">
+        <v>10</v>
+      </c>
+      <c r="G14" s="6">
+        <v>100</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="7">
+        <v>20</v>
+      </c>
+      <c r="K14" s="7">
+        <v>200</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" s="7">
+        <v>30</v>
+      </c>
+      <c r="O14" s="7">
+        <v>300</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="2">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="4">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="G17" s="7">
+        <v>50</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="K17" s="6">
+        <v>25</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="5">
-        <v>17</v>
-      </c>
-      <c r="G11" s="5">
-        <v>68</v>
-      </c>
-      <c r="H11" s="2" t="s">
+      <c r="N17" s="7">
+        <v>3</v>
+      </c>
+      <c r="O17" s="7">
+        <v>60</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="G18" s="7">
+        <v>70</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="N18" s="7">
+        <v>5</v>
+      </c>
+      <c r="O18" s="7">
+        <v>100</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="5">
-        <v>13</v>
-      </c>
-      <c r="K11" s="5">
-        <v>52</v>
-      </c>
-      <c r="L11" s="2" t="s">
+      <c r="F19" s="7">
+        <v>4</v>
+      </c>
+      <c r="G19" s="7">
+        <v>80</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="2"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="C22" t="s">
         <v>36</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N11" s="5">
-        <v>19</v>
-      </c>
-      <c r="O11" s="5">
-        <v>76</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" s="2">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="4">
-        <v>4</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="5">
-        <v>15</v>
-      </c>
-      <c r="G13" s="5">
-        <v>60</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" s="13">
-        <v>11</v>
-      </c>
-      <c r="K13" s="5">
-        <v>44</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N13" s="5">
-        <v>14</v>
-      </c>
-      <c r="O13" s="5">
-        <v>56</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="5">
-        <v>16</v>
-      </c>
-      <c r="G14" s="8">
-        <v>64</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J14" s="5">
-        <v>12</v>
-      </c>
-      <c r="K14" s="5">
-        <v>48</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N14" s="5">
-        <v>18</v>
-      </c>
-      <c r="O14" s="5">
-        <v>72</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="5">
-        <v>17</v>
-      </c>
-      <c r="G15" s="5">
-        <v>68</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J15" s="5">
-        <v>13</v>
-      </c>
-      <c r="K15" s="5">
-        <v>52</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N15" s="5">
-        <v>19</v>
-      </c>
-      <c r="O15" s="5">
-        <v>76</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-    </row>
-    <row r="19" spans="1:23">
-      <c r="C19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19"/>
-      <c r="I19" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="M19" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-    </row>
-    <row r="21" spans="1:23">
-      <c r="C21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="I21" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21"/>
-      <c r="M21" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
+      <c r="E22" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22"/>
+      <c r="I22" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="M22" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
     </row>
     <row r="23" spans="1:23">
       <c r="C23" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="I23" s="14" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
+      <c r="L23"/>
       <c r="M23" s="14" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
-      <c r="P23"/>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="I24" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="M24" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24"/>
     </row>
     <row r="25" spans="1:23">
       <c r="C25" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
       <c r="I25" s="14" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
       <c r="M25" s="14" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
     </row>
+    <row r="26" spans="1:23">
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="I26" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="M26" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+    </row>
     <row r="27" spans="1:23">
-      <c r="C27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="I27" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="M27" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-    </row>
-    <row r="29" spans="1:23">
-      <c r="E29" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23">
-      <c r="E31" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I31" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="K31" s="16" t="s">
-        <v>73</v>
+      <c r="E27" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="E28" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1235,9 +1170,9 @@
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="M7:P7"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="M24:P24"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AOQ.xlsx
+++ b/AOQ.xlsx
@@ -15,43 +15,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>ABSTRACT OF QUOTATION</t>
   </si>
   <si>
-    <t>Department: Admin</t>
-  </si>
-  <si>
-    <t>Date: August 13, 2019</t>
-  </si>
-  <si>
-    <t>Purpose: Test Purpose</t>
-  </si>
-  <si>
-    <t>PR#: ADMIN19-1001</t>
-  </si>
-  <si>
-    <t>Enduse: Test Enduse</t>
+    <t>Department: IT Department - BCD</t>
+  </si>
+  <si>
+    <t>Date: August 14, 2019</t>
+  </si>
+  <si>
+    <t>Purpose: TEST PURPOSE</t>
+  </si>
+  <si>
+    <t>PR#: ITB19-1000</t>
+  </si>
+  <si>
+    <t>Enduse: TEST ENDUSE</t>
   </si>
   <si>
     <t xml:space="preserve">Date Needed: </t>
   </si>
   <si>
-    <t>Requested By: Jonah</t>
-  </si>
-  <si>
-    <t>MF Computer Solutions, Inc.
-Sir Che / Ms. Nova Oricio
-434-6544</t>
-  </si>
-  <si>
-    <t>Deco Machine Shop
-(082) 226-4338</t>
-  </si>
-  <si>
-    <t>PJL Auto  Center, Inc.
-(034) 441-1222, 441-1444</t>
+    <t>Requested By: Stephine David Severino</t>
+  </si>
+  <si>
+    <t>2GO Express
+(034) 704-1339</t>
+  </si>
+  <si>
+    <t>7RJ Brothers Sand &amp; Gravel &amp; Gen. Mdse.
+Ms. Tata
+(034)458-0190/213-2249</t>
+  </si>
+  <si>
+    <t>A.C. Parts Merchandising
+(034) 433-2512</t>
   </si>
   <si>
     <t>#</t>
@@ -78,147 +78,105 @@
     <t>COMMENTS</t>
   </si>
   <si>
-    <t>cord</t>
+    <t>Test CPU</t>
   </si>
   <si>
     <t>pc/s</t>
   </si>
   <si>
-    <t>mf cord 1, cord</t>
-  </si>
-  <si>
-    <t>comment 1</t>
-  </si>
-  <si>
-    <t>dms cord 1, cord</t>
-  </si>
-  <si>
-    <t>comment 7</t>
-  </si>
-  <si>
-    <t>pjl cord 1, cord</t>
-  </si>
-  <si>
-    <t>comment 13</t>
-  </si>
-  <si>
-    <t>mf cord 2, cord</t>
-  </si>
-  <si>
-    <t>comment 2</t>
-  </si>
-  <si>
-    <t>dms cord 2, cord</t>
-  </si>
-  <si>
-    <t>comment 8</t>
-  </si>
-  <si>
-    <t>pjl cord 2, cord</t>
-  </si>
-  <si>
-    <t>comment 14</t>
-  </si>
-  <si>
-    <t>mf cord 3, cord</t>
-  </si>
-  <si>
-    <t>comment 3</t>
-  </si>
-  <si>
-    <t>dms cord 3, cord</t>
-  </si>
-  <si>
-    <t>comment 9</t>
-  </si>
-  <si>
-    <t>pjl cord 3, cord</t>
-  </si>
-  <si>
-    <t>comment 15</t>
-  </si>
-  <si>
-    <t>wire</t>
-  </si>
-  <si>
-    <t>mf wire 1, wire</t>
-  </si>
-  <si>
-    <t>comment 4</t>
-  </si>
-  <si>
-    <t>dms wire 1, wire</t>
-  </si>
-  <si>
-    <t>comment 10</t>
-  </si>
-  <si>
-    <t>pjl wire 1, wire</t>
-  </si>
-  <si>
-    <t>comment 16</t>
-  </si>
-  <si>
-    <t>mf wire 2, wire</t>
-  </si>
-  <si>
-    <t>comment 5</t>
-  </si>
-  <si>
-    <t>dms wire 2, wire</t>
-  </si>
-  <si>
-    <t>comment 11</t>
-  </si>
-  <si>
-    <t>pjl wire 2, wire</t>
-  </si>
-  <si>
-    <t>comment 17</t>
-  </si>
-  <si>
-    <t>mf wire 3, wire</t>
-  </si>
-  <si>
-    <t>comment 6</t>
-  </si>
-  <si>
-    <t>dms wire 3, wire</t>
-  </si>
-  <si>
-    <t>comment 12</t>
-  </si>
-  <si>
-    <t>pjl wire 3, wire</t>
-  </si>
-  <si>
-    <t>comment 18</t>
+    <t>2GO Express, Test CPU</t>
+  </si>
+  <si>
+    <t>7RJ Brothers, Test CPU</t>
+  </si>
+  <si>
+    <t>A.C. Parts, Test CPU</t>
+  </si>
+  <si>
+    <t>Test Keyboard</t>
+  </si>
+  <si>
+    <t>2GO Express1, Test Keyboard</t>
+  </si>
+  <si>
+    <t>7RJ Brothers1, Test Keyboard</t>
+  </si>
+  <si>
+    <t>A.C. Parts1, Test Keyboard</t>
+  </si>
+  <si>
+    <t>Test Mouse</t>
+  </si>
+  <si>
+    <t>2GO Express2, Test Mouse</t>
+  </si>
+  <si>
+    <t>7RJ Brothers2, Test Mouse</t>
+  </si>
+  <si>
+    <t>A.C. Parts2, Test Mouse</t>
   </si>
   <si>
     <t>a. Price Validity</t>
   </si>
   <si>
-    <t>test 1</t>
-  </si>
-  <si>
-    <t>test 2</t>
-  </si>
-  <si>
-    <t>test 3</t>
+    <t>test price</t>
+  </si>
+  <si>
+    <t>test price1</t>
+  </si>
+  <si>
+    <t>test price2</t>
   </si>
   <si>
     <t>b. Payment Terms</t>
   </si>
   <si>
+    <t>Terms</t>
+  </si>
+  <si>
+    <t>Terms1</t>
+  </si>
+  <si>
+    <t>Terms2</t>
+  </si>
+  <si>
     <t>c. Date of Delivery</t>
   </si>
   <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Time1</t>
+  </si>
+  <si>
+    <t>Time2</t>
+  </si>
+  <si>
     <t>d. Items Warranty</t>
   </si>
   <si>
+    <t>Warranty</t>
+  </si>
+  <si>
+    <t>Warranty1</t>
+  </si>
+  <si>
+    <t>Warranty2</t>
+  </si>
+  <si>
     <t>e. In-land Freight</t>
   </si>
   <si>
+    <t>Freight</t>
+  </si>
+  <si>
+    <t>Freight1</t>
+  </si>
+  <si>
+    <t>Freight2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Prepared by: </t>
   </si>
   <si>
@@ -234,13 +192,13 @@
     <t>Jonah Benares</t>
   </si>
   <si>
-    <t>Jonah</t>
-  </si>
-  <si>
-    <t>Daisy Jane Sanchez</t>
-  </si>
-  <si>
-    <t>trial</t>
+    <t>Stephine David Severino</t>
+  </si>
+  <si>
+    <t>Carlos Antonio Leonardia</t>
+  </si>
+  <si>
+    <t>Celina Marie Grabillo</t>
   </si>
 </sst>
 </file>
@@ -289,13 +247,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFf4e542"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFf4e542"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -341,6 +299,12 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="3" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -350,9 +314,6 @@
     <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -364,9 +325,6 @@
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="3" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -676,7 +634,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:W31"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A8" sqref="A8"/>
@@ -685,19 +643,19 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="2.285156" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="25.85083" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="44.703369" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="26.993408" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="28.135986" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="25.85083" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="34.134521" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="19.995117" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="25.85083" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="31.706543" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="10.568848" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -736,72 +694,72 @@
       </c>
     </row>
     <row r="7" spans="1:23">
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="10" t="s">
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="10" t="s">
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="11"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="12"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -813,7 +771,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>20</v>
@@ -822,410 +780,280 @@
         <v>21</v>
       </c>
       <c r="F9" s="5">
-        <v>15</v>
-      </c>
-      <c r="G9" s="5">
+        <v>10</v>
+      </c>
+      <c r="G9" s="6">
+        <v>50</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="7">
+        <v>11</v>
+      </c>
+      <c r="K9" s="7">
+        <v>55</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="7">
+        <v>12</v>
+      </c>
+      <c r="O9" s="7">
         <v>60</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="13">
-        <v>11</v>
-      </c>
-      <c r="K9" s="5">
-        <v>44</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" s="5">
-        <v>14</v>
-      </c>
-      <c r="O9" s="5">
-        <v>56</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
+      <c r="P9" s="2"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="4"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="5">
+        <v>20</v>
+      </c>
+      <c r="G12" s="6">
+        <v>40</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="7">
+        <v>21</v>
+      </c>
+      <c r="K12" s="7">
+        <v>42</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="5">
-        <v>16</v>
-      </c>
-      <c r="G10" s="8">
-        <v>64</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="N12" s="7">
+        <v>22</v>
+      </c>
+      <c r="O12" s="7">
+        <v>44</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="2">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="5">
-        <v>12</v>
-      </c>
-      <c r="K10" s="5">
-        <v>48</v>
-      </c>
-      <c r="L10" s="2" t="s">
+      <c r="F15" s="7">
         <v>30</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="G15" s="6">
+        <v>30</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="7">
         <v>31</v>
       </c>
-      <c r="N10" s="5">
-        <v>18</v>
-      </c>
-      <c r="O10" s="5">
-        <v>72</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="5">
-        <v>17</v>
-      </c>
-      <c r="G11" s="5">
-        <v>68</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="5">
-        <v>13</v>
-      </c>
-      <c r="K11" s="5">
-        <v>52</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N11" s="5">
-        <v>19</v>
-      </c>
-      <c r="O11" s="5">
-        <v>76</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" s="2">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="4">
-        <v>4</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="5">
-        <v>15</v>
-      </c>
-      <c r="G13" s="5">
-        <v>60</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" s="13">
-        <v>11</v>
-      </c>
-      <c r="K13" s="5">
-        <v>44</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N13" s="5">
-        <v>14</v>
-      </c>
-      <c r="O13" s="5">
-        <v>56</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="5">
-        <v>16</v>
-      </c>
-      <c r="G14" s="8">
-        <v>64</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J14" s="5">
-        <v>12</v>
-      </c>
-      <c r="K14" s="5">
-        <v>48</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N14" s="5">
-        <v>18</v>
-      </c>
-      <c r="O14" s="5">
-        <v>72</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="5">
-        <v>17</v>
-      </c>
-      <c r="G15" s="5">
-        <v>68</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J15" s="5">
-        <v>13</v>
-      </c>
-      <c r="K15" s="5">
-        <v>52</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="K15" s="7">
+        <v>31</v>
+      </c>
+      <c r="L15" s="2"/>
       <c r="M15" s="3" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="N15" s="5">
-        <v>19</v>
-      </c>
-      <c r="O15" s="5">
-        <v>76</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="O15" s="7">
+        <v>23</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
     </row>
     <row r="19" spans="1:23">
       <c r="C19" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19"/>
       <c r="I19" s="14" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
       <c r="M19" s="14" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
     </row>
+    <row r="20" spans="1:23">
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="I20" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20"/>
+      <c r="M20" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+    </row>
     <row r="21" spans="1:23">
       <c r="C21" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
       <c r="I21" s="14" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
-      <c r="L21"/>
       <c r="M21" s="14" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="N21" s="15"/>
       <c r="O21" s="15"/>
+      <c r="P21"/>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="I22" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="M22" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
     </row>
     <row r="23" spans="1:23">
       <c r="C23" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="I23" s="14" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
       <c r="M23" s="14" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
-      <c r="P23"/>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="E24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:23">
-      <c r="C25" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="K25" s="16" t="s">
         <v>59</v>
-      </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="I25" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="M25" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-    </row>
-    <row r="27" spans="1:23">
-      <c r="C27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="I27" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="M27" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-    </row>
-    <row r="29" spans="1:23">
-      <c r="E29" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23">
-      <c r="E31" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I31" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="K31" s="16" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1236,8 +1064,8 @@
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="M7:P7"/>
     <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="M21:P21"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AOQ.xlsx
+++ b/AOQ.xlsx
@@ -15,45 +15,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
   <si>
     <t>ABSTRACT OF QUOTATION</t>
   </si>
   <si>
-    <t>Department: Special Project</t>
-  </si>
-  <si>
-    <t>Date: August 23, 2019</t>
-  </si>
-  <si>
-    <t>Purpose: For additional live/real time monitoring of additional 23 cctv camera.</t>
-  </si>
-  <si>
-    <t>PR#: SPE19-1000</t>
-  </si>
-  <si>
-    <t>Enduse: Plant Site Security &amp; Monitoring Equipment</t>
+    <t>Department: Operations</t>
+  </si>
+  <si>
+    <t>Date: September 11, 2019</t>
+  </si>
+  <si>
+    <t>Purpose: Installation of Piping in Lube oil Recovery (Westfalia Purifier).</t>
+  </si>
+  <si>
+    <t>PR#: OPE19-1000</t>
+  </si>
+  <si>
+    <t>Enduse: Lube oil Recovery (Westfalia Purifier).</t>
   </si>
   <si>
     <t xml:space="preserve">Date Needed: </t>
   </si>
   <si>
-    <t>Requested By: Lloyd G. Jamero</t>
-  </si>
-  <si>
-    <t>Imperial Appliance Plaza
-Ms. Jenry
-(034) 435-0469</t>
-  </si>
-  <si>
-    <t>Appliance Centrum
-Ms. Marivic
-(034) 434 6995</t>
-  </si>
-  <si>
-    <t>Asian Home Appliance
-Ms. Camille
-(034) 441 6553</t>
+    <t>Requested By: Juanito Dagupan / Joselito Panes</t>
+  </si>
+  <si>
+    <t>Golden Gate Hardware
+Ma'am Susan
+(034) 433-0995 / 434-6848</t>
+  </si>
+  <si>
+    <t>New Yutek Hardware and Industrial Supply Corporation
+Sir Berto
+(032) 255-5406</t>
+  </si>
+  <si>
+    <t>Bacolod Steel Center Corporation
+Ms. Pinky
+435-2721-25</t>
   </si>
   <si>
     <t>#</t>
@@ -80,22 +80,79 @@
     <t>COMMENTS</t>
   </si>
   <si>
-    <t>Monitor/TV 60" (Sharp 60LE360D3 Full HD)</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>Ultra HD Smart TV, 65", Brand: Devant, Offer: Free wall mount bracket, Antenna and Sound Bar, Monitor/TV 60" (Sharp 60LE360D3 Full HD)</t>
+    <t>Coupling, Bushing, 1", Inside Thread</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>Coupling, Bushing, 1", Inside Thread, Offer: BI</t>
   </si>
   <si>
     <t>complying</t>
   </si>
   <si>
-    <t>Ultra HD Smart TV, 65", Brand: Devant, Monitor/TV 60" (Sharp 60LE360D3 Full HD)</t>
-  </si>
-  <si>
-    <t>Ultra HD Smart TV, 65", Brand: Samsung, Offer: Free Sound Bar, Monitor/TV 60" (Sharp 60LE360D3 Full HD)</t>
+    <t>Elbow, Carbon Steel, 2" x 90 deg, Buttweld Seamless, Schd 40, Long Radius</t>
+  </si>
+  <si>
+    <t>Elbow, 2" x 90 deg, Buttweld Seamless, Schd 40, Long Radius, Offer: BI</t>
+  </si>
+  <si>
+    <t>Elbow, 2" x 90 deg, Buttweld Seamless, Schd 40, Long Radius, Offer: SS</t>
+  </si>
+  <si>
+    <t>Flange, 1", Slip-on</t>
+  </si>
+  <si>
+    <t>Flange, 1", Slip-on, Offer: BI</t>
+  </si>
+  <si>
+    <t>Flange, 2", Slip-on</t>
+  </si>
+  <si>
+    <t>Flange, 2", Slip-on, Offer: BI</t>
+  </si>
+  <si>
+    <t>Flange,2", Slip-on</t>
+  </si>
+  <si>
+    <t>Nipple, BI, 1" x 4", Threaded Both Side</t>
+  </si>
+  <si>
+    <t>Nipple, BI, 1" x 4", Threaded Both Side, Offer: SS</t>
+  </si>
+  <si>
+    <t>Pipe, Carbon Steel, 1", Schedule 40</t>
+  </si>
+  <si>
+    <t>lengths</t>
+  </si>
+  <si>
+    <t>Pipe, Carbon Steel, 2", Schedule 40</t>
+  </si>
+  <si>
+    <t>Valve, Check, 2"</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>Valve, Check, 2", Offer: Brass, Brand: Akita</t>
+  </si>
+  <si>
+    <t>Valve, Check, 2", Offer: Flange Type</t>
+  </si>
+  <si>
+    <t>Valve, Check, 2", Offer: Threaded</t>
+  </si>
+  <si>
+    <t>Valve, Gate, 1", Flange Type</t>
+  </si>
+  <si>
+    <t>Valve, Gate, 1", Flange Type, Offer: Threaded, Brand: Akita</t>
+  </si>
+  <si>
+    <t>Valve, Gate, 2", Flange Type</t>
   </si>
   <si>
     <t>a. Price Validity</t>
@@ -104,15 +161,9 @@
     <t>b. Payment Terms</t>
   </si>
   <si>
-    <t>COD</t>
-  </si>
-  <si>
     <t>c. Date of Delivery</t>
   </si>
   <si>
-    <t>Ex-stock</t>
-  </si>
-  <si>
     <t>d. Items Warranty</t>
   </si>
   <si>
@@ -134,13 +185,7 @@
     <t>Jonah Benares</t>
   </si>
   <si>
-    <t>Lloyd G. Jamero</t>
-  </si>
-  <si>
-    <t>Ma. Milagros Arana</t>
-  </si>
-  <si>
-    <t>Eric Jabiniar</t>
+    <t>Juanito Dagupan / Joselito Panes</t>
   </si>
 </sst>
 </file>
@@ -576,7 +621,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A8" sqref="A8"/>
@@ -584,20 +629,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="2.285156" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="48.273926" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="159.104004" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="26.993408" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="25.85083" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="94.262695" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="3.427734" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="87.121582" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="88.406982" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="38.847656" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="29.421387" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="87.121582" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="16.424561" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="122.541504" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="4.570313" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="10.568848" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -635,7 +680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" customHeight="1" ht="50">
       <c r="E7" s="11" t="s">
         <v>8</v>
       </c>
@@ -713,7 +758,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>20</v>
@@ -722,155 +767,697 @@
         <v>21</v>
       </c>
       <c r="F9" s="5">
-        <v>50765</v>
+        <v>60</v>
       </c>
       <c r="G9" s="6">
-        <v>50765</v>
+        <v>600</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J9" s="7">
-        <v>56950</v>
+        <v>150</v>
       </c>
       <c r="K9" s="7">
-        <v>56950</v>
+        <v>1500</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="7">
-        <v>69500</v>
-      </c>
-      <c r="O9" s="7">
-        <v>69500</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="2"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
     </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="4">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="7">
+        <v>95</v>
+      </c>
+      <c r="G11" s="7">
+        <v>380</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="5">
+        <v>80</v>
+      </c>
+      <c r="K11" s="6">
+        <v>320</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="2"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="7">
+        <v>470</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1880</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="2"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+    </row>
     <row r="13" spans="1:23">
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
+      <c r="A13" s="2">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="4">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="7">
+        <v>105</v>
+      </c>
+      <c r="G13" s="7">
+        <v>630</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="5">
+        <v>70</v>
+      </c>
+      <c r="K13" s="6">
+        <v>420</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="2"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
     </row>
     <row r="14" spans="1:23">
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="I14" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14"/>
-      <c r="M14" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:23">
-      <c r="C15" t="s">
+      <c r="A15" s="2">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="C15" s="4">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="I15" s="14" t="s">
+      <c r="F15" s="7">
+        <v>220</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1320</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="5">
+        <v>160</v>
+      </c>
+      <c r="K15" s="6">
+        <v>960</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="2"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="2">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="4">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="M15" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15"/>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-    </row>
-    <row r="17" spans="1:23">
-      <c r="C17" t="s">
+      <c r="F17" s="7">
+        <v>220</v>
+      </c>
+      <c r="G17" s="7">
+        <v>2640</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="5">
+        <v>160</v>
+      </c>
+      <c r="K17" s="6">
+        <v>1920</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="2"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="2">
+        <v>6</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-    </row>
-    <row r="18" spans="1:23">
-      <c r="E18" s="8" t="s">
+      <c r="C19" s="4">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="F19" s="5">
+        <v>120</v>
+      </c>
+      <c r="G19" s="6">
+        <v>480</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="2"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="2">
+        <v>7</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="C21" s="4">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="E21" s="2"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="5">
+        <v>1150</v>
+      </c>
+      <c r="K21" s="6">
+        <v>3450</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="2"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="2">
+        <v>8</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
-      <c r="E19" s="16" t="s">
+      <c r="C23" s="4">
+        <v>3</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" s="5">
+        <v>2450</v>
+      </c>
+      <c r="K23" s="6">
+        <v>7350</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="2"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="2">
+        <v>9</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="16" t="s">
+      <c r="E25" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K19" s="16" t="s">
+      <c r="F25" s="5">
+        <v>2250</v>
+      </c>
+      <c r="G25" s="6">
+        <v>2250</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="J25" s="7">
+        <v>3500</v>
+      </c>
+      <c r="K25" s="7">
+        <v>3500</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="2"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26" s="7">
+        <v>2450</v>
+      </c>
+      <c r="K26" s="7">
+        <v>2450</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="2"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="2">
+        <v>10</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="4">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="5">
+        <v>540</v>
+      </c>
+      <c r="G27" s="6">
+        <v>1080</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="2"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="2">
+        <v>11</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="4">
+        <v>3</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="5">
+        <v>540</v>
+      </c>
+      <c r="G29" s="7">
+        <v>1620</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" s="7">
+        <v>4000</v>
+      </c>
+      <c r="K29" s="7">
+        <v>12000</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="2"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34"/>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="14"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="E37" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="E38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="K38" s="16"/>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="E39" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I39" s="8"/>
+      <c r="K39" s="8"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -879,9 +1466,9 @@
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="M7:P7"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="M34:P34"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AOQ.xlsx
+++ b/AOQ.xlsx
@@ -15,44 +15,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>ABSTRACT OF QUOTATION</t>
   </si>
   <si>
-    <t>Department: OPERATION</t>
-  </si>
-  <si>
-    <t>Date: September 24, 2019</t>
-  </si>
-  <si>
-    <t>Purpose: FOR OPERATIONAL CHEMICALS</t>
-  </si>
-  <si>
-    <t>PR#: OPE19-1000</t>
-  </si>
-  <si>
-    <t>Enduse: OPERATION CHEMICALS</t>
+    <t>Department: Operations</t>
+  </si>
+  <si>
+    <t>Date: September 25, 2019</t>
+  </si>
+  <si>
+    <t>Purpose: Consumbles for Rewinding of Rotor Pole #2 (Supersede).</t>
+  </si>
+  <si>
+    <t>PR#: EIC19-1003</t>
+  </si>
+  <si>
+    <t>Enduse: DG3 Main Field/Rotor.</t>
   </si>
   <si>
     <t xml:space="preserve">Date Needed: </t>
   </si>
   <si>
-    <t>Requested By: ALLAN AMOGUIS</t>
-  </si>
-  <si>
-    <t>2GO Express, Inc.
-Ms Apple/Ms Liza
-(034) 435-4965 / 704-2039 / 704-2396</t>
-  </si>
-  <si>
-    <t>7RJ Brothers Sand &amp; Gravel &amp; Gen. Mdse.
-Ms. Tata
-(034)458-0190/213-2249</t>
-  </si>
-  <si>
-    <t>A.C. Parts Merchandising
-(034) 433-2512</t>
+    <t>Requested By: Julius Pangilinan / Kennah Sasamoto</t>
+  </si>
+  <si>
+    <t>Ace Hardware Philippines, Inc. - Bacolod Branch
+(034) 468 0135</t>
+  </si>
+  <si>
+    <t>A-one Industrial Sales
+Ms. Miles
+435-7383; 432-0652; 476-1127</t>
+  </si>
+  <si>
+    <t>Visayan Construction Supply
+434-7277 / 434-7278</t>
   </si>
   <si>
     <t>#</t>
@@ -79,33 +78,48 @@
     <t>COMMENTS</t>
   </si>
   <si>
-    <t>Argina</t>
-  </si>
-  <si>
-    <t>drms</t>
-  </si>
-  <si>
-    <t>Argina-shell</t>
+    <t>Plier; Electrical</t>
+  </si>
+  <si>
+    <t>pc.</t>
+  </si>
+  <si>
+    <t>Ace Hardware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-one Industrial </t>
+  </si>
+  <si>
+    <t>Visayan Construction</t>
+  </si>
+  <si>
+    <t>Ace Hardware1</t>
+  </si>
+  <si>
+    <t>A-one Industrial1</t>
+  </si>
+  <si>
+    <t>Visayan Construction1</t>
+  </si>
+  <si>
+    <t>Ace Hardware2</t>
+  </si>
+  <si>
+    <t>A-one Industrial2</t>
+  </si>
+  <si>
+    <t>Visayan Construction2</t>
   </si>
   <si>
     <t>a. Price Validity</t>
   </si>
   <si>
-    <t>30 days</t>
-  </si>
-  <si>
     <t>b. Payment Terms</t>
   </si>
   <si>
-    <t>m/30</t>
-  </si>
-  <si>
     <t>c. Date of Delivery</t>
   </si>
   <si>
-    <t>same day</t>
-  </si>
-  <si>
     <t>d. Items Warranty</t>
   </si>
   <si>
@@ -127,13 +141,13 @@
     <t>Jonah Benares</t>
   </si>
   <si>
-    <t>ALLAN AMOGUIS</t>
-  </si>
-  <si>
-    <t>Zyndyryn Rosales</t>
-  </si>
-  <si>
-    <t>Admin Department</t>
+    <t>Julius Pangilinan / Kennah Sasamoto</t>
+  </si>
+  <si>
+    <t>stephine david severino, jason flor, hennelen tana</t>
+  </si>
+  <si>
+    <t>charmaine plaza, kervic salas, maylen cabaylo</t>
   </si>
 </sst>
 </file>
@@ -170,7 +184,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,6 +197,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFf4e542"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -212,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -229,6 +249,9 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="4" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="3" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -560,7 +583,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A8" sqref="A8"/>
@@ -569,18 +592,18 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="2.285156" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="41.132813" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="26.993408" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="75.410156" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="42.418213" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="29.421387" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="19.995117" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="60.128174" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="54.129639" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="25.85083" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="10.568848" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -620,72 +643,72 @@
       </c>
     </row>
     <row r="7" spans="1:23" customHeight="1" ht="50">
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="10" t="s">
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="10" t="s">
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="11"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="12"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -697,7 +720,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>20</v>
@@ -706,160 +729,222 @@
         <v>21</v>
       </c>
       <c r="F9" s="5">
-        <v>2400</v>
+        <v>10</v>
       </c>
       <c r="G9" s="6">
-        <v>24000</v>
+        <v>10</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="5">
-        <v>2400</v>
-      </c>
-      <c r="K9" s="6">
-        <v>24000</v>
+        <v>22</v>
+      </c>
+      <c r="J9" s="7">
+        <v>40</v>
+      </c>
+      <c r="K9" s="7">
+        <v>40</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" s="5">
-        <v>2400</v>
-      </c>
-      <c r="O9" s="6">
-        <v>24000</v>
+        <v>23</v>
+      </c>
+      <c r="N9" s="7">
+        <v>70</v>
+      </c>
+      <c r="O9" s="7">
+        <v>70</v>
       </c>
       <c r="P9" s="2"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13"/>
-      <c r="I13" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="M13" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="C14" t="s">
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="F10" s="7">
+        <v>20</v>
+      </c>
+      <c r="G10" s="7">
+        <v>20</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="I14" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14"/>
-      <c r="M14" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
+      <c r="J10" s="7">
+        <v>50</v>
+      </c>
+      <c r="K10" s="7">
+        <v>50</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="7">
+        <v>80</v>
+      </c>
+      <c r="O10" s="7">
+        <v>80</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="7">
+        <v>30</v>
+      </c>
+      <c r="G11" s="7">
+        <v>30</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="7">
+        <v>60</v>
+      </c>
+      <c r="K11" s="7">
+        <v>60</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="7">
+        <v>90</v>
+      </c>
+      <c r="O11" s="7">
+        <v>90</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
     </row>
     <row r="15" spans="1:23">
       <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="I15" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="M15" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15"/>
+        <v>30</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
     </row>
     <row r="16" spans="1:23">
       <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
+        <v>31</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
     </row>
     <row r="17" spans="1:23">
       <c r="C17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
+        <v>32</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17"/>
     </row>
     <row r="18" spans="1:23">
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="7" t="s">
+      <c r="C18" t="s">
         <v>33</v>
       </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
     </row>
     <row r="19" spans="1:23">
-      <c r="E19" s="15"/>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
       <c r="G19" s="15"/>
-      <c r="I19" s="15"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="15"/>
       <c r="K19" s="15"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
     </row>
     <row r="20" spans="1:23">
-      <c r="E20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="E20" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="G20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="I20" s="8" t="s">
         <v>37</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="E21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="K21" s="16"/>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="E22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -869,9 +954,9 @@
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="M7:P7"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M17:P17"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AOQ.xlsx
+++ b/AOQ.xlsx
@@ -15,43 +15,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>ABSTRACT OF QUOTATION</t>
   </si>
   <si>
-    <t>Department: Operations</t>
-  </si>
-  <si>
-    <t>Date: September 25, 2019</t>
-  </si>
-  <si>
-    <t>Purpose: Consumbles for Rewinding of Rotor Pole #2 (Supersede).</t>
-  </si>
-  <si>
-    <t>PR#: EIC19-1003</t>
-  </si>
-  <si>
-    <t>Enduse: DG3 Main Field/Rotor.</t>
+    <t>Department: Accounting</t>
+  </si>
+  <si>
+    <t>Date: October 2, 2019</t>
+  </si>
+  <si>
+    <t>Purpose: Sample Purpose</t>
+  </si>
+  <si>
+    <t>PR#: acc19-1000</t>
+  </si>
+  <si>
+    <t>Enduse: Sample Enduse</t>
   </si>
   <si>
     <t xml:space="preserve">Date Needed: </t>
   </si>
   <si>
-    <t>Requested By: Julius Pangilinan / Kennah Sasamoto</t>
-  </si>
-  <si>
-    <t>Ace Hardware Philippines, Inc. - Bacolod Branch
-(034) 468 0135</t>
-  </si>
-  <si>
-    <t>A-one Industrial Sales
-Ms. Miles
-435-7383; 432-0652; 476-1127</t>
-  </si>
-  <si>
-    <t>Visayan Construction Supply
-434-7277 / 434-7278</t>
+    <t>Requested By: Henne Tanan</t>
+  </si>
+  <si>
+    <t>Bacolod China Mart
+Ms. Donna/Ms, Angela
+434-7293/434-7670</t>
+  </si>
+  <si>
+    <t>Bacolod Office Solutions Unlimited, Inc.
+433-9636</t>
+  </si>
+  <si>
+    <t>Bacolod HKL Enterprises
+(034) 458 9588</t>
   </si>
   <si>
     <t>#</t>
@@ -78,37 +78,28 @@
     <t>COMMENTS</t>
   </si>
   <si>
-    <t>Plier; Electrical</t>
-  </si>
-  <si>
-    <t>pc.</t>
-  </si>
-  <si>
-    <t>Ace Hardware</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-one Industrial </t>
-  </si>
-  <si>
-    <t>Visayan Construction</t>
-  </si>
-  <si>
-    <t>Ace Hardware1</t>
-  </si>
-  <si>
-    <t>A-one Industrial1</t>
-  </si>
-  <si>
-    <t>Visayan Construction1</t>
-  </si>
-  <si>
-    <t>Ace Hardware2</t>
-  </si>
-  <si>
-    <t>A-one Industrial2</t>
-  </si>
-  <si>
-    <t>Visayan Construction2</t>
+    <t>Ballpen</t>
+  </si>
+  <si>
+    <t>bcm ballpen offer</t>
+  </si>
+  <si>
+    <t>bosu ballpen offer</t>
+  </si>
+  <si>
+    <t>hkl ballpen offer</t>
+  </si>
+  <si>
+    <t>Envelope</t>
+  </si>
+  <si>
+    <t>bcm envelope offer</t>
+  </si>
+  <si>
+    <t>bosu envelope offer</t>
+  </si>
+  <si>
+    <t>hkl envelope offer</t>
   </si>
   <si>
     <t>a. Price Validity</t>
@@ -141,13 +132,13 @@
     <t>Jonah Benares</t>
   </si>
   <si>
-    <t>Julius Pangilinan / Kennah Sasamoto</t>
-  </si>
-  <si>
-    <t>stephine david severino, jason flor, hennelen tana</t>
-  </si>
-  <si>
-    <t>charmaine plaza, kervic salas, maylen cabaylo</t>
+    <t>Henne Tanan</t>
+  </si>
+  <si>
+    <t>jonah benares</t>
+  </si>
+  <si>
+    <t>mila arana/david tan</t>
   </si>
 </sst>
 </file>
@@ -184,7 +175,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,12 +188,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFf4e542"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -232,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -249,9 +234,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="4" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="3" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -583,7 +565,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A8" sqref="A8"/>
@@ -592,16 +574,16 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="2.285156" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="21.137695" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="75.410156" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="30.563965" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="42.418213" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="29.421387" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="60.128174" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="26.993408" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="25.85083" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="23.422852" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="54.129639" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="24.708252" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="25.85083" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="22.280273" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="10.568848" bestFit="true" customWidth="true" style="0"/>
@@ -643,72 +625,72 @@
       </c>
     </row>
     <row r="7" spans="1:23" customHeight="1" ht="50">
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="11" t="s">
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="11" t="s">
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="11"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="N8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="O8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="P8" s="10" t="s">
+      <c r="P8" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -720,231 +702,195 @@
         <v>19</v>
       </c>
       <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="F9" s="5">
         <v>10</v>
       </c>
       <c r="G9" s="6">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="7">
-        <v>40</v>
-      </c>
-      <c r="K9" s="7">
-        <v>40</v>
+        <v>21</v>
+      </c>
+      <c r="J9" s="6">
+        <v>14</v>
+      </c>
+      <c r="K9" s="6">
+        <v>70</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="6">
+        <v>15</v>
+      </c>
+      <c r="O9" s="6">
+        <v>75</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="7">
-        <v>70</v>
-      </c>
-      <c r="O9" s="7">
-        <v>70</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3" t="s">
+      <c r="C12" s="4">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="7">
-        <v>20</v>
-      </c>
-      <c r="G10" s="7">
-        <v>20</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="3" t="s">
+      <c r="F12" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="G12" s="6">
+        <v>54</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="7">
-        <v>50</v>
-      </c>
-      <c r="K10" s="7">
-        <v>50</v>
-      </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="3" t="s">
+      <c r="J12" s="5">
+        <v>12</v>
+      </c>
+      <c r="K12" s="6">
+        <v>48</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="7">
-        <v>80</v>
-      </c>
-      <c r="O10" s="7">
-        <v>80</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="7">
-        <v>30</v>
-      </c>
-      <c r="G11" s="7">
-        <v>30</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="7">
-        <v>60</v>
-      </c>
-      <c r="K11" s="7">
-        <v>60</v>
-      </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" s="7">
-        <v>90</v>
-      </c>
-      <c r="O11" s="7">
-        <v>90</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
+      <c r="N12" s="6">
+        <v>16.5</v>
+      </c>
+      <c r="O12" s="6">
+        <v>66</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
     </row>
     <row r="16" spans="1:23">
       <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
+        <v>27</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
     </row>
     <row r="17" spans="1:23">
       <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17"/>
+        <v>28</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
     </row>
     <row r="18" spans="1:23">
       <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18"/>
     </row>
     <row r="19" spans="1:23">
       <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="E21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-    </row>
-    <row r="20" spans="1:23">
-      <c r="E20" s="8" t="s">
+      <c r="K21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="8" t="s">
+    </row>
+    <row r="22" spans="1:23">
+      <c r="E22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="K22" s="15"/>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="E23" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="G23" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="I23" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
-      <c r="E21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="K21" s="16"/>
-    </row>
-    <row r="22" spans="1:23">
-      <c r="E22" s="8" t="s">
+      <c r="K23" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -954,9 +900,9 @@
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="M7:P7"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="M18:P18"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AOQ.xlsx
+++ b/AOQ.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>ABSTRACT OF QUOTATION</t>
   </si>
@@ -23,35 +23,32 @@
     <t>Department: Operations</t>
   </si>
   <si>
-    <t>Date: September 25, 2019</t>
-  </si>
-  <si>
-    <t>Purpose: Consumbles for Rewinding of Rotor Pole #2 (Supersede).</t>
-  </si>
-  <si>
-    <t>PR#: EIC19-1003</t>
-  </si>
-  <si>
-    <t>Enduse: DG3 Main Field/Rotor.</t>
+    <t>Date: October 1, 2019</t>
+  </si>
+  <si>
+    <t>Purpose: Installation of Piping in Lube oil Recovery (Westfalia Purifier).</t>
+  </si>
+  <si>
+    <t>PR#: OPE19-1000</t>
+  </si>
+  <si>
+    <t>Enduse: Lube oil Recovery (Westfalia Purifier).</t>
   </si>
   <si>
     <t xml:space="preserve">Date Needed: </t>
   </si>
   <si>
-    <t>Requested By: Julius Pangilinan / Kennah Sasamoto</t>
-  </si>
-  <si>
-    <t>Ace Hardware Philippines, Inc. - Bacolod Branch
-(034) 468 0135</t>
-  </si>
-  <si>
-    <t>A-one Industrial Sales
-Ms. Miles
-435-7383; 432-0652; 476-1127</t>
-  </si>
-  <si>
-    <t>Visayan Construction Supply
-434-7277 / 434-7278</t>
+    <t>Requested By: Juanito Dagupan / Joselito Panes</t>
+  </si>
+  <si>
+    <t>Golden Gate Hardware
+Ma'am Susan
+(034) 433-0995 / 434-6848</t>
+  </si>
+  <si>
+    <t>New Yutek Hardware and Industrial Supply Corporation
+Sir Berto
+(032) 255-5406</t>
   </si>
   <si>
     <t>#</t>
@@ -78,37 +75,37 @@
     <t>COMMENTS</t>
   </si>
   <si>
-    <t>Plier; Electrical</t>
-  </si>
-  <si>
-    <t>pc.</t>
-  </si>
-  <si>
-    <t>Ace Hardware</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-one Industrial </t>
-  </si>
-  <si>
-    <t>Visayan Construction</t>
-  </si>
-  <si>
-    <t>Ace Hardware1</t>
-  </si>
-  <si>
-    <t>A-one Industrial1</t>
-  </si>
-  <si>
-    <t>Visayan Construction1</t>
-  </si>
-  <si>
-    <t>Ace Hardware2</t>
-  </si>
-  <si>
-    <t>A-one Industrial2</t>
-  </si>
-  <si>
-    <t>Visayan Construction2</t>
+    <t>Coupling, Bushing, 1", Inside Thread</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>Elbow, Carbon Steel, 2" x 90 deg, Buttweld Seamless, Schd 40, Long Radius</t>
+  </si>
+  <si>
+    <t>Flange, 1", Slip-on</t>
+  </si>
+  <si>
+    <t>Flange, 2", Slip-on</t>
+  </si>
+  <si>
+    <t>Flange,2", Slip-on</t>
+  </si>
+  <si>
+    <t>Nipple, BI, 1" x 4", Threaded Both Side</t>
+  </si>
+  <si>
+    <t>Valve, Check, 2"</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>Valve, Gate, 1", Flange Type</t>
+  </si>
+  <si>
+    <t>Valve, Gate, 2", Flange Type</t>
   </si>
   <si>
     <t>a. Price Validity</t>
@@ -141,13 +138,7 @@
     <t>Jonah Benares</t>
   </si>
   <si>
-    <t>Julius Pangilinan / Kennah Sasamoto</t>
-  </si>
-  <si>
-    <t>stephine david severino, jason flor, hennelen tana</t>
-  </si>
-  <si>
-    <t>charmaine plaza, kervic salas, maylen cabaylo</t>
+    <t>Juanito Dagupan / Joselito Panes</t>
   </si>
 </sst>
 </file>
@@ -251,29 +242,29 @@
     <xf xfId="0" fontId="0" numFmtId="4" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="4" fillId="3" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -583,7 +574,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A8" sqref="A8"/>
@@ -592,19 +583,19 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="2.285156" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="21.137695" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="75.410156" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="87.121582" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="88.406982" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="42.418213" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="29.421387" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="60.128174" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="54.129639" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="38.847656" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="25.85083" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="16.424561" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="25.85083" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="1.142578" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="1.142578" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="1.142578" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="1.142578" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -643,308 +634,626 @@
       </c>
     </row>
     <row r="7" spans="1:23" customHeight="1" ht="50">
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="11" t="s">
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="11" t="s">
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="12"/>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="A8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="K8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="L8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P8" s="10" t="s">
-        <v>18</v>
-      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="2">
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>21</v>
+      <c r="E9" s="3">
+        <v>123</v>
       </c>
       <c r="F9" s="5">
         <v>10</v>
       </c>
       <c r="G9" s="6">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="7">
-        <v>40</v>
-      </c>
-      <c r="K9" s="7">
-        <v>40</v>
+      <c r="I9" s="3">
+        <v>2141234</v>
+      </c>
+      <c r="J9" s="6">
+        <v>100</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1000</v>
       </c>
       <c r="L9" s="2"/>
-      <c r="M9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N9" s="7">
-        <v>70</v>
-      </c>
-      <c r="O9" s="7">
-        <v>70</v>
-      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
       <c r="P9" s="2"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="4"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="7">
-        <v>20</v>
-      </c>
-      <c r="G10" s="7">
-        <v>20</v>
-      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="7">
-        <v>50</v>
-      </c>
-      <c r="K10" s="7">
-        <v>50</v>
-      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N10" s="7">
-        <v>80</v>
-      </c>
-      <c r="O10" s="7">
-        <v>80</v>
-      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="4"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2134312</v>
+      </c>
+      <c r="F12" s="5">
+        <v>20</v>
+      </c>
+      <c r="G12" s="13">
+        <v>80</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="3">
+        <v>1234</v>
+      </c>
+      <c r="J12" s="6">
+        <v>110</v>
+      </c>
+      <c r="K12" s="6">
+        <v>440</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="2"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="2">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="4">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="3">
+        <v>213</v>
+      </c>
+      <c r="F15" s="5">
+        <v>30</v>
+      </c>
+      <c r="G15" s="6">
+        <v>180</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="3">
+        <v>42314</v>
+      </c>
+      <c r="J15" s="6">
+        <v>120</v>
+      </c>
+      <c r="K15" s="6">
+        <v>720</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="2"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="2">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="4">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="3">
+        <v>123</v>
+      </c>
+      <c r="F18" s="5">
+        <v>40</v>
+      </c>
+      <c r="G18" s="6">
+        <v>240</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="3">
+        <v>2344532</v>
+      </c>
+      <c r="J18" s="6">
+        <v>130</v>
+      </c>
+      <c r="K18" s="6">
+        <v>780</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="2"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="2">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="4">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="3">
+        <v>213</v>
+      </c>
+      <c r="F21" s="5">
+        <v>50</v>
+      </c>
+      <c r="G21" s="13">
+        <v>600</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="3">
+        <v>2314</v>
+      </c>
+      <c r="J21" s="6">
+        <v>140</v>
+      </c>
+      <c r="K21" s="6">
+        <v>1680</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="2"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="2">
+        <v>6</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="4">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3214</v>
+      </c>
+      <c r="F24" s="5">
+        <v>60</v>
+      </c>
+      <c r="G24" s="6">
+        <v>240</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="3">
+        <v>2134</v>
+      </c>
+      <c r="J24" s="6">
+        <v>150</v>
+      </c>
+      <c r="K24" s="6">
+        <v>600</v>
+      </c>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="2"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="2">
+        <v>7</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1234</v>
+      </c>
+      <c r="F27" s="5">
+        <v>70</v>
+      </c>
+      <c r="G27" s="6">
+        <v>70</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="3">
+        <v>2134</v>
+      </c>
+      <c r="J27" s="6">
+        <v>160</v>
+      </c>
+      <c r="K27" s="6">
+        <v>160</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="2"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="2">
+        <v>8</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="7">
+      <c r="C30" s="4">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="3">
+        <v>242134</v>
+      </c>
+      <c r="F30" s="5">
+        <v>80</v>
+      </c>
+      <c r="G30" s="6">
+        <v>160</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="3">
+        <v>54322</v>
+      </c>
+      <c r="J30" s="6">
+        <v>170</v>
+      </c>
+      <c r="K30" s="6">
+        <v>340</v>
+      </c>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="2"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="2">
+        <v>9</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="4">
+        <v>3</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2134</v>
+      </c>
+      <c r="F33" s="5">
+        <v>90</v>
+      </c>
+      <c r="G33" s="6">
+        <v>270</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="3">
+        <v>2134</v>
+      </c>
+      <c r="J33" s="6">
+        <v>180</v>
+      </c>
+      <c r="K33" s="6">
+        <v>540</v>
+      </c>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="2"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="14"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="C38" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="7">
-        <v>30</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="7">
-        <v>60</v>
-      </c>
-      <c r="K11" s="7">
-        <v>60</v>
-      </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" s="7">
-        <v>90</v>
-      </c>
-      <c r="O11" s="7">
-        <v>90</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="C16" t="s">
+      <c r="E38" s="14"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38"/>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="C39" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-    </row>
-    <row r="17" spans="1:23">
-      <c r="C17" t="s">
+      <c r="E39" s="14"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="C40" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17"/>
-    </row>
-    <row r="18" spans="1:23">
-      <c r="C18" t="s">
+      <c r="E40" s="14"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="C41" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-    </row>
-    <row r="19" spans="1:23">
-      <c r="C19" t="s">
+      <c r="E41" s="14"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="E42" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-    </row>
-    <row r="20" spans="1:23">
-      <c r="E20" s="8" t="s">
+      <c r="G42" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="I42" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="K42" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="8" t="s">
+    </row>
+    <row r="43" spans="1:23">
+      <c r="E43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="K43" s="16"/>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="E44" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
-      <c r="E21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="K21" s="16"/>
-    </row>
-    <row r="22" spans="1:23">
-      <c r="E22" s="8" t="s">
+      <c r="G44" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>42</v>
+      <c r="I44" s="7">
+        <v>123</v>
+      </c>
+      <c r="K44" s="7">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -954,9 +1263,9 @@
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="M7:P7"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="M39:P39"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AOQ.xlsx
+++ b/AOQ.xlsx
@@ -15,48 +15,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>ABSTRACT OF QUOTATION</t>
   </si>
   <si>
-    <t>Department: Special Proj/Facilities Imp</t>
-  </si>
-  <si>
-    <t>Date: November 29, 2019</t>
-  </si>
-  <si>
-    <t>Purpose: Construction of CENPRI Canteen</t>
-  </si>
-  <si>
-    <t>PR#: SPE19-1065</t>
-  </si>
-  <si>
-    <t>Enduse: CENPRI Employees</t>
+    <t>Department: Operation</t>
+  </si>
+  <si>
+    <t>Date: January 29, 2021</t>
+  </si>
+  <si>
+    <t>Purpose: Installation of Piping in Lube oil Recovery (Westfalia Purifier).</t>
+  </si>
+  <si>
+    <t>PR#: OPE19-1000</t>
+  </si>
+  <si>
+    <t>Enduse: Lube oil Recovery (Westfalia Purifier)</t>
   </si>
   <si>
     <t xml:space="preserve">Date Needed: </t>
   </si>
   <si>
-    <t>Requested By: Iris J. Sixto/Irish Dawn E. Torres</t>
-  </si>
-  <si>
-    <t>A-one Industrial Sales
-Ms. Miles
-435-7383; 432-0652; 476-1127</t>
-  </si>
-  <si>
-    <t>Greenlane Hardware and Construction Supply Inc
-Ronaldo Lao
-432-1119</t>
-  </si>
-  <si>
-    <t>SGS Hardware Corporation
-(034) 435 3023 to 25</t>
-  </si>
-  <si>
-    <t>Visayan Construction Supply
-434-7277 / 434-7278</t>
+    <t>Requested By: J. Dagupan/J .Panes</t>
+  </si>
+  <si>
+    <t>Bacolod Oxygen Acetylene Gas Corp.
+(034) 434-1780</t>
+  </si>
+  <si>
+    <t>Central Gas Corporation (CEGASCO)
+Ms. Mary
+(034) 444-0048 / 444-1113 / 444-1109 / 444-1996 / 444-1348 / 444-1344 / 444-1348</t>
   </si>
   <si>
     <t>#</t>
@@ -86,51 +77,33 @@
     <t>COMMENTS</t>
   </si>
   <si>
-    <t>Disc, Cutting, Diamond, 4"</t>
-  </si>
-  <si>
-    <t>pcs.</t>
-  </si>
-  <si>
-    <t>Disc; Cutting, Diamond, 4", Continous, Brand: Irwin</t>
+    <t>Oxygen</t>
+  </si>
+  <si>
+    <t>cyls.</t>
   </si>
   <si>
     <t>PHP</t>
   </si>
   <si>
-    <t>Complying</t>
-  </si>
-  <si>
-    <t>Disc; Cutting, Diamond, 4", Brand: Irwin</t>
-  </si>
-  <si>
-    <t>Disc; Cutting, Diamond, 4"</t>
-  </si>
-  <si>
-    <t>Disc; Cutting, Diamond, 4", Brand: Creston</t>
-  </si>
-  <si>
-    <t>Disc; Cutting, Diamond, 4", Segmented, Brand: Irwin</t>
+    <t>Acetylene</t>
+  </si>
+  <si>
+    <t>cyl.</t>
+  </si>
+  <si>
+    <t>Argon</t>
   </si>
   <si>
     <t>a. Price Validity</t>
   </si>
   <si>
-    <t>30 days</t>
-  </si>
-  <si>
     <t>b. Payment Terms</t>
   </si>
   <si>
-    <t>COD</t>
-  </si>
-  <si>
     <t>c. Date of Delivery</t>
   </si>
   <si>
-    <t>Ex-stock to supplier.</t>
-  </si>
-  <si>
     <t>d. Items Warranty</t>
   </si>
   <si>
@@ -155,7 +128,13 @@
     <t>Jonah Benares</t>
   </si>
   <si>
-    <t xml:space="preserve">Ma. Milagros Arana / David Tan </t>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Trial only</t>
+  </si>
+  <si>
+    <t>Testing stephine</t>
   </si>
 </sst>
 </file>
@@ -192,7 +171,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,12 +184,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFf4e542"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -240,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -253,15 +226,12 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="3" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -276,6 +246,12 @@
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -594,7 +570,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AC21"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A8" sqref="A8"/>
@@ -605,559 +581,496 @@
     <col min="1" max="1" width="2.285156" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="30" customWidth="true" style="0"/>
     <col min="5" max="5" width="30" customWidth="true" style="0"/>
-    <col min="4" max="4" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="4.570313" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="30" customWidth="true" style="0"/>
-    <col min="15" max="15" width="30" customWidth="true" style="0"/>
-    <col min="20" max="20" width="30" customWidth="true" style="0"/>
-    <col min="25" max="25" width="30" customWidth="true" style="0"/>
     <col min="6" max="6" width="10" customWidth="true" style="0"/>
     <col min="7" max="7" width="10" customWidth="true" style="0"/>
     <col min="8" max="8" width="10" customWidth="true" style="0"/>
+    <col min="9" max="9" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="30" customWidth="true" style="0"/>
     <col min="11" max="11" width="10" customWidth="true" style="0"/>
     <col min="12" max="12" width="10" customWidth="true" style="0"/>
     <col min="13" max="13" width="10" customWidth="true" style="0"/>
+    <col min="14" max="14" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="30" customWidth="true" style="0"/>
     <col min="16" max="16" width="10" customWidth="true" style="0"/>
     <col min="17" max="17" width="10" customWidth="true" style="0"/>
     <col min="18" max="18" width="10" customWidth="true" style="0"/>
-    <col min="21" max="21" width="10" customWidth="true" style="0"/>
-    <col min="22" max="22" width="10" customWidth="true" style="0"/>
-    <col min="23" max="23" width="10" customWidth="true" style="0"/>
-    <col min="26" max="26" width="10" customWidth="true" style="0"/>
-    <col min="27" max="27" width="10" customWidth="true" style="0"/>
-    <col min="28" max="28" width="10" customWidth="true" style="0"/>
+    <col min="19" max="19" width="1.142578" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
-      <c r="E1" s="12"/>
+    <row r="1" spans="1:19">
+      <c r="E1" s="13"/>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="J1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="Y1" s="12"/>
-    </row>
-    <row r="2" spans="1:29">
+      <c r="J1" s="13"/>
+      <c r="O1" s="13"/>
+    </row>
+    <row r="2" spans="1:19">
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="Y2" s="12"/>
-    </row>
-    <row r="3" spans="1:29">
+      <c r="J2" s="13"/>
+      <c r="O2" s="13"/>
+    </row>
+    <row r="3" spans="1:19">
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="Y3" s="12"/>
-    </row>
-    <row r="4" spans="1:29">
+      <c r="J3" s="13"/>
+      <c r="O3" s="13"/>
+    </row>
+    <row r="4" spans="1:19">
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="13"/>
+      <c r="F4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="Y4" s="12"/>
-    </row>
-    <row r="5" spans="1:29">
+      <c r="J4" s="13"/>
+      <c r="O4" s="13"/>
+    </row>
+    <row r="5" spans="1:19">
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="Y5" s="12"/>
-    </row>
-    <row r="6" spans="1:29">
-      <c r="E6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="Y6" s="12"/>
-    </row>
-    <row r="7" spans="1:29" customHeight="1" ht="50">
-      <c r="E7" s="8" t="s">
+      <c r="E5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="O5" s="13"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="E6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="O6" s="13"/>
+    </row>
+    <row r="7" spans="1:19" customHeight="1" ht="50">
+      <c r="E7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="8" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="8" t="s">
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-    </row>
-    <row r="8" spans="1:29">
-      <c r="A8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="G8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="N8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="S8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="U8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="V8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="W8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="X8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="O8" s="7"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="15">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="10">
+      <c r="G9" s="4">
+        <v>100</v>
+      </c>
+      <c r="H9" s="5">
+        <v>200</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="15">
+        <v>15</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="5">
+        <v>400</v>
+      </c>
+      <c r="M9" s="5">
+        <v>800</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="2"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="2"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="O11" s="13"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="2">
         <v>2</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="E12" s="15">
+        <v>13</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="4">
+        <v>200</v>
+      </c>
+      <c r="H12" s="5">
+        <v>200</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="15">
+        <v>16</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="5">
+        <v>500</v>
+      </c>
+      <c r="M12" s="5">
+        <v>500</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="O13" s="13"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="O14" s="13"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="2">
+        <v>3</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="4">
-        <v>212</v>
-      </c>
-      <c r="H9" s="4">
-        <v>424</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="C15" s="9">
+        <v>4</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="15">
+        <v>14</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="4">
+        <v>300</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1200</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="15">
+        <v>17</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="5">
+        <v>600</v>
+      </c>
+      <c r="M15" s="5">
+        <v>2400</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="2"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="O16" s="13"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="O17" s="13"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="O18" s="13"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="B19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="O19" s="13"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="B20" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="4">
-        <v>339.2</v>
-      </c>
-      <c r="M9" s="4">
-        <v>678.4</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9" s="14" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="O20" s="13"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="B21" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>380</v>
-      </c>
-      <c r="R9" s="4">
-        <v>760</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="T9" s="14" t="s">
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="O21" s="13"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="B22" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V9" s="4">
-        <v>260</v>
-      </c>
-      <c r="W9" s="4">
-        <v>520</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="2"/>
-    </row>
-    <row r="10" spans="1:29">
-      <c r="A10" s="2"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="14" t="s">
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="O22" s="13"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="B23" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="5">
-        <v>182</v>
-      </c>
-      <c r="H10" s="6">
-        <v>364</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="2"/>
-    </row>
-    <row r="11" spans="1:29">
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="Y11" s="12"/>
-    </row>
-    <row r="12" spans="1:29">
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="Y12" s="12"/>
-    </row>
-    <row r="13" spans="1:29">
-      <c r="B13" s="12" t="s">
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="O23" s="13"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="O24" s="13"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="B25" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="15" t="s">
+      <c r="C25" s="13"/>
+      <c r="D25" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="J13" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="O13" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="T13" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="Y13" s="12"/>
-    </row>
-    <row r="14" spans="1:29">
-      <c r="B14" s="12" t="s">
+      <c r="E25" s="17"/>
+      <c r="G25" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="15" t="s">
+      <c r="H25"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="J14" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="O14" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="T14" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="Y14" s="12"/>
-    </row>
-    <row r="15" spans="1:29">
-      <c r="B15" s="12" t="s">
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="O25" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="15" t="s">
+    </row>
+    <row r="26" spans="1:19">
+      <c r="B26" s="14"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="18"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="O26" s="14"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="B27" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="J15" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="O15" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="T15" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="Y15" s="12"/>
-    </row>
-    <row r="16" spans="1:29">
-      <c r="B16" s="12" t="s">
+      <c r="C27" s="13"/>
+      <c r="D27" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="Y16" s="12"/>
-    </row>
-    <row r="17" spans="1:29">
-      <c r="B17" s="12" t="s">
+      <c r="E27" s="17"/>
+      <c r="G27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="Y17" s="12"/>
-    </row>
-    <row r="18" spans="1:29">
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="Y18" s="12"/>
-    </row>
-    <row r="19" spans="1:29">
-      <c r="B19" s="12" t="s">
+      <c r="O27" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="G19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19" s="16"/>
-      <c r="K19" t="s">
-        <v>41</v>
-      </c>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="O19" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="T19" s="16"/>
-      <c r="Y19" s="12"/>
-    </row>
-    <row r="20" spans="1:29">
-      <c r="B20" s="13"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="17"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="O20" s="17"/>
-      <c r="T20" s="16"/>
-      <c r="Y20" s="12"/>
-    </row>
-    <row r="21" spans="1:29">
-      <c r="B21" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="16"/>
-      <c r="G21"/>
-      <c r="J21" s="16"/>
-      <c r="K21"/>
-      <c r="O21" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="T21" s="16"/>
-      <c r="Y21" s="12"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -1166,14 +1079,12 @@
     <mergeCell ref="E7:I7"/>
     <mergeCell ref="J7:N7"/>
     <mergeCell ref="O7:S7"/>
-    <mergeCell ref="T7:X7"/>
-    <mergeCell ref="Y7:AC7"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="K26:M26"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AOQ.xlsx
+++ b/AOQ.xlsx
@@ -15,39 +15,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>ABSTRACT OF QUOTATION</t>
   </si>
   <si>
-    <t>Department: Operation</t>
-  </si>
-  <si>
-    <t>Date: January 29, 2021</t>
-  </si>
-  <si>
-    <t>Purpose: Installation of Piping in Lube oil Recovery (Westfalia Purifier).</t>
-  </si>
-  <si>
-    <t>PR#: OPE19-1000</t>
-  </si>
-  <si>
-    <t>Enduse: Lube oil Recovery (Westfalia Purifier)</t>
+    <t>Department: IT</t>
+  </si>
+  <si>
+    <t>Date: February 3, 2021</t>
+  </si>
+  <si>
+    <t>Purpose: Sample Purpose</t>
+  </si>
+  <si>
+    <t>PR#: ITB21-1003</t>
+  </si>
+  <si>
+    <t>Enduse: Sample End Use</t>
   </si>
   <si>
     <t xml:space="preserve">Date Needed: </t>
   </si>
   <si>
-    <t>Requested By: J. Dagupan/J .Panes</t>
-  </si>
-  <si>
-    <t>Bacolod Oxygen Acetylene Gas Corp.
-(034) 434-1780</t>
-  </si>
-  <si>
-    <t>Central Gas Corporation (CEGASCO)
-Ms. Mary
-(034) 444-0048 / 444-1113 / 444-1109 / 444-1996 / 444-1348 / 444-1344 / 444-1348</t>
+    <t>Requested By: Hennelen Tanan</t>
+  </si>
+  <si>
+    <t>Pinamalayan Hyper Market
+Alfred Bonifacio
+034 659 6568</t>
+  </si>
+  <si>
+    <t>Sample Vendor
+sample contact person
+12364898</t>
+  </si>
+  <si>
+    <t>Bacolod China Mart
+Ms. Donna/Ms, Angela
+434-7293/434-7670</t>
   </si>
   <si>
     <t>#</t>
@@ -77,27 +83,42 @@
     <t>COMMENTS</t>
   </si>
   <si>
-    <t>Oxygen</t>
-  </si>
-  <si>
-    <t>cyls.</t>
+    <t>Hand Soap, 100ml</t>
+  </si>
+  <si>
+    <t>bot/s</t>
   </si>
   <si>
     <t>PHP</t>
   </si>
   <si>
-    <t>Acetylene</t>
-  </si>
-  <si>
-    <t>cyl.</t>
-  </si>
-  <si>
-    <t>Argon</t>
+    <t>Tissue</t>
+  </si>
+  <si>
+    <t>roll/s</t>
+  </si>
+  <si>
+    <t>Tissue, Two-ply</t>
+  </si>
+  <si>
+    <t>Alcohol</t>
+  </si>
+  <si>
+    <t>gal/s</t>
+  </si>
+  <si>
+    <t>Alcohol, Ethyl</t>
+  </si>
+  <si>
+    <t>Alcohol 100%</t>
   </si>
   <si>
     <t>a. Price Validity</t>
   </si>
   <si>
+    <t>sample</t>
+  </si>
+  <si>
     <t>b. Payment Terms</t>
   </si>
   <si>
@@ -125,16 +146,10 @@
     <t xml:space="preserve">Approved by: </t>
   </si>
   <si>
-    <t>Jonah Benares</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Trial only</t>
-  </si>
-  <si>
-    <t>Testing stephine</t>
+    <t>Hennelen Tanan</t>
+  </si>
+  <si>
+    <t>Sample name</t>
   </si>
 </sst>
 </file>
@@ -226,29 +241,29 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="4" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -570,7 +585,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A8" sqref="A8"/>
@@ -594,7 +609,7 @@
     <col min="16" max="16" width="10" customWidth="true" style="0"/>
     <col min="17" max="17" width="10" customWidth="true" style="0"/>
     <col min="18" max="18" width="10" customWidth="true" style="0"/>
-    <col min="19" max="19" width="1.142578" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="10.568848" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -654,136 +669,156 @@
       <c r="O6" s="13"/>
     </row>
     <row r="7" spans="1:19" customHeight="1" ht="50">
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="7" t="s">
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
+      <c r="S7" s="7"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="6" t="s">
+      <c r="I8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="K8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="L8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="M8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="7"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
+      <c r="N8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="9">
-        <v>2</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="15">
-        <v>12</v>
+      <c r="C9" s="8">
+        <v>10</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G9" s="4">
-        <v>100</v>
-      </c>
-      <c r="H9" s="5">
+        <v>150</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1500</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="9">
+        <v>149</v>
+      </c>
+      <c r="M9" s="4">
+        <v>1490</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q9" s="4">
         <v>200</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="15">
-        <v>15</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="5">
-        <v>400</v>
-      </c>
-      <c r="M9" s="5">
-        <v>800</v>
-      </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
+      <c r="R9" s="4">
+        <v>2000</v>
+      </c>
       <c r="S9" s="2"/>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="2"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="8"/>
+      <c r="J10" s="7"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="8"/>
+      <c r="O10" s="7"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -801,107 +836,136 @@
       <c r="A12" s="2">
         <v>2</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="8">
+        <v>10</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="9">
+      <c r="G12" s="4">
+        <v>5</v>
+      </c>
+      <c r="H12" s="4">
+        <v>50</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="9">
+        <v>4</v>
+      </c>
+      <c r="M12" s="4">
+        <v>40</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="2"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="4">
+        <v>4.95</v>
+      </c>
+      <c r="H13" s="4">
+        <v>49.5</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="2">
+        <v>3</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="8">
         <v>1</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="15">
-        <v>13</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="4">
-        <v>200</v>
-      </c>
-      <c r="H12" s="5">
-        <v>200</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="15">
-        <v>16</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="5">
-        <v>500</v>
-      </c>
-      <c r="M12" s="5">
-        <v>500</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="2"/>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="O13" s="13"/>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="O14" s="13"/>
+      <c r="D14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1300</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1300</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1499</v>
+      </c>
+      <c r="M14" s="4">
+        <v>1499</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>1500</v>
+      </c>
+      <c r="R14" s="4">
+        <v>1500</v>
+      </c>
+      <c r="S14" s="2"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="2">
-        <v>3</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="9">
-        <v>4</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="15">
-        <v>14</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="4">
-        <v>300</v>
-      </c>
-      <c r="H15" s="5">
-        <v>1200</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="15">
-        <v>17</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="5">
-        <v>600</v>
-      </c>
-      <c r="M15" s="5">
-        <v>2400</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="2"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="O15" s="13"/>
     </row>
     <row r="16" spans="1:19">
       <c r="B16" s="13"/>
@@ -920,156 +984,193 @@
       <c r="O17" s="13"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="B18" s="13"/>
+      <c r="B18" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="O18" s="13"/>
+      <c r="E18" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="J18" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="O18" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
     </row>
     <row r="19" spans="1:19">
       <c r="B19" s="13" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="O19" s="13"/>
+      <c r="E19" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="J19" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="O19" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
     </row>
     <row r="20" spans="1:19">
       <c r="B20" s="13" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="O20" s="13"/>
+      <c r="E20" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="J20" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="O20" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
     </row>
     <row r="21" spans="1:19">
       <c r="B21" s="13" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="O21" s="13"/>
+      <c r="E21" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="J21" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="O21" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
     </row>
     <row r="22" spans="1:19">
       <c r="B22" s="13" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="O22" s="13"/>
+      <c r="E22" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="J22" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="O22" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="B23" s="13" t="s">
-        <v>29</v>
-      </c>
+      <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
+      <c r="E23" s="13"/>
+      <c r="J23" s="13"/>
       <c r="O23" s="13"/>
     </row>
     <row r="24" spans="1:19">
-      <c r="B24" s="13"/>
+      <c r="B24" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
+      <c r="D24" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="G24" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24"/>
+      <c r="I24" s="10"/>
       <c r="J24" s="13"/>
-      <c r="O24" s="13"/>
+      <c r="K24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="O24" s="13" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="25" spans="1:19">
-      <c r="B25" s="13" t="s">
-        <v>30</v>
-      </c>
+      <c r="B25" s="14"/>
       <c r="C25" s="13"/>
-      <c r="D25" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="17"/>
-      <c r="G25" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25"/>
-      <c r="I25" s="11"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="18"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="12"/>
       <c r="J25" s="13"/>
-      <c r="K25" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="O25" s="13" t="s">
-        <v>34</v>
-      </c>
+      <c r="K25" s="12"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="O25" s="14"/>
     </row>
     <row r="26" spans="1:19">
-      <c r="B26" s="14"/>
+      <c r="B26" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="18"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="12"/>
+      <c r="D26" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="G26" s="10"/>
+      <c r="I26" s="10"/>
       <c r="J26" s="13"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="O26" s="14"/>
-    </row>
-    <row r="27" spans="1:19">
-      <c r="B27" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="17"/>
-      <c r="G27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="O27" s="13" t="s">
-        <v>38</v>
+      <c r="K26" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1079,12 +1180,12 @@
     <mergeCell ref="E7:I7"/>
     <mergeCell ref="J7:N7"/>
     <mergeCell ref="O7:S7"/>
+    <mergeCell ref="D24:E24"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:M24"/>
     <mergeCell ref="K25:M25"/>
-    <mergeCell ref="K26:M26"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AOQ.xlsx
+++ b/AOQ.xlsx
@@ -15,45 +15,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>ABSTRACT OF QUOTATION</t>
   </si>
   <si>
-    <t>Department: IT</t>
-  </si>
-  <si>
-    <t>Date: February 3, 2021</t>
-  </si>
-  <si>
-    <t>Purpose: Sample Purpose</t>
-  </si>
-  <si>
-    <t>PR#: ITB21-1003</t>
-  </si>
-  <si>
-    <t>Enduse: Sample End Use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date Needed: </t>
-  </si>
-  <si>
-    <t>Requested By: Hennelen Tanan</t>
-  </si>
-  <si>
-    <t>Pinamalayan Hyper Market
-Alfred Bonifacio
-034 659 6568</t>
-  </si>
-  <si>
-    <t>Sample Vendor
-sample contact person
-12364898</t>
-  </si>
-  <si>
-    <t>Bacolod China Mart
-Ms. Donna/Ms, Angela
-434-7293/434-7670</t>
+    <t>JO No.: HR - BCD</t>
+  </si>
+  <si>
+    <t>Project Title: For CENPRI office uniform for Regular Employees</t>
+  </si>
+  <si>
+    <t>Requested By: Prency Francisco</t>
+  </si>
+  <si>
+    <t>Department: HR - BCD</t>
+  </si>
+  <si>
+    <t>A &amp; M Medcare Products Distributors
+-
+(034) 433 5728</t>
+  </si>
+  <si>
+    <t>A-1 Gas Corporation
+Ms. Mary
+434-0708; 433-3637; 433-3638; 432-2079</t>
+  </si>
+  <si>
+    <t>A-one Industrial Sales
+Ms. Miles
+435-7383; 432-0652; 476-1127</t>
   </si>
   <si>
     <t>#</t>
@@ -83,54 +74,97 @@
     <t>COMMENTS</t>
   </si>
   <si>
-    <t>Hand Soap, 100ml</t>
-  </si>
-  <si>
-    <t>bot/s</t>
+    <t>Supply of labor, testing tools and technical expertise for the Configuration of EasyGen
+ Relay on SSR125 AVR at DG 4 &amp; DG 5.
+ Scope of works include but not limited to the following: 
+ 1. Wiring of Signal from EasyGen to AVR 
+ 2. Configuration of EasyGen relay for excitation of On-Load and Off-Load  step response. 
+ 3. Simulation and Functional Test.</t>
+  </si>
+  <si>
+    <t>pc/s</t>
+  </si>
+  <si>
+    <t>Trial ah1</t>
   </si>
   <si>
     <t>PHP</t>
   </si>
   <si>
-    <t>Tissue</t>
-  </si>
-  <si>
-    <t>roll/s</t>
-  </si>
-  <si>
-    <t>Tissue, Two-ply</t>
-  </si>
-  <si>
-    <t>Alcohol</t>
-  </si>
-  <si>
-    <t>gal/s</t>
-  </si>
-  <si>
-    <t>Alcohol, Ethyl</t>
-  </si>
-  <si>
-    <t>Alcohol 100%</t>
+    <t>Agay1</t>
+  </si>
+  <si>
+    <t>Aragays</t>
+  </si>
+  <si>
+    <t>Aragays1</t>
+  </si>
+  <si>
+    <t>Supply of labor, testing tools and technical expertise for the Configuration of EasyGen1
+ Relay on SSR125 AVR at DG 4 &amp; DG 51.
+ Scope of works include but not limited to the following:1 
+ 1. Wiring of Signal from EasyGen to AVR1 
+ 2. Configuration of EasyGen relay for excitation of On-Load and Off-Load  step response1. 
+ 3. Simulation and Functional Test1.</t>
+  </si>
+  <si>
+    <t>Trial ah21</t>
+  </si>
+  <si>
+    <t>Agay2</t>
+  </si>
+  <si>
+    <t>Trial ah3</t>
   </si>
   <si>
     <t>a. Price Validity</t>
   </si>
   <si>
-    <t>sample</t>
+    <t>Trials</t>
+  </si>
+  <si>
+    <t>Testing1</t>
+  </si>
+  <si>
+    <t>Aragay</t>
   </si>
   <si>
     <t>b. Payment Terms</t>
   </si>
   <si>
+    <t>Trials1</t>
+  </si>
+  <si>
+    <t>Aragay1</t>
+  </si>
+  <si>
     <t>c. Date of Delivery</t>
   </si>
   <si>
+    <t>Trials2</t>
+  </si>
+  <si>
+    <t>Aragay2</t>
+  </si>
+  <si>
     <t>d. Items Warranty</t>
   </si>
   <si>
+    <t>Trials3</t>
+  </si>
+  <si>
+    <t>Aragay3</t>
+  </si>
+  <si>
     <t>e. In-land Freight</t>
   </si>
   <si>
+    <t>Trials4</t>
+  </si>
+  <si>
+    <t>Aragay4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Prepared by: </t>
   </si>
   <si>
@@ -146,10 +180,16 @@
     <t xml:space="preserve">Approved by: </t>
   </si>
   <si>
-    <t>Hennelen Tanan</t>
-  </si>
-  <si>
-    <t>Sample name</t>
+    <t>Jonah Benares</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Trial only</t>
+  </si>
+  <si>
+    <t>Testing stephine</t>
   </si>
 </sst>
 </file>
@@ -186,7 +226,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,6 +239,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFf4e542"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -228,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -241,6 +287,12 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="3" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -255,9 +307,6 @@
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -613,564 +662,571 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="E1" s="13"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="J1" s="13"/>
-      <c r="O1" s="13"/>
+      <c r="J1" s="14"/>
+      <c r="O1" s="14"/>
     </row>
     <row r="2" spans="1:19">
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="13"/>
-      <c r="O2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="O2" s="14"/>
     </row>
     <row r="3" spans="1:19">
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="13"/>
-      <c r="O3" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="O3" s="14"/>
     </row>
     <row r="4" spans="1:19">
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="13"/>
-      <c r="O4" s="13"/>
+        <v>3</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="O4" s="14"/>
     </row>
     <row r="5" spans="1:19">
       <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="O5" s="14"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="E6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="O6" s="14"/>
+    </row>
+    <row r="7" spans="1:19" customHeight="1" ht="50">
+      <c r="E7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="O5" s="13"/>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="E6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="O6" s="13"/>
-    </row>
-    <row r="7" spans="1:19" customHeight="1" ht="50">
-      <c r="E7" s="6" t="s">
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="9"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="7"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="E8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="F8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="G8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="H8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="I8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="N8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="S8" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="8">
-        <v>10</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="G9" s="4">
+        <v>100</v>
+      </c>
+      <c r="H9" s="5">
+        <v>100</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="K9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="L9" s="6">
+        <v>400</v>
+      </c>
+      <c r="M9" s="6">
+        <v>400</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="4">
-        <v>150</v>
-      </c>
-      <c r="H9" s="4">
-        <v>1500</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="15" t="s">
+      <c r="P9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="9">
-        <v>149</v>
-      </c>
-      <c r="M9" s="4">
-        <v>1490</v>
-      </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>200</v>
-      </c>
-      <c r="R9" s="4">
-        <v>2000</v>
+      <c r="Q9" s="6">
+        <v>900</v>
+      </c>
+      <c r="R9" s="6">
+        <v>900</v>
       </c>
       <c r="S9" s="2"/>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="2"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="J10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="6">
+        <v>500</v>
+      </c>
+      <c r="M10" s="6">
+        <v>500</v>
+      </c>
       <c r="N10" s="2"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
+      <c r="O10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>1000</v>
+      </c>
+      <c r="R10" s="6">
+        <v>1000</v>
+      </c>
       <c r="S10" s="2"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="O11" s="13"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="6">
+        <v>600</v>
+      </c>
+      <c r="M11" s="6">
+        <v>600</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="2"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="2">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="O12" s="14"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="2">
         <v>2</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="4">
+        <v>200</v>
+      </c>
+      <c r="H13" s="5">
+        <v>400</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="6">
+        <v>700</v>
+      </c>
+      <c r="M13" s="6">
+        <v>1400</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>1001</v>
+      </c>
+      <c r="R13" s="6">
+        <v>2002</v>
+      </c>
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="2"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="6">
+        <v>300</v>
+      </c>
+      <c r="H14" s="6">
+        <v>600</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="6">
+        <v>800</v>
+      </c>
+      <c r="M14" s="6">
+        <v>1600</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="8">
-        <v>10</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="4">
-        <v>5</v>
-      </c>
-      <c r="H12" s="4">
-        <v>50</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="9">
-        <v>4</v>
-      </c>
-      <c r="M12" s="4">
+      <c r="P14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>1002</v>
+      </c>
+      <c r="R14" s="6">
+        <v>2004</v>
+      </c>
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="O15" s="14"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="O16" s="14"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="O17" s="14"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="B18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="J18" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="O18" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="B19" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="J19" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="O19" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="B20" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="J20" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="O20" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="B21" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="J21" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="O21" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="2"/>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="2"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="4">
-        <v>4.95</v>
-      </c>
-      <c r="H13" s="4">
-        <v>49.5</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="2"/>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="2">
-        <v>3</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="8">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="9">
-        <v>1300</v>
-      </c>
-      <c r="H14" s="4">
-        <v>1300</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="4">
-        <v>1499</v>
-      </c>
-      <c r="M14" s="4">
-        <v>1499</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>1500</v>
-      </c>
-      <c r="R14" s="4">
-        <v>1500</v>
-      </c>
-      <c r="S14" s="2"/>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="O15" s="13"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="O16" s="13"/>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="O17" s="13"/>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="B18" s="13" t="s">
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="B22" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="J22" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="J18" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="O18" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="B19" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="J19" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="O19" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="B20" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="J20" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="O20" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="B21" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="J21" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="O21" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="B22" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="J22" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="O22" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="O22" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="O23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="O23" s="14"/>
     </row>
     <row r="24" spans="1:19">
-      <c r="B24" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="17"/>
-      <c r="G24" s="10" t="s">
-        <v>38</v>
+      <c r="B24" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="18"/>
+      <c r="G24" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="H24"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="10" t="s">
-        <v>39</v>
+      <c r="I24" s="11"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="L24"/>
       <c r="M24"/>
-      <c r="O24" s="13" t="s">
-        <v>40</v>
+      <c r="O24" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:19">
-      <c r="B25" s="14"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="18"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="O25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="19"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="O25" s="15"/>
     </row>
     <row r="26" spans="1:19">
-      <c r="B26" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="17"/>
-      <c r="G26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="O26" s="13" t="s">
-        <v>31</v>
+      <c r="B26" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="G26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="O26" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/AOQ.xlsx
+++ b/AOQ.xlsx
@@ -15,36 +15,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>ABSTRACT OF QUOTATION</t>
   </si>
   <si>
-    <t>JO No.: HR - BCD</t>
-  </si>
-  <si>
-    <t>Project Title: For CENPRI office uniform for Regular Employees</t>
-  </si>
-  <si>
-    <t>Requested By: Prency Francisco</t>
-  </si>
-  <si>
-    <t>Department: HR - BCD</t>
-  </si>
-  <si>
-    <t>A &amp; M Medcare Products Distributors
--
-(034) 433 5728</t>
-  </si>
-  <si>
-    <t>A-1 Gas Corporation
-Ms. Mary
-434-0708; 433-3637; 433-3638; 432-2079</t>
-  </si>
-  <si>
-    <t>A-one Industrial Sales
-Ms. Miles
-435-7383; 432-0652; 476-1127</t>
+    <t>Department: IT</t>
+  </si>
+  <si>
+    <t>Date: February 3, 2021</t>
+  </si>
+  <si>
+    <t>Purpose: Sample Purpose</t>
+  </si>
+  <si>
+    <t>PR#: ITB21-1003</t>
+  </si>
+  <si>
+    <t>Enduse: Sample End Use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date Needed: </t>
+  </si>
+  <si>
+    <t>Requested By: Hennelen Tanan</t>
+  </si>
+  <si>
+    <t>Pinamalayan Hyper Market
+Alfred Bonifacio
+034 659 6568</t>
+  </si>
+  <si>
+    <t>Sample Vendor
+sample contact person
+12364898</t>
+  </si>
+  <si>
+    <t>Bacolod China Mart
+Ms. Donna/Ms, Angela
+434-7293/434-7670</t>
   </si>
   <si>
     <t>#</t>
@@ -74,97 +83,54 @@
     <t>COMMENTS</t>
   </si>
   <si>
-    <t>Supply of labor, testing tools and technical expertise for the Configuration of EasyGen
- Relay on SSR125 AVR at DG 4 &amp; DG 5.
- Scope of works include but not limited to the following: 
- 1. Wiring of Signal from EasyGen to AVR 
- 2. Configuration of EasyGen relay for excitation of On-Load and Off-Load  step response. 
- 3. Simulation and Functional Test.</t>
-  </si>
-  <si>
-    <t>pc/s</t>
-  </si>
-  <si>
-    <t>Trial ah1</t>
+    <t>Hand Soap, 100ml</t>
+  </si>
+  <si>
+    <t>bot/s</t>
   </si>
   <si>
     <t>PHP</t>
   </si>
   <si>
-    <t>Agay1</t>
-  </si>
-  <si>
-    <t>Aragays</t>
-  </si>
-  <si>
-    <t>Aragays1</t>
-  </si>
-  <si>
-    <t>Supply of labor, testing tools and technical expertise for the Configuration of EasyGen1
- Relay on SSR125 AVR at DG 4 &amp; DG 51.
- Scope of works include but not limited to the following:1 
- 1. Wiring of Signal from EasyGen to AVR1 
- 2. Configuration of EasyGen relay for excitation of On-Load and Off-Load  step response1. 
- 3. Simulation and Functional Test1.</t>
-  </si>
-  <si>
-    <t>Trial ah21</t>
-  </si>
-  <si>
-    <t>Agay2</t>
-  </si>
-  <si>
-    <t>Trial ah3</t>
+    <t>Tissue</t>
+  </si>
+  <si>
+    <t>roll/s</t>
+  </si>
+  <si>
+    <t>Tissue, Two-ply</t>
+  </si>
+  <si>
+    <t>Alcohol</t>
+  </si>
+  <si>
+    <t>gal/s</t>
+  </si>
+  <si>
+    <t>Alcohol, Ethyl</t>
+  </si>
+  <si>
+    <t>Alcohol 100%</t>
   </si>
   <si>
     <t>a. Price Validity</t>
   </si>
   <si>
-    <t>Trials</t>
-  </si>
-  <si>
-    <t>Testing1</t>
-  </si>
-  <si>
-    <t>Aragay</t>
+    <t>sample</t>
   </si>
   <si>
     <t>b. Payment Terms</t>
   </si>
   <si>
-    <t>Trials1</t>
-  </si>
-  <si>
-    <t>Aragay1</t>
-  </si>
-  <si>
     <t>c. Date of Delivery</t>
   </si>
   <si>
-    <t>Trials2</t>
-  </si>
-  <si>
-    <t>Aragay2</t>
-  </si>
-  <si>
     <t>d. Items Warranty</t>
   </si>
   <si>
-    <t>Trials3</t>
-  </si>
-  <si>
-    <t>Aragay3</t>
-  </si>
-  <si>
     <t>e. In-land Freight</t>
   </si>
   <si>
-    <t>Trials4</t>
-  </si>
-  <si>
-    <t>Aragay4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Prepared by: </t>
   </si>
   <si>
@@ -180,16 +146,10 @@
     <t xml:space="preserve">Approved by: </t>
   </si>
   <si>
-    <t>Jonah Benares</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Trial only</t>
-  </si>
-  <si>
-    <t>Testing stephine</t>
+    <t>Hennelen Tanan</t>
+  </si>
+  <si>
+    <t>Sample name</t>
   </si>
 </sst>
 </file>
@@ -226,7 +186,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,12 +199,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFf4e542"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -274,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -287,26 +241,23 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="4" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="3" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -662,571 +613,564 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="E1" s="14"/>
+      <c r="E1" s="13"/>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="J1" s="14"/>
-      <c r="O1" s="14"/>
+      <c r="J1" s="13"/>
+      <c r="O1" s="13"/>
     </row>
     <row r="2" spans="1:19">
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="O2" s="14"/>
+      <c r="E2" s="13"/>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="13"/>
+      <c r="O2" s="13"/>
     </row>
     <row r="3" spans="1:19">
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="O3" s="14"/>
+        <v>3</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="13"/>
+      <c r="O3" s="13"/>
     </row>
     <row r="4" spans="1:19">
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="O4" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="O4" s="13"/>
     </row>
     <row r="5" spans="1:19">
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="O5" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="O5" s="13"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="E6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="O6" s="14"/>
+      <c r="E6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="O6" s="13"/>
     </row>
     <row r="7" spans="1:19" customHeight="1" ht="50">
-      <c r="E7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="9"/>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="7"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="7" t="s">
+      <c r="G8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="K8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="R8" s="7" t="s">
+      <c r="L8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="S8" s="7" t="s">
+      <c r="P8" s="5" t="s">
         <v>16</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="10">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>19</v>
+      <c r="B9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="8">
+        <v>10</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="4">
+        <v>150</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1500</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="4">
-        <v>100</v>
-      </c>
-      <c r="H9" s="5">
-        <v>100</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="K9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="9">
+        <v>149</v>
+      </c>
+      <c r="M9" s="4">
+        <v>1490</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="6">
-        <v>400</v>
-      </c>
-      <c r="M9" s="6">
-        <v>400</v>
-      </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="16" t="s">
+      <c r="P9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>900</v>
-      </c>
-      <c r="R9" s="6">
-        <v>900</v>
+      <c r="Q9" s="4">
+        <v>200</v>
+      </c>
+      <c r="R9" s="4">
+        <v>2000</v>
       </c>
       <c r="S9" s="2"/>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="2"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="6">
-        <v>500</v>
-      </c>
-      <c r="M10" s="6">
-        <v>500</v>
-      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="16" t="s">
+      <c r="O10" s="7"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="O11" s="13"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>1000</v>
-      </c>
-      <c r="R10" s="6">
-        <v>1000</v>
-      </c>
-      <c r="S10" s="2"/>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="2"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="6">
-        <v>600</v>
-      </c>
-      <c r="M11" s="6">
-        <v>600</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="2"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="O12" s="14"/>
+      <c r="C12" s="8">
+        <v>10</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="4">
+        <v>5</v>
+      </c>
+      <c r="H12" s="4">
+        <v>50</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="9">
+        <v>4</v>
+      </c>
+      <c r="M12" s="4">
+        <v>40</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="2"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="2">
-        <v>2</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="10">
-        <v>2</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="16" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="15" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G13" s="4">
-        <v>200</v>
-      </c>
-      <c r="H13" s="5">
-        <v>400</v>
+        <v>4.95</v>
+      </c>
+      <c r="H13" s="4">
+        <v>49.5</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="16" t="s">
+      <c r="J13" s="7"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="2">
+        <v>3</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="6">
-        <v>700</v>
-      </c>
-      <c r="M13" s="6">
-        <v>1400</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="16" t="s">
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q13" s="6">
-        <v>1001</v>
-      </c>
-      <c r="R13" s="6">
-        <v>2002</v>
-      </c>
-      <c r="S13" s="2"/>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="2"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="6">
-        <v>300</v>
-      </c>
-      <c r="H14" s="6">
-        <v>600</v>
+      <c r="G14" s="9">
+        <v>1300</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1300</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="16" t="s">
+      <c r="J14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1499</v>
+      </c>
+      <c r="M14" s="4">
+        <v>1499</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="6">
-        <v>800</v>
-      </c>
-      <c r="M14" s="6">
-        <v>1600</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="P14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="6">
-        <v>1002</v>
-      </c>
-      <c r="R14" s="6">
-        <v>2004</v>
+        <v>22</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>1500</v>
+      </c>
+      <c r="R14" s="4">
+        <v>1500</v>
       </c>
       <c r="S14" s="2"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="O15" s="14"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="O15" s="13"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="O16" s="14"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="O16" s="13"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="O17" s="14"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="O17" s="13"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="B18" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="J18" s="17" t="s">
+      <c r="B18" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="O18" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="J18" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="O18" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="17" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="J19" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="O19" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="B20" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="J19" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="O19" s="17" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="J20" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="O20" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="B21" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="B20" s="14" t="s">
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="J21" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="O21" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="B22" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="17" t="s">
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="J22" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="O22" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="O23" s="13"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="B24" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="J20" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="O20" s="17" t="s">
+      <c r="C24" s="13"/>
+      <c r="D24" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="B21" s="14" t="s">
+      <c r="E24" s="17"/>
+      <c r="G24" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="17" t="s">
+      <c r="H24"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="J21" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="O21" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="B22" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="J22" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="O22" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="O23" s="14"/>
-    </row>
-    <row r="24" spans="1:19">
-      <c r="B24" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="18"/>
-      <c r="G24" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="11" t="s">
-        <v>47</v>
       </c>
       <c r="L24"/>
       <c r="M24"/>
-      <c r="O24" s="14" t="s">
-        <v>48</v>
+      <c r="O24" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:19">
-      <c r="B25" s="15"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="19"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="O25" s="15"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="18"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="O25" s="14"/>
     </row>
     <row r="26" spans="1:19">
-      <c r="B26" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="18"/>
-      <c r="G26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="O26" s="14" t="s">
-        <v>52</v>
+      <c r="B26" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="G26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/AOQ.xlsx
+++ b/AOQ.xlsx
@@ -15,36 +15,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>ABSTRACT OF QUOTATION</t>
   </si>
   <si>
-    <t>JO No.: HR - BCD</t>
-  </si>
-  <si>
-    <t>Project Title: For CENPRI office uniform for Regular Employees</t>
-  </si>
-  <si>
-    <t>Requested By: Prency Francisco</t>
-  </si>
-  <si>
-    <t>Department: HR - BCD</t>
-  </si>
-  <si>
-    <t>A &amp; M Medcare Products Distributors
--
-(034) 433 5728</t>
-  </si>
-  <si>
-    <t>A-1 Gas Corporation
-Ms. Mary
-434-0708; 433-3637; 433-3638; 432-2079</t>
-  </si>
-  <si>
-    <t>A-one Industrial Sales
-Ms. Miles
-435-7383; 432-0652; 476-1127</t>
+    <t>JO No.: Operation</t>
+  </si>
+  <si>
+    <t>Project Title: Installation of Piping in HFO Recovery (Mitsubishi SJ600 Purifier)</t>
+  </si>
+  <si>
+    <t>Requested By: J. Dagupan/J .Panes</t>
+  </si>
+  <si>
+    <t>Department: Operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tough Performance AutoWorkz
+(034) 432 0544 </t>
+  </si>
+  <si>
+    <t>2GO Express, Inc.
+Ms Apple/Ms Liza
+(034) 435-4965 / 704-2039 / 704-2396</t>
+  </si>
+  <si>
+    <t>7RJ Brothers Sand &amp; Gravel &amp; Gen. Mdse.
+Ms. Tata
+(034)458-0190/213-2249</t>
   </si>
   <si>
     <t>#</t>
@@ -74,97 +73,46 @@
     <t>COMMENTS</t>
   </si>
   <si>
+    <t>Supply of labor, testing tools and technical expertise for the Configuration of EasyGen 
+  Relay on SSR125 AVR at DG 4 &amp; DG 5. 
+  Scope of works include but not limited to the following: 
+  1. Wiring of Signal from EasyGen to AVR 
+  2. Configuration of EasyGen relay for excitation of On-Load and Off-Load  step response. 
+  3. Simulation and Functional Test.</t>
+  </si>
+  <si>
+    <t>lots</t>
+  </si>
+  <si>
     <t>Supply of labor, testing tools and technical expertise for the Configuration of EasyGen
- Relay on SSR125 AVR at DG 4 &amp; DG 5.
- Scope of works include but not limited to the following: 
- 1. Wiring of Signal from EasyGen to AVR 
- 2. Configuration of EasyGen relay for excitation of On-Load and Off-Load  step response. 
- 3. Simulation and Functional Test.</t>
-  </si>
-  <si>
-    <t>pc/s</t>
-  </si>
-  <si>
-    <t>Trial ah1</t>
+Relay on SSR125 AVR at DG 4 &amp; DG 5.
+Scope of works include but not limited to the following:
+1. Wiring of Signal from EasyGen to AVR
+2. Configuration of EasyGen relay for excitation of On-Load and Off-Load step response.
+3. Simulation and Functional Test.</t>
   </si>
   <si>
     <t>PHP</t>
   </si>
   <si>
-    <t>Agay1</t>
-  </si>
-  <si>
-    <t>Aragays</t>
-  </si>
-  <si>
-    <t>Aragays1</t>
-  </si>
-  <si>
-    <t>Supply of labor, testing tools and technical expertise for the Configuration of EasyGen1
- Relay on SSR125 AVR at DG 4 &amp; DG 51.
- Scope of works include but not limited to the following:1 
- 1. Wiring of Signal from EasyGen to AVR1 
- 2. Configuration of EasyGen relay for excitation of On-Load and Off-Load  step response1. 
- 3. Simulation and Functional Test1.</t>
-  </si>
-  <si>
-    <t>Trial ah21</t>
-  </si>
-  <si>
-    <t>Agay2</t>
-  </si>
-  <si>
-    <t>Trial ah3</t>
+    <t>AUD</t>
   </si>
   <si>
     <t>a. Price Validity</t>
   </si>
   <si>
-    <t>Trials</t>
-  </si>
-  <si>
-    <t>Testing1</t>
-  </si>
-  <si>
-    <t>Aragay</t>
-  </si>
-  <si>
     <t>b. Payment Terms</t>
   </si>
   <si>
-    <t>Trials1</t>
-  </si>
-  <si>
-    <t>Aragay1</t>
-  </si>
-  <si>
     <t>c. Date of Delivery</t>
   </si>
   <si>
-    <t>Trials2</t>
-  </si>
-  <si>
-    <t>Aragay2</t>
-  </si>
-  <si>
     <t>d. Items Warranty</t>
   </si>
   <si>
-    <t>Trials3</t>
-  </si>
-  <si>
-    <t>Aragay3</t>
-  </si>
-  <si>
     <t>e. In-land Freight</t>
   </si>
   <si>
-    <t>Trials4</t>
-  </si>
-  <si>
-    <t>Aragay4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Prepared by: </t>
   </si>
   <si>
@@ -181,15 +129,6 @@
   </si>
   <si>
     <t>Jonah Benares</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Trial only</t>
-  </si>
-  <si>
-    <t>Testing stephine</t>
   </si>
 </sst>
 </file>
@@ -238,13 +177,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFf4e542"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFf4e542"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -287,13 +226,13 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="4" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="3" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -308,7 +247,7 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="3" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
@@ -634,7 +573,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A8" sqref="A8"/>
@@ -810,36 +749,36 @@
         <v>20</v>
       </c>
       <c r="G9" s="4">
-        <v>100</v>
+        <v>99955</v>
       </c>
       <c r="H9" s="5">
-        <v>100</v>
+        <v>99955</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="6">
-        <v>400</v>
-      </c>
-      <c r="M9" s="6">
-        <v>400</v>
+      <c r="L9" s="4">
+        <v>634</v>
+      </c>
+      <c r="M9" s="4">
+        <v>634</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="6">
-        <v>900</v>
-      </c>
-      <c r="R9" s="6">
-        <v>900</v>
+      <c r="Q9" s="4">
+        <v>3453</v>
+      </c>
+      <c r="R9" s="4">
+        <v>3453</v>
       </c>
       <c r="S9" s="2"/>
     </row>
@@ -848,35 +787,43 @@
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="E10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="4">
+        <v>566</v>
+      </c>
+      <c r="H10" s="4">
+        <v>566</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="6">
-        <v>500</v>
-      </c>
-      <c r="M10" s="6">
-        <v>500</v>
+      <c r="L10" s="4">
+        <v>3455</v>
+      </c>
+      <c r="M10" s="5">
+        <v>3455</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="6">
-        <v>1000</v>
-      </c>
-      <c r="R10" s="6">
-        <v>1000</v>
+      <c r="Q10" s="4">
+        <v>6463</v>
+      </c>
+      <c r="R10" s="4">
+        <v>6463</v>
       </c>
       <c r="S10" s="2"/>
     </row>
@@ -885,28 +832,44 @@
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="E11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="4">
+        <v>345</v>
+      </c>
+      <c r="H11" s="4">
+        <v>345</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="6">
-        <v>600</v>
-      </c>
-      <c r="M11" s="6">
-        <v>600</v>
+      <c r="L11" s="11">
+        <v>43</v>
+      </c>
+      <c r="M11" s="5">
+        <v>43</v>
       </c>
       <c r="N11" s="2"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
+      <c r="O11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>4353</v>
+      </c>
+      <c r="R11" s="4">
+        <v>4353</v>
+      </c>
       <c r="S11" s="2"/>
     </row>
     <row r="12" spans="1:19">
@@ -918,316 +881,174 @@
       <c r="O12" s="14"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="2">
-        <v>2</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="10">
-        <v>2</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="4">
-        <v>200</v>
-      </c>
-      <c r="H13" s="5">
-        <v>400</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="6">
-        <v>700</v>
-      </c>
-      <c r="M13" s="6">
-        <v>1400</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="16" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="O13" s="14"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="O14" s="14"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="B15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q13" s="6">
-        <v>1001</v>
-      </c>
-      <c r="R13" s="6">
-        <v>2002</v>
-      </c>
-      <c r="S13" s="2"/>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="2"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="6">
-        <v>300</v>
-      </c>
-      <c r="H14" s="6">
-        <v>600</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="6">
-        <v>800</v>
-      </c>
-      <c r="M14" s="6">
-        <v>1600</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="6">
-        <v>1002</v>
-      </c>
-      <c r="R14" s="6">
-        <v>2004</v>
-      </c>
-      <c r="S14" s="2"/>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="O15" s="14"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="B16" s="14"/>
+      <c r="B16" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="O16" s="14"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="B17" s="14"/>
+      <c r="B17" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="O17" s="14"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
     </row>
     <row r="18" spans="1:19">
       <c r="B18" s="14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="17" t="s">
-        <v>29</v>
-      </c>
+      <c r="E18" s="17"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-      <c r="J18" s="17" t="s">
-        <v>30</v>
-      </c>
+      <c r="J18" s="17"/>
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
-      <c r="O18" s="17" t="s">
-        <v>31</v>
-      </c>
+      <c r="O18" s="17"/>
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
       <c r="R18" s="12"/>
     </row>
     <row r="19" spans="1:19">
       <c r="B19" s="14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="17" t="s">
-        <v>33</v>
-      </c>
+      <c r="E19" s="17"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
-      <c r="J19" s="17" t="s">
-        <v>30</v>
-      </c>
+      <c r="J19" s="17"/>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
-      <c r="O19" s="17" t="s">
-        <v>34</v>
-      </c>
+      <c r="O19" s="17"/>
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
       <c r="R19" s="12"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="B20" s="14" t="s">
-        <v>35</v>
-      </c>
+      <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="J20" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="O20" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
+      <c r="E20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="O20" s="14"/>
     </row>
     <row r="21" spans="1:19">
       <c r="B21" s="14" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="J21" s="17" t="s">
+      <c r="D21" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="G21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="O21" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="O21" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="22" spans="1:19">
-      <c r="B22" s="14" t="s">
-        <v>41</v>
-      </c>
+      <c r="B22" s="15"/>
       <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="19"/>
+      <c r="G22" s="13"/>
       <c r="H22" s="12"/>
-      <c r="J22" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K22" s="12"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="13"/>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
-      <c r="O22" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
+      <c r="O22" s="15"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="B23" s="14"/>
+      <c r="B23" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
+      <c r="E23" s="18"/>
+      <c r="G23" s="6"/>
+      <c r="I23" s="6"/>
       <c r="J23" s="14"/>
+      <c r="K23" s="6"/>
       <c r="O23" s="14"/>
-    </row>
-    <row r="24" spans="1:19">
-      <c r="B24" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="18"/>
-      <c r="G24" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="O24" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
-      <c r="B25" s="15"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="19"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="O25" s="15"/>
-    </row>
-    <row r="26" spans="1:19">
-      <c r="B26" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="18"/>
-      <c r="G26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="O26" s="14" t="s">
-        <v>52</v>
-      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -1236,12 +1057,12 @@
     <mergeCell ref="E7:I7"/>
     <mergeCell ref="J7:N7"/>
     <mergeCell ref="O7:S7"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K22:M22"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AOQ.xlsx
+++ b/AOQ.xlsx
@@ -15,35 +15,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>ABSTRACT OF QUOTATION</t>
   </si>
   <si>
-    <t>JO No.: Operation</t>
-  </si>
-  <si>
-    <t>Project Title: Installation of Piping in HFO Recovery (Mitsubishi SJ600 Purifier)</t>
-  </si>
-  <si>
-    <t>Requested By: J. Dagupan/J .Panes</t>
-  </si>
-  <si>
-    <t>Department: Operation</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tough Performance AutoWorkz
-(034) 432 0544 </t>
-  </si>
-  <si>
-    <t>2GO Express, Inc.
-Ms Apple/Ms Liza
-(034) 435-4965 / 704-2039 / 704-2396</t>
-  </si>
-  <si>
-    <t>7RJ Brothers Sand &amp; Gravel &amp; Gen. Mdse.
-Ms. Tata
-(034)458-0190/213-2249</t>
+    <t>JO No.: IT</t>
+  </si>
+  <si>
+    <t>Project Title: Testing only</t>
+  </si>
+  <si>
+    <t>Requested By: Stephine David Severino</t>
+  </si>
+  <si>
+    <t>Department: IT</t>
+  </si>
+  <si>
+    <t>A.M. Builders' Depot
+(034)709-0055</t>
+  </si>
+  <si>
+    <t>AA Electrical Supply
+Sir Rene 
+435-3811; 432-3712; 708-1212</t>
+  </si>
+  <si>
+    <t>Ablao Enterprises
+461-0376</t>
   </si>
   <si>
     <t>#</t>
@@ -73,19 +72,17 @@
     <t>COMMENTS</t>
   </si>
   <si>
-    <t>Supply of labor, testing tools and technical expertise for the Configuration of EasyGen 
-  Relay on SSR125 AVR at DG 4 &amp; DG 5. 
-  Scope of works include but not limited to the following: 
-  1. Wiring of Signal from EasyGen to AVR 
-  2. Configuration of EasyGen relay for excitation of On-Load and Off-Load  step response. 
+    <t>Supply of labor, testing tools and technical expertise for the Configuration of EasyGen Relay on SSR125 AVR at DG 4 &amp; DG 5.
+  Scope of works include but not limited to the following:
+  1. Wiring of Signal from EasyGen to AVR
+  2. Configuration of EasyGen relay for excitation of On-Load and Off-Load step response.
   3. Simulation and Functional Test.</t>
   </si>
   <si>
-    <t>lots</t>
-  </si>
-  <si>
-    <t>Supply of labor, testing tools and technical expertise for the Configuration of EasyGen
-Relay on SSR125 AVR at DG 4 &amp; DG 5.
+    <t>pc/s</t>
+  </si>
+  <si>
+    <t>Supply of labor, testing tools and technical expertise for the Configuration of EasyGen Relay on SSR125 AVR at DG 4 &amp; DG 5.
 Scope of works include but not limited to the following:
 1. Wiring of Signal from EasyGen to AVR
 2. Configuration of EasyGen relay for excitation of On-Load and Off-Load step response.
@@ -95,24 +92,82 @@
     <t>PHP</t>
   </si>
   <si>
-    <t>AUD</t>
+    <t>Trial</t>
+  </si>
+  <si>
+    <t>BDT</t>
+  </si>
+  <si>
+    <t>Trial1</t>
+  </si>
+  <si>
+    <t>Supply of labor, testing tools and technical expertise for the Configuration of EasyGen Relay on SSR125 AVR at DG 4 &amp; DG 51.
+  Scope of works include but not limited to the following1:
+  1. Wiring of Signal from EasyGen to AVR1
+  2. Configuration of EasyGen relay for excitation of On-Load and Off-Load step response1.
+  3. Simulation and Functional Test1.</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Trial2</t>
+  </si>
+  <si>
+    <t>QAR</t>
+  </si>
+  <si>
+    <t>Trial3</t>
   </si>
   <si>
     <t>a. Price Validity</t>
   </si>
   <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Aragay</t>
+  </si>
+  <si>
     <t>b. Payment Terms</t>
   </si>
   <si>
+    <t>Testing1</t>
+  </si>
+  <si>
+    <t>Aragay1</t>
+  </si>
+  <si>
     <t>c. Date of Delivery</t>
   </si>
   <si>
+    <t>Testing4</t>
+  </si>
+  <si>
+    <t>Aragay2</t>
+  </si>
+  <si>
     <t>d. Items Warranty</t>
   </si>
   <si>
+    <t>Testing2</t>
+  </si>
+  <si>
+    <t>Aragay3</t>
+  </si>
+  <si>
     <t>e. In-land Freight</t>
   </si>
   <si>
+    <t>Testing5</t>
+  </si>
+  <si>
+    <t>Trial4</t>
+  </si>
+  <si>
+    <t>Aragay4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Prepared by: </t>
   </si>
   <si>
@@ -129,6 +184,12 @@
   </si>
   <si>
     <t>Jonah Benares</t>
+  </si>
+  <si>
+    <t>Trial only</t>
+  </si>
+  <si>
+    <t>Testing stephine</t>
   </si>
 </sst>
 </file>
@@ -165,19 +226,13 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -213,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -226,12 +281,12 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -246,9 +301,6 @@
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="3" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -573,7 +625,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A8" sqref="A8"/>
@@ -601,51 +653,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="E1" s="14"/>
+      <c r="E1" s="13"/>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="J1" s="14"/>
-      <c r="O1" s="14"/>
+      <c r="J1" s="13"/>
+      <c r="O1" s="13"/>
     </row>
     <row r="2" spans="1:19">
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="O2" s="14"/>
+      <c r="E2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="O2" s="13"/>
     </row>
     <row r="3" spans="1:19">
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="O3" s="14"/>
+      <c r="E3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="O3" s="13"/>
     </row>
     <row r="4" spans="1:19">
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="O4" s="14"/>
+      <c r="E4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="O4" s="13"/>
     </row>
     <row r="5" spans="1:19">
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="O5" s="14"/>
+      <c r="E5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="O5" s="13"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="E6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="O6" s="14"/>
+      <c r="E6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="O6" s="13"/>
     </row>
     <row r="7" spans="1:19" customHeight="1" ht="50">
       <c r="E7" s="8" t="s">
@@ -742,43 +794,43 @@
       <c r="D9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="4">
-        <v>99955</v>
+        <v>100</v>
       </c>
       <c r="H9" s="5">
-        <v>99955</v>
+        <v>100</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="16" t="s">
-        <v>19</v>
+      <c r="J9" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="4">
-        <v>634</v>
-      </c>
-      <c r="M9" s="4">
-        <v>634</v>
+        <v>20</v>
+      </c>
+      <c r="L9" s="5">
+        <v>300</v>
+      </c>
+      <c r="M9" s="5">
+        <v>300</v>
       </c>
       <c r="N9" s="2"/>
-      <c r="O9" s="16" t="s">
-        <v>19</v>
+      <c r="O9" s="15">
+        <v>600</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="4">
-        <v>3453</v>
-      </c>
-      <c r="R9" s="4">
-        <v>3453</v>
+      <c r="Q9" s="5">
+        <v>800</v>
+      </c>
+      <c r="R9" s="5">
+        <v>800</v>
       </c>
       <c r="S9" s="2"/>
     </row>
@@ -787,268 +839,362 @@
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="16" t="s">
-        <v>19</v>
+      <c r="E10" s="15">
+        <v>200</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="4">
-        <v>566</v>
-      </c>
-      <c r="H10" s="4">
-        <v>566</v>
+        <v>22</v>
+      </c>
+      <c r="G10" s="5">
+        <v>200</v>
+      </c>
+      <c r="H10" s="5">
+        <v>200</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="16" t="s">
-        <v>19</v>
+      <c r="J10" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="4">
-        <v>3455</v>
+      <c r="L10" s="5">
+        <v>400</v>
       </c>
       <c r="M10" s="5">
-        <v>3455</v>
+        <v>400</v>
       </c>
       <c r="N10" s="2"/>
-      <c r="O10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10" s="3" t="s">
+      <c r="O10" s="9"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="2"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="O11" s="13"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="10">
+        <v>2</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="15">
+        <v>300</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="5">
+        <v>150</v>
+      </c>
+      <c r="H12" s="5">
+        <v>300</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="4">
-        <v>6463</v>
-      </c>
-      <c r="R10" s="4">
-        <v>6463</v>
-      </c>
-      <c r="S10" s="2"/>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="2"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="L12" s="5">
+        <v>500</v>
+      </c>
+      <c r="M12" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="15">
+        <v>700</v>
+      </c>
+      <c r="P12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="4">
-        <v>345</v>
-      </c>
-      <c r="H11" s="4">
-        <v>345</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="3" t="s">
+      <c r="Q12" s="5">
+        <v>900</v>
+      </c>
+      <c r="R12" s="5">
+        <v>1800</v>
+      </c>
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="2"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="15">
+        <v>400</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="4">
+        <v>56</v>
+      </c>
+      <c r="H13" s="5">
+        <v>112</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L13" s="5">
+        <v>450</v>
+      </c>
+      <c r="M13" s="5">
+        <v>900</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="2"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="15">
+        <v>500</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="5">
+        <v>155</v>
+      </c>
+      <c r="H14" s="5">
+        <v>310</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="O15" s="13"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="B16" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="J16" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="O16" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="B17" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="J17" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="O17" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="B18" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="J18" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="O18" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="B19" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="J19" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="O19" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="B20" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="J20" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="M11" s="5">
-        <v>43</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>4353</v>
-      </c>
-      <c r="R11" s="4">
-        <v>4353</v>
-      </c>
-      <c r="S11" s="2"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="O12" s="14"/>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="O13" s="14"/>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="O14" s="14"/>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="B15" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="B16" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="B17" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="B18" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="B19" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="O20" s="14"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="O20" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
     </row>
     <row r="21" spans="1:19">
-      <c r="B21" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="18"/>
-      <c r="G21" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="O21" s="14" t="s">
-        <v>31</v>
-      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="O21" s="13"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="B22" s="15"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="19"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="O22" s="15"/>
+      <c r="B22" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="17"/>
+      <c r="G22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="O22" s="13" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="23" spans="1:19">
-      <c r="B23" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="13"/>
       <c r="D23" s="14"/>
       <c r="E23" s="18"/>
-      <c r="G23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="6"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
       <c r="O23" s="14"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="B24" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="G24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="O24" s="13" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -1057,12 +1203,12 @@
     <mergeCell ref="E7:I7"/>
     <mergeCell ref="J7:N7"/>
     <mergeCell ref="O7:S7"/>
-    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="K22:M22"/>
+    <mergeCell ref="K23:M23"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AOQ.xlsx
+++ b/AOQ.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
   <si>
     <t>ABSTRACT OF QUOTATION</t>
   </si>
   <si>
-    <t>JO No.: IT</t>
+    <t>JO No.: JOR 2021-5-CNPR</t>
   </si>
   <si>
     <t>Project Title: Testing only</t>
@@ -80,13 +80,6 @@
   </si>
   <si>
     <t>pc/s</t>
-  </si>
-  <si>
-    <t>Supply of labor, testing tools and technical expertise for the Configuration of EasyGen Relay on SSR125 AVR at DG 4 &amp; DG 5.
-Scope of works include but not limited to the following:
-1. Wiring of Signal from EasyGen to AVR
-2. Configuration of EasyGen relay for excitation of On-Load and Off-Load step response.
-3. Simulation and Functional Test.</t>
   </si>
   <si>
     <t>PHP</t>
@@ -226,7 +219,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,6 +232,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFf4e542"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -268,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -282,6 +281,9 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="4" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="3" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -653,131 +655,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="E1" s="13"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="J1" s="13"/>
-      <c r="O1" s="13"/>
+      <c r="J1" s="14"/>
+      <c r="O1" s="14"/>
     </row>
     <row r="2" spans="1:19">
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="O2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="O2" s="14"/>
     </row>
     <row r="3" spans="1:19">
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="O3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="O3" s="14"/>
     </row>
     <row r="4" spans="1:19">
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="O4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="O4" s="14"/>
     </row>
     <row r="5" spans="1:19">
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="O5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="O5" s="14"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="E6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="O6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="O6" s="14"/>
     </row>
     <row r="7" spans="1:19" customHeight="1" ht="50">
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="8" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="8" t="s">
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="9"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="10"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="O8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="P8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="Q8" s="7" t="s">
+      <c r="Q8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="7" t="s">
+      <c r="R8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="S8" s="7" t="s">
+      <c r="S8" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -785,20 +787,20 @@
       <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="11">
         <v>1</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="16">
+        <v>100</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="G9" s="4">
         <v>100</v>
@@ -807,141 +809,141 @@
         <v>100</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="15" t="s">
-        <v>21</v>
+      <c r="J9" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="5">
+        <v>19</v>
+      </c>
+      <c r="L9" s="6">
         <v>300</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="6">
         <v>300</v>
       </c>
       <c r="N9" s="2"/>
-      <c r="O9" s="15">
+      <c r="O9" s="16">
         <v>600</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="5">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="6">
         <v>800</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="6">
         <v>800</v>
       </c>
       <c r="S9" s="2"/>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="2"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="15">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="16">
         <v>200</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="6">
+        <v>200</v>
+      </c>
+      <c r="H10" s="6">
+        <v>200</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="5">
-        <v>200</v>
-      </c>
-      <c r="H10" s="5">
-        <v>200</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="15" t="s">
-        <v>23</v>
-      </c>
       <c r="K10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="5">
+        <v>19</v>
+      </c>
+      <c r="L10" s="6">
         <v>400</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="6">
         <v>400</v>
       </c>
       <c r="N10" s="2"/>
-      <c r="O10" s="9"/>
+      <c r="O10" s="10"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
       <c r="S10" s="2"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="O11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="O11" s="14"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="2">
         <v>2</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="11">
+        <v>2</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="16">
+        <v>300</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="10">
-        <v>2</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="15">
+      <c r="G12" s="6">
+        <v>150</v>
+      </c>
+      <c r="H12" s="6">
         <v>300</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="I12" s="2"/>
+      <c r="J12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="5">
-        <v>150</v>
-      </c>
-      <c r="H12" s="5">
-        <v>300</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="15" t="s">
-        <v>26</v>
-      </c>
       <c r="K12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="5">
+        <v>19</v>
+      </c>
+      <c r="L12" s="6">
         <v>500</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="6">
         <v>1000</v>
       </c>
       <c r="N12" s="2"/>
-      <c r="O12" s="15">
+      <c r="O12" s="16">
         <v>700</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q12" s="5">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="6">
         <v>900</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12" s="6">
         <v>1800</v>
       </c>
       <c r="S12" s="2"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="2"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="15">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="16">
         <v>400</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G13" s="4">
         <v>56</v>
@@ -950,250 +952,250 @@
         <v>112</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="15" t="s">
-        <v>28</v>
+      <c r="J13" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="5">
+        <v>19</v>
+      </c>
+      <c r="L13" s="6">
         <v>450</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="6">
         <v>900</v>
       </c>
       <c r="N13" s="2"/>
-      <c r="O13" s="9"/>
+      <c r="O13" s="10"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
       <c r="S13" s="2"/>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="2"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="15">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="16">
         <v>500</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="6">
+        <v>155</v>
+      </c>
+      <c r="H14" s="6">
+        <v>310</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="O15" s="14"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="B16" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="J16" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="5">
-        <v>155</v>
-      </c>
-      <c r="H14" s="5">
-        <v>310</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="2"/>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="O15" s="13"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="B16" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="16" t="s">
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="O16" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="J16" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="O16" s="16" t="s">
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="B17" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="B17" s="13" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="16" t="s">
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="J17" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="O17" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="J17" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="O17" s="16" t="s">
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="B18" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="B18" s="13" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="16" t="s">
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="J18" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="O18" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="J18" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="O18" s="16" t="s">
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="B19" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="B19" s="13" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="16" t="s">
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="J19" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="O19" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="J19" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="O19" s="16" t="s">
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="B20" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="B20" s="13" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="16" t="s">
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="J20" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="J20" s="16" t="s">
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="O20" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="O20" s="16" t="s">
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="O21" s="14"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="B22" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="O21" s="13"/>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="B22" s="13" t="s">
+      <c r="C22" s="14"/>
+      <c r="D22" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13" t="s">
+      <c r="E22" s="18"/>
+      <c r="G22" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="G22" s="6" t="s">
+      <c r="H22"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="H22"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="L22"/>
       <c r="M22"/>
-      <c r="O22" s="13" t="s">
+      <c r="O22" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="B23" s="15"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="19"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="O23" s="15"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="B24" s="14" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="B23" s="14"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="18"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="O23" s="14"/>
-    </row>
-    <row r="24" spans="1:19">
-      <c r="B24" s="13" t="s">
+      <c r="C24" s="14"/>
+      <c r="D24" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="18"/>
+      <c r="G24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="17"/>
-      <c r="G24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="6" t="s">
+      <c r="O24" s="14" t="s">
         <v>51</v>
-      </c>
-      <c r="O24" s="13" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/AOQ.xlsx
+++ b/AOQ.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>ABSTRACT OF QUOTATION</t>
   </si>
@@ -82,23 +82,25 @@
     <t>pc/s</t>
   </si>
   <si>
-    <t>Supply of labor, testing tools and technical expertise for the Configuration of EasyGen Relay on SSR125 AVR at DG 4 &amp; DG 5.
-Scope of works include but not limited to the following:
-1. Wiring of Signal from EasyGen to AVR
-2. Configuration of EasyGen relay for excitation of On-Load and Off-Load step response.
-3. Simulation and Functional Test.</t>
+    <t>testing</t>
   </si>
   <si>
     <t>PHP</t>
   </si>
   <si>
-    <t>Trial</t>
-  </si>
-  <si>
-    <t>BDT</t>
-  </si>
-  <si>
-    <t>Trial1</t>
+    <t>dasd</t>
+  </si>
+  <si>
+    <t>asddfgfg</t>
+  </si>
+  <si>
+    <t>testing1</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>testing2</t>
   </si>
   <si>
     <t>Supply of labor, testing tools and technical expertise for the Configuration of EasyGen Relay on SSR125 AVR at DG 4 &amp; DG 51.
@@ -108,66 +110,30 @@
   3. Simulation and Functional Test1.</t>
   </si>
   <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>Trial2</t>
-  </si>
-  <si>
-    <t>QAR</t>
-  </si>
-  <si>
-    <t>Trial3</t>
+    <t>asdsad</t>
+  </si>
+  <si>
+    <t>testing3</t>
+  </si>
+  <si>
+    <t>testing4</t>
   </si>
   <si>
     <t>a. Price Validity</t>
   </si>
   <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Aragay</t>
-  </si>
-  <si>
     <t>b. Payment Terms</t>
   </si>
   <si>
-    <t>Testing1</t>
-  </si>
-  <si>
-    <t>Aragay1</t>
-  </si>
-  <si>
     <t>c. Date of Delivery</t>
   </si>
   <si>
-    <t>Testing4</t>
-  </si>
-  <si>
-    <t>Aragay2</t>
-  </si>
-  <si>
     <t>d. Items Warranty</t>
   </si>
   <si>
-    <t>Testing2</t>
-  </si>
-  <si>
-    <t>Aragay3</t>
-  </si>
-  <si>
     <t>e. In-land Freight</t>
   </si>
   <si>
-    <t>Testing5</t>
-  </si>
-  <si>
-    <t>Trial4</t>
-  </si>
-  <si>
-    <t>Aragay4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Prepared by: </t>
   </si>
   <si>
@@ -186,10 +152,10 @@
     <t>Jonah Benares</t>
   </si>
   <si>
-    <t>Trial only</t>
-  </si>
-  <si>
-    <t>Testing stephine</t>
+    <t>Trial only11</t>
+  </si>
+  <si>
+    <t>Testing stephine11</t>
   </si>
 </sst>
 </file>
@@ -625,7 +591,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A8" sqref="A8"/>
@@ -814,23 +780,23 @@
         <v>20</v>
       </c>
       <c r="L9" s="5">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M9" s="5">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N9" s="2"/>
-      <c r="O9" s="15">
-        <v>600</v>
+      <c r="O9" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="Q9" s="5">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="R9" s="5">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="S9" s="2"/>
     </row>
@@ -839,11 +805,11 @@
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="15">
-        <v>200</v>
+      <c r="E10" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G10" s="5">
         <v>200</v>
@@ -853,120 +819,120 @@
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="L10" s="5">
+        <v>600</v>
+      </c>
+      <c r="M10" s="5">
+        <v>600</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>300</v>
+      </c>
+      <c r="R10" s="5">
+        <v>300</v>
+      </c>
+      <c r="S10" s="2"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="2"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="5">
+        <v>300</v>
+      </c>
+      <c r="H11" s="5">
+        <v>300</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="O12" s="13"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="2">
+        <v>2</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="4">
         <v>400</v>
       </c>
-      <c r="M10" s="5">
-        <v>400</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="2"/>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="O11" s="13"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="2">
-        <v>2</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="10">
-        <v>2</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="15">
-        <v>300</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="5">
-        <v>150</v>
-      </c>
-      <c r="H12" s="5">
-        <v>300</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="5">
-        <v>500</v>
-      </c>
-      <c r="M12" s="5">
-        <v>1000</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="15">
-        <v>700</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>900</v>
-      </c>
-      <c r="R12" s="5">
-        <v>1800</v>
-      </c>
-      <c r="S12" s="2"/>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="2"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="15">
-        <v>400</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="4">
-        <v>56</v>
-      </c>
       <c r="H13" s="5">
-        <v>112</v>
+        <v>800</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="L13" s="5">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="M13" s="5">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="N13" s="2"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
+      <c r="O13" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>500</v>
+      </c>
+      <c r="R13" s="5">
+        <v>1000</v>
+      </c>
       <c r="S13" s="2"/>
     </row>
     <row r="14" spans="1:19">
@@ -974,23 +940,31 @@
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="15">
+      <c r="E14" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="5">
         <v>500</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="5">
-        <v>155</v>
-      </c>
       <c r="H14" s="5">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
+      <c r="J14" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="5">
+        <v>800</v>
+      </c>
+      <c r="M14" s="5">
+        <v>1600</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" s="9"/>
       <c r="P14" s="3"/>
@@ -999,201 +973,200 @@
       <c r="S14" s="2"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="O15" s="13"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="5">
+        <v>600</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1200</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="2"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="B16" s="13" t="s">
-        <v>29</v>
-      </c>
+      <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="J16" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="O16" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
+      <c r="E16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="O16" s="13"/>
     </row>
     <row r="17" spans="1:19">
       <c r="B17" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="16" t="s">
-        <v>33</v>
-      </c>
+      <c r="E17" s="16"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
-      <c r="J17" s="16" t="s">
-        <v>23</v>
-      </c>
+      <c r="J17" s="16"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
-      <c r="O17" s="16" t="s">
-        <v>34</v>
-      </c>
+      <c r="O17" s="16"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
     </row>
     <row r="18" spans="1:19">
       <c r="B18" s="13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="E18" s="16" t="s">
-        <v>36</v>
-      </c>
+      <c r="E18" s="16"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
-      <c r="J18" s="16" t="s">
-        <v>26</v>
-      </c>
+      <c r="J18" s="16"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
-      <c r="O18" s="16" t="s">
-        <v>37</v>
-      </c>
+      <c r="O18" s="16"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
     </row>
     <row r="19" spans="1:19">
       <c r="B19" s="13" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
-      <c r="E19" s="16" t="s">
-        <v>39</v>
-      </c>
+      <c r="E19" s="16"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
-      <c r="J19" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="J19" s="16"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
-      <c r="O19" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="O19" s="16"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
     </row>
     <row r="20" spans="1:19">
       <c r="B20" s="13" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="16" t="s">
-        <v>42</v>
-      </c>
+      <c r="E20" s="16"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
-      <c r="J20" s="16" t="s">
-        <v>43</v>
-      </c>
+      <c r="J20" s="16"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
-      <c r="O20" s="16" t="s">
-        <v>44</v>
-      </c>
+      <c r="O20" s="16"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
     </row>
     <row r="21" spans="1:19">
-      <c r="B21" s="13"/>
+      <c r="B21" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="O21" s="13"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="B22" s="13" t="s">
-        <v>45</v>
-      </c>
+      <c r="B22" s="13"/>
       <c r="C22" s="13"/>
-      <c r="D22" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="17"/>
-      <c r="G22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22"/>
-      <c r="I22" s="6"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
       <c r="J22" s="13"/>
-      <c r="K22" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="O22" s="13" t="s">
-        <v>49</v>
-      </c>
+      <c r="O22" s="13"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="B23" s="14"/>
+      <c r="B23" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="18"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="D23" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="17"/>
+      <c r="G23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23"/>
+      <c r="I23" s="6"/>
       <c r="J23" s="13"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="O23" s="14"/>
+      <c r="K23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="O23" s="13" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="24" spans="1:19">
-      <c r="B24" s="13" t="s">
-        <v>50</v>
-      </c>
+      <c r="B24" s="14"/>
       <c r="C24" s="13"/>
-      <c r="D24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="17"/>
-      <c r="G24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="18"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
       <c r="J24" s="13"/>
-      <c r="K24" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="O24" s="13" t="s">
-        <v>52</v>
+      <c r="K24" s="12"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="O24" s="14"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="B25" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13">
+        <v>33</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="G25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O25" s="13" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1203,12 +1176,12 @@
     <mergeCell ref="E7:I7"/>
     <mergeCell ref="J7:N7"/>
     <mergeCell ref="O7:S7"/>
-    <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G23:I23"/>
     <mergeCell ref="K23:M23"/>
+    <mergeCell ref="K24:M24"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AOQ.xlsx
+++ b/AOQ.xlsx
@@ -15,34 +15,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>ABSTRACT OF QUOTATION</t>
   </si>
   <si>
-    <t>JO No.: IT</t>
-  </si>
-  <si>
-    <t>Project Title: Testing only</t>
-  </si>
-  <si>
-    <t>Requested By: Stephine David Severino</t>
-  </si>
-  <si>
-    <t>Department: IT</t>
-  </si>
-  <si>
-    <t>A.M. Builders' Depot
-(034)709-0055</t>
-  </si>
-  <si>
-    <t>AA Electrical Supply
-Sir Rene 
-435-3811; 432-3712; 708-1212</t>
-  </si>
-  <si>
-    <t>Ablao Enterprises
-461-0376</t>
+    <t>JO No.: CENJO-PUR-1001-CNPR</t>
+  </si>
+  <si>
+    <t>Project Title: Printing of tarpaulin for Environmental Compliance Certificate (ECC) notice as per DENR-EMB Compliance</t>
+  </si>
+  <si>
+    <t>Requested By: Bago Site</t>
+  </si>
+  <si>
+    <t>Department: PUR</t>
+  </si>
+  <si>
+    <t>A &amp; M Medcare Products Distributors
+-
+(034) 433 5728</t>
+  </si>
+  <si>
+    <t>A-1 Gas Corporation
+Ms. Mary
+434-0708; 433-3637; 433-3638; 432-2079</t>
+  </si>
+  <si>
+    <t>A-one Industrial Sales
+Ms. Miles
+435-7383; 432-0652; 476-1127</t>
   </si>
   <si>
     <t>#</t>
@@ -72,51 +74,31 @@
     <t>COMMENTS</t>
   </si>
   <si>
-    <t>Supply of labor, testing tools and technical expertise for the Configuration of EasyGen Relay on SSR125 AVR at DG 4 &amp; DG 5.
-  Scope of works include but not limited to the following:
-  1. Wiring of Signal from EasyGen to AVR
-  2. Configuration of EasyGen relay for excitation of On-Load and Off-Load step response.
-  3. Simulation and Functional Test.</t>
-  </si>
-  <si>
-    <t>pc/s</t>
-  </si>
-  <si>
-    <t>testing</t>
+    <t>There are many variations of passages of Lorem Ipsum available</t>
+  </si>
+  <si>
+    <t>adasda</t>
   </si>
   <si>
     <t>PHP</t>
   </si>
   <si>
-    <t>dasd</t>
-  </si>
-  <si>
-    <t>asddfgfg</t>
-  </si>
-  <si>
-    <t>testing1</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>testing2</t>
-  </si>
-  <si>
-    <t>Supply of labor, testing tools and technical expertise for the Configuration of EasyGen Relay on SSR125 AVR at DG 4 &amp; DG 51.
-  Scope of works include but not limited to the following1:
-  1. Wiring of Signal from EasyGen to AVR1
-  2. Configuration of EasyGen relay for excitation of On-Load and Off-Load step response1.
-  3. Simulation and Functional Test1.</t>
-  </si>
-  <si>
-    <t>asdsad</t>
-  </si>
-  <si>
-    <t>testing3</t>
-  </si>
-  <si>
-    <t>testing4</t>
+    <t>sdfff</t>
+  </si>
+  <si>
+    <t>dsfff</t>
+  </si>
+  <si>
+    <t>dadas</t>
+  </si>
+  <si>
+    <t>fsdfff</t>
+  </si>
+  <si>
+    <t>sdfsf</t>
+  </si>
+  <si>
+    <t>dasdasd</t>
   </si>
   <si>
     <t>a. Price Validity</t>
@@ -152,10 +134,10 @@
     <t>Jonah Benares</t>
   </si>
   <si>
-    <t>Trial only11</t>
-  </si>
-  <si>
-    <t>Testing stephine11</t>
+    <t>sdfsdf</t>
+  </si>
+  <si>
+    <t>sdfsfd</t>
   </si>
 </sst>
 </file>
@@ -591,7 +573,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A8" sqref="A8"/>
@@ -755,48 +737,46 @@
         <v>17</v>
       </c>
       <c r="C9" s="10">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="F9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="G9" s="4">
-        <v>100</v>
+        <v>233</v>
       </c>
       <c r="H9" s="5">
-        <v>100</v>
+        <v>1165</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L9" s="5">
-        <v>500</v>
+        <v>323</v>
       </c>
       <c r="M9" s="5">
-        <v>500</v>
+        <v>1615</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>200</v>
+        <v>19</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>233</v>
       </c>
       <c r="R9" s="5">
-        <v>200</v>
+        <v>1165</v>
       </c>
       <c r="S9" s="2"/>
     </row>
@@ -806,42 +786,42 @@
       <c r="C10" s="10"/>
       <c r="D10" s="9"/>
       <c r="E10" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="5">
-        <v>200</v>
+        <v>19</v>
+      </c>
+      <c r="G10" s="4">
+        <v>233</v>
       </c>
       <c r="H10" s="5">
-        <v>200</v>
+        <v>1165</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L10" s="5">
-        <v>600</v>
+        <v>42344</v>
       </c>
       <c r="M10" s="5">
-        <v>600</v>
+        <v>211720</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="15" t="s">
         <v>24</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q10" s="5">
-        <v>300</v>
+        <v>433</v>
       </c>
       <c r="R10" s="5">
-        <v>300</v>
+        <v>2165</v>
       </c>
       <c r="S10" s="2"/>
     </row>
@@ -854,24 +834,40 @@
         <v>25</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="5">
+        <v>323</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1615</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="5">
-        <v>300</v>
-      </c>
-      <c r="H11" s="5">
-        <v>300</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+      <c r="K11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="5">
+        <v>232323</v>
+      </c>
+      <c r="M11" s="5">
+        <v>1161615</v>
+      </c>
       <c r="N11" s="2"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
+      <c r="O11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>322</v>
+      </c>
+      <c r="R11" s="5">
+        <v>1610</v>
+      </c>
       <c r="S11" s="2"/>
     </row>
     <row r="12" spans="1:19">
@@ -883,135 +879,62 @@
       <c r="O12" s="13"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="2">
-        <v>2</v>
-      </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="O13" s="13"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="O14" s="13"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="10">
-        <v>2</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="4">
-        <v>400</v>
-      </c>
-      <c r="H13" s="5">
-        <v>800</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="5">
-        <v>700</v>
-      </c>
-      <c r="M13" s="5">
-        <v>1400</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="15" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="B16" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="P13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>500</v>
-      </c>
-      <c r="R13" s="5">
-        <v>1000</v>
-      </c>
-      <c r="S13" s="2"/>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="2"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="5">
-        <v>500</v>
-      </c>
-      <c r="H14" s="5">
-        <v>1000</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="5">
-        <v>800</v>
-      </c>
-      <c r="M14" s="5">
-        <v>1600</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="2"/>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="2"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="5">
-        <v>600</v>
-      </c>
-      <c r="H15" s="5">
-        <v>1200</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="2"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="O16" s="13"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
     </row>
     <row r="17" spans="1:19">
       <c r="B17" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -1030,7 +953,7 @@
     </row>
     <row r="18" spans="1:19">
       <c r="B18" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -1049,7 +972,7 @@
     </row>
     <row r="19" spans="1:19">
       <c r="B19" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -1067,106 +990,68 @@
       <c r="R19" s="11"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="B20" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
+      <c r="E20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="O20" s="13"/>
     </row>
     <row r="21" spans="1:19">
       <c r="B21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="G21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="O21" s="13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="1:19">
-      <c r="B22" s="13"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="18"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
       <c r="J22" s="13"/>
-      <c r="O22" s="13"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="O22" s="14"/>
     </row>
     <row r="23" spans="1:19">
       <c r="B23" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E23" s="17"/>
-      <c r="G23" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23"/>
+      <c r="G23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="13"/>
       <c r="K23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L23"/>
-      <c r="M23"/>
       <c r="O23" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
-      <c r="B24" s="14"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="18"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="O24" s="14"/>
-    </row>
-    <row r="25" spans="1:19">
-      <c r="B25" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13">
-        <v>33</v>
-      </c>
-      <c r="E25" s="17"/>
-      <c r="G25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="O25" s="13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1176,12 +1061,12 @@
     <mergeCell ref="E7:I7"/>
     <mergeCell ref="J7:N7"/>
     <mergeCell ref="O7:S7"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K22:M22"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AOQ.xlsx
+++ b/AOQ.xlsx
@@ -15,36 +15,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>ABSTRACT OF QUOTATION</t>
   </si>
   <si>
-    <t>JO No.: CENJO-PUR-1001-CNPR</t>
-  </si>
-  <si>
-    <t>Project Title: Printing of tarpaulin for Environmental Compliance Certificate (ECC) notice as per DENR-EMB Compliance</t>
-  </si>
-  <si>
-    <t>Requested By: Bago Site</t>
-  </si>
-  <si>
-    <t>Department: PUR</t>
-  </si>
-  <si>
-    <t>A &amp; M Medcare Products Distributors
--
-(034) 433 5728</t>
-  </si>
-  <si>
-    <t>A-1 Gas Corporation
-Ms. Mary
-434-0708; 433-3637; 433-3638; 432-2079</t>
-  </si>
-  <si>
-    <t>A-one Industrial Sales
-Ms. Miles
-435-7383; 432-0652; 476-1127</t>
+    <t>Department: IT Department</t>
+  </si>
+  <si>
+    <t>Date: June 9, 2021</t>
+  </si>
+  <si>
+    <t>Purpose: Lorem Ipsum</t>
+  </si>
+  <si>
+    <t>PR#: ITB21-1001</t>
+  </si>
+  <si>
+    <t>Enduse: Lorem Ipsum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date Needed: </t>
+  </si>
+  <si>
+    <t>Requested By: Jun Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tough Performance AutoWorkz
+(034) 432 0544 </t>
+  </si>
+  <si>
+    <t>2GO Express, Inc.
+Ms Apple/Ms Liza
+(034) 435-4965 / 704-2039 / 704-2396</t>
+  </si>
+  <si>
+    <t>7RJ Brothers Sand &amp; Gravel &amp; Gen. Mdse.
+Ms. Tata
+(034)458-0190/213-2249</t>
   </si>
   <si>
     <t>#</t>
@@ -74,31 +82,34 @@
     <t>COMMENTS</t>
   </si>
   <si>
-    <t>There are many variations of passages of Lorem Ipsum available</t>
-  </si>
-  <si>
-    <t>adasda</t>
+    <t>Test 12</t>
+  </si>
+  <si>
+    <t>pc/s</t>
+  </si>
+  <si>
+    <t>test 123</t>
   </si>
   <si>
     <t>PHP</t>
   </si>
   <si>
-    <t>sdfff</t>
-  </si>
-  <si>
-    <t>dsfff</t>
-  </si>
-  <si>
-    <t>dadas</t>
-  </si>
-  <si>
-    <t>fsdfff</t>
-  </si>
-  <si>
-    <t>sdfsf</t>
-  </si>
-  <si>
-    <t>dasdasd</t>
+    <t>test 234</t>
+  </si>
+  <si>
+    <t>test 392</t>
+  </si>
+  <si>
+    <t>test 345</t>
+  </si>
+  <si>
+    <t>test 120</t>
+  </si>
+  <si>
+    <t>test 364</t>
+  </si>
+  <si>
+    <t>test 432</t>
   </si>
   <si>
     <t>a. Price Validity</t>
@@ -107,7 +118,7 @@
     <t>b. Payment Terms</t>
   </si>
   <si>
-    <t>c. Date of Delivery</t>
+    <t>c. Work Duration</t>
   </si>
   <si>
     <t>d. Items Warranty</t>
@@ -134,10 +145,10 @@
     <t>Jonah Benares</t>
   </si>
   <si>
+    <t>sfsdf</t>
+  </si>
+  <si>
     <t>sdfsdf</t>
-  </si>
-  <si>
-    <t>sdfsfd</t>
   </si>
 </sst>
 </file>
@@ -174,7 +185,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,6 +198,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFf4e542"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -216,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -230,6 +247,9 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="4" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="3" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -601,457 +621,466 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="E1" s="13"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="J1" s="13"/>
-      <c r="O1" s="13"/>
+      <c r="J1" s="14"/>
+      <c r="O1" s="14"/>
     </row>
     <row r="2" spans="1:19">
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="O2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="14"/>
+      <c r="O2" s="14"/>
     </row>
     <row r="3" spans="1:19">
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="O3" s="13"/>
+        <v>3</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="14"/>
+      <c r="O3" s="14"/>
     </row>
     <row r="4" spans="1:19">
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="O4" s="13"/>
+        <v>5</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="14"/>
+      <c r="O4" s="14"/>
     </row>
     <row r="5" spans="1:19">
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="O5" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="O5" s="14"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="E6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="O6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="O6" s="14"/>
     </row>
     <row r="7" spans="1:19" customHeight="1" ht="50">
-      <c r="E7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="10"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="E8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="7" t="s">
+      <c r="G8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="R8" s="7" t="s">
+      <c r="L8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S8" s="7" t="s">
+      <c r="P8" s="8" t="s">
         <v>16</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="10">
-        <v>5</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="15" t="s">
-        <v>18</v>
+      <c r="B9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="11">
+        <v>10</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G9" s="4">
-        <v>233</v>
+        <v>121</v>
       </c>
       <c r="H9" s="5">
-        <v>1165</v>
+        <v>1210</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="15" t="s">
-        <v>20</v>
+      <c r="J9" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="5">
-        <v>323</v>
-      </c>
-      <c r="M9" s="5">
-        <v>1615</v>
+        <v>23</v>
+      </c>
+      <c r="L9" s="6">
+        <v>2323</v>
+      </c>
+      <c r="M9" s="6">
+        <v>23230</v>
       </c>
       <c r="N9" s="2"/>
-      <c r="O9" s="15" t="s">
-        <v>21</v>
+      <c r="O9" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>233</v>
-      </c>
-      <c r="R9" s="5">
-        <v>1165</v>
+        <v>23</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>1624</v>
+      </c>
+      <c r="R9" s="6">
+        <v>16240</v>
       </c>
       <c r="S9" s="2"/>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="2"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="15" t="s">
-        <v>22</v>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="4">
-        <v>233</v>
-      </c>
-      <c r="H10" s="5">
-        <v>1165</v>
+        <v>23</v>
+      </c>
+      <c r="G10" s="6">
+        <v>132</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1320</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="5">
-        <v>42344</v>
-      </c>
-      <c r="M10" s="5">
-        <v>211720</v>
+      <c r="L10" s="6">
+        <v>1223</v>
+      </c>
+      <c r="M10" s="6">
+        <v>12230</v>
       </c>
       <c r="N10" s="2"/>
-      <c r="O10" s="15" t="s">
+      <c r="O10" s="16" t="s">
         <v>24</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>433</v>
-      </c>
-      <c r="R10" s="5">
-        <v>2165</v>
+        <v>23</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>1955</v>
+      </c>
+      <c r="R10" s="6">
+        <v>19550</v>
       </c>
       <c r="S10" s="2"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="2"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="15" t="s">
-        <v>25</v>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="5">
-        <v>323</v>
-      </c>
-      <c r="H11" s="5">
-        <v>1615</v>
+        <v>23</v>
+      </c>
+      <c r="G11" s="6">
+        <v>162</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1620</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="15" t="s">
-        <v>20</v>
+      <c r="J11" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="5">
-        <v>232323</v>
-      </c>
-      <c r="M11" s="5">
-        <v>1161615</v>
+        <v>23</v>
+      </c>
+      <c r="L11" s="6">
+        <v>1520</v>
+      </c>
+      <c r="M11" s="6">
+        <v>15200</v>
       </c>
       <c r="N11" s="2"/>
-      <c r="O11" s="15" t="s">
+      <c r="O11" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>322</v>
-      </c>
-      <c r="R11" s="5">
-        <v>1610</v>
+      <c r="Q11" s="6">
+        <v>4952</v>
+      </c>
+      <c r="R11" s="6">
+        <v>49520</v>
       </c>
       <c r="S11" s="2"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="O12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="O12" s="14"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="O13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="O13" s="14"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="O14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="O14" s="14"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="B15" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
+      <c r="B15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="B16" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
+      <c r="B16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="B17" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
+      <c r="B17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="B18" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
+      <c r="B18" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="B19" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
+      <c r="B19" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="O20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="O20" s="14"/>
     </row>
     <row r="21" spans="1:19">
-      <c r="B21" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="17"/>
-      <c r="G21" s="6" t="s">
-        <v>33</v>
+      <c r="B21" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="G21" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="H21"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="6" t="s">
-        <v>34</v>
+      <c r="I21" s="7"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="L21"/>
       <c r="M21"/>
-      <c r="O21" s="13" t="s">
-        <v>35</v>
+      <c r="O21" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:19">
-      <c r="B22" s="14"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="18"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="O22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="19"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="O22" s="15"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="B23" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="17"/>
-      <c r="G23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O23" s="13" t="s">
-        <v>37</v>
+      <c r="B23" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="18"/>
+      <c r="G23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O23" s="14" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/AOQ.xlsx
+++ b/AOQ.xlsx
@@ -15,34 +15,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>ABSTRACT OF QUOTATION</t>
   </si>
   <si>
-    <t>JO No.: IT</t>
-  </si>
-  <si>
-    <t>Project Title: Testing only</t>
-  </si>
-  <si>
-    <t>Requested By: Stephine David Severino</t>
-  </si>
-  <si>
-    <t>Department: IT</t>
-  </si>
-  <si>
-    <t>A.M. Builders' Depot
-(034)709-0055</t>
-  </si>
-  <si>
-    <t>AA Electrical Supply
-Sir Rene 
-435-3811; 432-3712; 708-1212</t>
-  </si>
-  <si>
-    <t>Ablao Enterprises
-461-0376</t>
+    <t>JO No.: JOR 2021-1-CNPR</t>
+  </si>
+  <si>
+    <t>Project Title: SAMPLE PURPOSE BY HR ADMIN</t>
+  </si>
+  <si>
+    <t>Requested By: SAMPLE REQUEST BY HR ADMIN</t>
+  </si>
+  <si>
+    <t>Department: ITB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tough Performance AutoWorkz
+(034) 432 0544 </t>
+  </si>
+  <si>
+    <t>2GO Express, Inc.
+Ms Apple/Ms Liza
+(034) 435-4965 / 704-2039 / 704-2396</t>
+  </si>
+  <si>
+    <t>7RJ Brothers Sand &amp; Gravel &amp; Gen. Mdse.
+Ms. Tata
+(034)458-0190/213-2249</t>
   </si>
   <si>
     <t>#</t>
@@ -72,51 +73,52 @@
     <t>COMMENTS</t>
   </si>
   <si>
-    <t>Supply of labor, testing tools and technical expertise for the Configuration of EasyGen Relay on SSR125 AVR at DG 4 &amp; DG 5.
-  Scope of works include but not limited to the following:
-  1. Wiring of Signal from EasyGen to AVR
-  2. Configuration of EasyGen relay for excitation of On-Load and Off-Load step response.
-  3. Simulation and Functional Test.</t>
+    <t>Sample scope of work 1</t>
+  </si>
+  <si>
+    <t>lot/s</t>
+  </si>
+  <si>
+    <t>sadasd</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>asdfasdfadsfa</t>
+  </si>
+  <si>
+    <t>fxzcasd221</t>
+  </si>
+  <si>
+    <t>Sample scope of work 2</t>
   </si>
   <si>
     <t>pc/s</t>
   </si>
   <si>
-    <t>testing</t>
-  </si>
-  <si>
-    <t>PHP</t>
-  </si>
-  <si>
-    <t>dasd</t>
-  </si>
-  <si>
-    <t>asddfgfg</t>
-  </si>
-  <si>
-    <t>testing1</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>testing2</t>
-  </si>
-  <si>
-    <t>Supply of labor, testing tools and technical expertise for the Configuration of EasyGen Relay on SSR125 AVR at DG 4 &amp; DG 51.
-  Scope of works include but not limited to the following1:
-  1. Wiring of Signal from EasyGen to AVR1
-  2. Configuration of EasyGen relay for excitation of On-Load and Off-Load step response1.
-  3. Simulation and Functional Test1.</t>
-  </si>
-  <si>
-    <t>asdsad</t>
-  </si>
-  <si>
-    <t>testing3</t>
-  </si>
-  <si>
-    <t>testing4</t>
+    <t>adsfsadf</t>
+  </si>
+  <si>
+    <t>dsafadsfd</t>
+  </si>
+  <si>
+    <t>vbgffdg</t>
+  </si>
+  <si>
+    <t>Sample scope of work 3</t>
+  </si>
+  <si>
+    <t>bot/s</t>
+  </si>
+  <si>
+    <t>sdfsadf</t>
+  </si>
+  <si>
+    <t>sadfdsf</t>
+  </si>
+  <si>
+    <t>dfgdfv xccs</t>
   </si>
   <si>
     <t>a. Price Validity</t>
@@ -125,7 +127,7 @@
     <t>b. Payment Terms</t>
   </si>
   <si>
-    <t>c. Date of Delivery</t>
+    <t>c. Work Duration</t>
   </si>
   <si>
     <t>d. Items Warranty</t>
@@ -152,10 +154,13 @@
     <t>Jonah Benares</t>
   </si>
   <si>
-    <t>Trial only11</t>
-  </si>
-  <si>
-    <t>Testing stephine11</t>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Trial only</t>
+  </si>
+  <si>
+    <t>Testing stephine</t>
   </si>
 </sst>
 </file>
@@ -192,7 +197,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,6 +210,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFf4e542"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -234,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -250,26 +261,29 @@
     <xf xfId="0" fontId="0" numFmtId="4" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="3" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -591,7 +605,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A8" sqref="A8"/>
@@ -619,51 +633,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="E1" s="13"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="J1" s="13"/>
-      <c r="O1" s="13"/>
+      <c r="J1" s="14"/>
+      <c r="O1" s="14"/>
     </row>
     <row r="2" spans="1:19">
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="O2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="O2" s="14"/>
     </row>
     <row r="3" spans="1:19">
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="O3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="O3" s="14"/>
     </row>
     <row r="4" spans="1:19">
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="O4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="O4" s="14"/>
     </row>
     <row r="5" spans="1:19">
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="O5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="O5" s="14"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="E6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="O6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="O6" s="14"/>
     </row>
     <row r="7" spans="1:19" customHeight="1" ht="50">
       <c r="E7" s="8" t="s">
@@ -755,12 +769,12 @@
         <v>17</v>
       </c>
       <c r="C9" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -770,403 +784,369 @@
         <v>100</v>
       </c>
       <c r="H9" s="5">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="16" t="s">
         <v>21</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="5">
-        <v>500</v>
-      </c>
-      <c r="M9" s="5">
-        <v>500</v>
+      <c r="L9" s="6">
+        <v>400</v>
+      </c>
+      <c r="M9" s="6">
+        <v>2000</v>
       </c>
       <c r="N9" s="2"/>
-      <c r="O9" s="15" t="s">
+      <c r="O9" s="16" t="s">
         <v>22</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="5">
-        <v>200</v>
-      </c>
-      <c r="R9" s="5">
-        <v>200</v>
+      <c r="Q9" s="6">
+        <v>700</v>
+      </c>
+      <c r="R9" s="6">
+        <v>3500</v>
       </c>
       <c r="S9" s="2"/>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="2"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="9"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="O11" s="14"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="C12" s="10">
+        <v>2</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G12" s="4">
         <v>200</v>
       </c>
-      <c r="H10" s="5">
-        <v>200</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="3" t="s">
+      <c r="H12" s="5">
+        <v>400</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="5">
-        <v>600</v>
-      </c>
-      <c r="M10" s="5">
-        <v>600</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="P10" s="3" t="s">
+      <c r="L12" s="6">
+        <v>500</v>
+      </c>
+      <c r="M12" s="6">
+        <v>1000</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="5">
-        <v>300</v>
-      </c>
-      <c r="R10" s="5">
-        <v>300</v>
-      </c>
-      <c r="S10" s="2"/>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="2"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="5">
-        <v>300</v>
-      </c>
-      <c r="H11" s="5">
-        <v>300</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="2"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="O12" s="13"/>
+      <c r="Q12" s="6">
+        <v>800</v>
+      </c>
+      <c r="R12" s="6">
+        <v>1600</v>
+      </c>
+      <c r="S12" s="2"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="2">
-        <v>2</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="10">
-        <v>2</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="4">
-        <v>400</v>
-      </c>
-      <c r="H13" s="5">
-        <v>800</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="5">
-        <v>700</v>
-      </c>
-      <c r="M13" s="5">
-        <v>1400</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>500</v>
-      </c>
-      <c r="R13" s="5">
-        <v>1000</v>
-      </c>
-      <c r="S13" s="2"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="O13" s="14"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="2"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="15" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="O14" s="14"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="2">
+        <v>3</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="5">
-        <v>500</v>
-      </c>
-      <c r="H14" s="5">
-        <v>1000</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="5">
-        <v>800</v>
-      </c>
-      <c r="M14" s="5">
-        <v>1600</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="2"/>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="2"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="15" t="s">
+      <c r="C15" s="10">
+        <v>6</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>29</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
+        <v>300</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1800</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="6">
         <v>600</v>
       </c>
-      <c r="H15" s="5">
-        <v>1200</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="M15" s="6">
+        <v>3600</v>
+      </c>
       <c r="N15" s="2"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
+      <c r="O15" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>900</v>
+      </c>
+      <c r="R15" s="6">
+        <v>5400</v>
+      </c>
       <c r="S15" s="2"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="O16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="O16" s="14"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="B17" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="O17" s="14"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="B18" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="O18" s="14"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="B19" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="16"/>
+      <c r="B19" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
-      <c r="J19" s="16"/>
+      <c r="J19" s="17"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
-      <c r="O19" s="16"/>
+      <c r="O19" s="17"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="B20" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="16"/>
+      <c r="B20" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="17"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
-      <c r="J20" s="16"/>
+      <c r="J20" s="17"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
-      <c r="O20" s="16"/>
+      <c r="O20" s="17"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
     </row>
     <row r="21" spans="1:19">
-      <c r="B21" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="16"/>
+      <c r="B21" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="17"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
-      <c r="J21" s="16"/>
+      <c r="J21" s="17"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
-      <c r="O21" s="16"/>
+      <c r="O21" s="17"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="O22" s="13"/>
+      <c r="B22" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="B23" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="B23" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="17"/>
-      <c r="G23" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="O23" s="13" t="s">
-        <v>39</v>
-      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
     </row>
     <row r="24" spans="1:19">
       <c r="B24" s="14"/>
-      <c r="C24" s="13"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="18"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
+      <c r="E24" s="14"/>
+      <c r="J24" s="14"/>
       <c r="O24" s="14"/>
     </row>
     <row r="25" spans="1:19">
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="G25" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13">
-        <v>33</v>
-      </c>
-      <c r="E25" s="17"/>
-      <c r="G25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="6" t="s">
+      <c r="H25"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="O25" s="13" t="s">
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="O25" s="14" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="B26" s="15"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="19"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="O26" s="15"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="B27" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="18"/>
+      <c r="G27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="O27" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1176,12 +1156,12 @@
     <mergeCell ref="E7:I7"/>
     <mergeCell ref="J7:N7"/>
     <mergeCell ref="O7:S7"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
     <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="K26:M26"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AOQ.xlsx
+++ b/AOQ.xlsx
@@ -15,35 +15,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
   <si>
     <t>ABSTRACT OF QUOTATION</t>
   </si>
   <si>
-    <t>JO No.: JOR 2021-1-CNPR</t>
-  </si>
-  <si>
-    <t>Project Title: SAMPLE PURPOSE BY HR ADMIN</t>
-  </si>
-  <si>
-    <t>Requested By: SAMPLE REQUEST BY HR ADMIN</t>
-  </si>
-  <si>
-    <t>Department: ITB</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tough Performance AutoWorkz
-(034) 432 0544 </t>
-  </si>
-  <si>
-    <t>2GO Express, Inc.
-Ms Apple/Ms Liza
-(034) 435-4965 / 704-2039 / 704-2396</t>
-  </si>
-  <si>
-    <t>7RJ Brothers Sand &amp; Gravel &amp; Gen. Mdse.
-Ms. Tata
-(034)458-0190/213-2249</t>
+    <t>Department: Special Project/Facilities Improvement</t>
+  </si>
+  <si>
+    <t>Date: October 28, 2019</t>
+  </si>
+  <si>
+    <t>Purpose: Construction of CENPRI Canteen Electrical (Additional )</t>
+  </si>
+  <si>
+    <t>PR#: SPE19-1011</t>
+  </si>
+  <si>
+    <t>Enduse: CENPRI Employees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date Needed: </t>
+  </si>
+  <si>
+    <t>Requested By: Iris Sixto / Kennah Sasamoto</t>
+  </si>
+  <si>
+    <t>Jas't Marketing Co.
+Samuel Takahara/ Regina Lopez
+434-0043</t>
+  </si>
+  <si>
+    <t>HKL Enterprises Incorporated
+(034) 458 9588</t>
+  </si>
+  <si>
+    <t>AA Electrical Supply
+Sir Rene 
+435-3811; 432-3712; 708-1212</t>
   </si>
   <si>
     <t>#</t>
@@ -73,52 +82,82 @@
     <t>COMMENTS</t>
   </si>
   <si>
-    <t>Sample scope of work 1</t>
-  </si>
-  <si>
-    <t>lot/s</t>
-  </si>
-  <si>
-    <t>sadasd</t>
+    <t>Breaker, Circuit, Bolt-on type, 50A, 3P, 220-240V</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>Breaker, Circuit, Bolt-on type, 15A, 2P, 220-240V</t>
+  </si>
+  <si>
+    <t>Wire, Copper, 8.0 mm? THW/TW, color: red</t>
+  </si>
+  <si>
+    <t>meters</t>
+  </si>
+  <si>
+    <t>Wire, Copper, 8.0 mm? THW, color: red, Brand: SYCWIN</t>
   </si>
   <si>
     <t>PHP</t>
   </si>
   <si>
-    <t>asdfasdfadsfa</t>
-  </si>
-  <si>
-    <t>fxzcasd221</t>
-  </si>
-  <si>
-    <t>Sample scope of work 2</t>
-  </si>
-  <si>
-    <t>pc/s</t>
-  </si>
-  <si>
-    <t>adsfsadf</t>
-  </si>
-  <si>
-    <t>dsafadsfd</t>
-  </si>
-  <si>
-    <t>vbgffdg</t>
-  </si>
-  <si>
-    <t>Sample scope of work 3</t>
-  </si>
-  <si>
-    <t>bot/s</t>
-  </si>
-  <si>
-    <t>sdfsadf</t>
-  </si>
-  <si>
-    <t>sadfdsf</t>
-  </si>
-  <si>
-    <t>dfgdfv xccs</t>
+    <t>COMPLYING</t>
+  </si>
+  <si>
+    <t>Wire, Copper, 8.0 mm? THW/TW, color: red, Brand: Phelps Dodge</t>
+  </si>
+  <si>
+    <t>Wire, Copper,  8.0 mm? THW/TW, color: yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wire, Copper,  8.0 mm? THW, color: yellow, Brand: SYCWIN</t>
+  </si>
+  <si>
+    <t>Wire, Copper,  8.0 mm? THW/TW, color: yellow, Brand: Phelps Dodge</t>
+  </si>
+  <si>
+    <t>Wire, Copper,  8.0 mm? THW/TW, color: blue</t>
+  </si>
+  <si>
+    <t>Wire, Copper,  8.0 mm? THW, color: blue, Brand: SYCWIN</t>
+  </si>
+  <si>
+    <t>Wire, Copper,  8.0 mm? THW/TW, color: blue, Brand: Phelps Dodge</t>
+  </si>
+  <si>
+    <t>Wire, Copper, THW/TW, AWG #14, color: black</t>
+  </si>
+  <si>
+    <t>Wire, Copper, THW AWG #14, color: black, Brand: UNICON</t>
+  </si>
+  <si>
+    <t>Wire, Copper, THW/TW, AWG #14, color: black, Brand: Duraflex</t>
+  </si>
+  <si>
+    <t>Wire, Copper, THW/TW, AWG #14, color: white</t>
+  </si>
+  <si>
+    <t>Wire, Copper, THW AWG #14, color: white, Brand: DELTON</t>
+  </si>
+  <si>
+    <t>Wire, Copper, THW/TW, AWG #14, color: white, Brand: Duraflex</t>
+  </si>
+  <si>
+    <t>PVC Electrical solvent cement, 237ml</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>PVC Electrical solvent cement,  Brand: SHERMAN, 100cc</t>
+  </si>
+  <si>
+    <t>NOT COMPLYING</t>
+  </si>
+  <si>
+    <t>PVC Electrical solvent cement, Offer: 400cc</t>
   </si>
   <si>
     <t>a. Price Validity</t>
@@ -127,7 +166,16 @@
     <t>b. Payment Terms</t>
   </si>
   <si>
-    <t>c. Work Duration</t>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>30 days PDC</t>
+  </si>
+  <si>
+    <t>c. Delivery Time</t>
+  </si>
+  <si>
+    <t>Ex-Stock of Supplier</t>
   </si>
   <si>
     <t>d. Items Warranty</t>
@@ -154,13 +202,10 @@
     <t>Jonah Benares</t>
   </si>
   <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Trial only</t>
-  </si>
-  <si>
-    <t>Testing stephine</t>
+    <t>Eric D. Jabiniar</t>
+  </si>
+  <si>
+    <t>Mila B. Arana / David C. Tan</t>
   </si>
 </sst>
 </file>
@@ -255,29 +300,29 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="4" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="4" fillId="3" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -605,7 +650,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A8" sqref="A8"/>
@@ -619,17 +664,17 @@
     <col min="6" max="6" width="10" customWidth="true" style="0"/>
     <col min="7" max="7" width="10" customWidth="true" style="0"/>
     <col min="8" max="8" width="10" customWidth="true" style="0"/>
-    <col min="9" max="9" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="16.424561" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="30" customWidth="true" style="0"/>
     <col min="11" max="11" width="10" customWidth="true" style="0"/>
     <col min="12" max="12" width="10" customWidth="true" style="0"/>
     <col min="13" max="13" width="10" customWidth="true" style="0"/>
-    <col min="14" max="14" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="30" customWidth="true" style="0"/>
     <col min="16" max="16" width="10" customWidth="true" style="0"/>
     <col min="17" max="17" width="10" customWidth="true" style="0"/>
     <col min="18" max="18" width="10" customWidth="true" style="0"/>
-    <col min="19" max="19" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="11.711426" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -647,28 +692,37 @@
         <v>1</v>
       </c>
       <c r="E2" s="14"/>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
       <c r="J2" s="14"/>
       <c r="O2" s="14"/>
     </row>
     <row r="3" spans="1:19">
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="14"/>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
       <c r="J3" s="14"/>
       <c r="O3" s="14"/>
     </row>
     <row r="4" spans="1:19">
       <c r="B4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4" s="14"/>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
       <c r="J4" s="14"/>
       <c r="O4" s="14"/>
     </row>
     <row r="5" spans="1:19">
       <c r="B5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E5" s="14"/>
       <c r="J5" s="14"/>
@@ -680,298 +734,346 @@
       <c r="O6" s="14"/>
     </row>
     <row r="7" spans="1:19" customHeight="1" ht="50">
-      <c r="E7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="9"/>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="5"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="F8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="7" t="s">
+      <c r="G8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="K8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="R8" s="7" t="s">
+      <c r="L8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="S8" s="7" t="s">
+      <c r="P8" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="10">
-        <v>5</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="4">
-        <v>100</v>
-      </c>
-      <c r="H9" s="5">
-        <v>500</v>
-      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="6">
-        <v>400</v>
-      </c>
-      <c r="M9" s="6">
-        <v>2000</v>
-      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>700</v>
-      </c>
-      <c r="R9" s="6">
-        <v>3500</v>
-      </c>
+      <c r="O9" s="5"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
       <c r="S9" s="2"/>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="2"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="9"/>
+      <c r="J10" s="5"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="9"/>
+      <c r="O10" s="5"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="O11" s="14"/>
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="2">
-        <v>2</v>
-      </c>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="2">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="10">
-        <v>2</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="C13" s="6">
+        <v>60</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="4">
-        <v>200</v>
-      </c>
-      <c r="H12" s="5">
-        <v>400</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="6">
-        <v>500</v>
-      </c>
-      <c r="M12" s="6">
-        <v>1000</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="16" t="s">
+      <c r="F13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="8">
+        <v>55.5</v>
+      </c>
+      <c r="H13" s="8">
+        <v>3330</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q12" s="6">
-        <v>800</v>
-      </c>
-      <c r="R12" s="6">
-        <v>1600</v>
-      </c>
-      <c r="S12" s="2"/>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="O13" s="14"/>
+      <c r="J13" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="9">
+        <v>53.5</v>
+      </c>
+      <c r="M13" s="10">
+        <v>3210</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>59</v>
+      </c>
+      <c r="R13" s="8">
+        <v>3540</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="O14" s="14"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="2">
-        <v>3</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="10">
-        <v>6</v>
-      </c>
-      <c r="D15" s="9" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="2">
+        <v>4</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="C16" s="6">
+        <v>60</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="4">
-        <v>300</v>
-      </c>
-      <c r="H15" s="5">
-        <v>1800</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="16" t="s">
+      <c r="F16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="8">
+        <v>55.5</v>
+      </c>
+      <c r="H16" s="8">
+        <v>3330</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="6">
-        <v>600</v>
-      </c>
-      <c r="M15" s="6">
-        <v>3600</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q15" s="6">
-        <v>900</v>
-      </c>
-      <c r="R15" s="6">
-        <v>5400</v>
-      </c>
-      <c r="S15" s="2"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="O16" s="14"/>
+      <c r="K16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="9">
+        <v>53.5</v>
+      </c>
+      <c r="M16" s="10">
+        <v>3210</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O16" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>59</v>
+      </c>
+      <c r="R16" s="8">
+        <v>3540</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="17" spans="1:19">
       <c r="B17" s="14"/>
@@ -990,99 +1092,146 @@
       <c r="O18" s="14"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="B19" s="14" t="s">
+      <c r="A19" s="2">
+        <v>5</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="6">
+        <v>60</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
+      <c r="F19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="8">
+        <v>55.5</v>
+      </c>
+      <c r="H19" s="8">
+        <v>3330</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="9">
+        <v>53.5</v>
+      </c>
+      <c r="M19" s="10">
+        <v>3210</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O19" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>59</v>
+      </c>
+      <c r="R19" s="8">
+        <v>3540</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="20" spans="1:19">
-      <c r="B20" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
+      <c r="E20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="O20" s="14"/>
     </row>
     <row r="21" spans="1:19">
-      <c r="B21" s="14" t="s">
-        <v>35</v>
-      </c>
+      <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
+      <c r="E21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="O21" s="14"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="B22" s="14" t="s">
+      <c r="A22" s="2">
+        <v>6</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="6">
+        <v>30</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
+      <c r="F22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="8">
+        <v>20.95</v>
+      </c>
+      <c r="H22" s="8">
+        <v>628.5</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" s="8">
+        <v>17.25</v>
+      </c>
+      <c r="M22" s="8">
+        <v>517.5</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O22" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>17</v>
+      </c>
+      <c r="R22" s="10">
+        <v>510</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="23" spans="1:19">
-      <c r="B23" s="14" t="s">
-        <v>37</v>
-      </c>
+      <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
+      <c r="E23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="O23" s="14"/>
     </row>
     <row r="24" spans="1:19">
       <c r="B24" s="14"/>
@@ -1093,60 +1242,321 @@
       <c r="O24" s="14"/>
     </row>
     <row r="25" spans="1:19">
-      <c r="B25" s="14" t="s">
+      <c r="A25" s="2">
+        <v>7</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14" t="s">
+      <c r="C25" s="6">
+        <v>30</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="18"/>
-      <c r="G25" s="12" t="s">
+      <c r="F25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="8">
+        <v>20.1</v>
+      </c>
+      <c r="H25" s="8">
+        <v>603</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H25"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="12" t="s">
+      <c r="K25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" s="8">
+        <v>17.25</v>
+      </c>
+      <c r="M25" s="8">
+        <v>517.5</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O25" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>17</v>
+      </c>
+      <c r="R25" s="10">
+        <v>510</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="O26" s="14"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="O27" s="14"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="2">
+        <v>8</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="O25" s="14" t="s">
+      <c r="C28" s="6">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="26" spans="1:19">
-      <c r="B26" s="15"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="19"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="O26" s="15"/>
-    </row>
-    <row r="27" spans="1:19">
-      <c r="B27" s="14" t="s">
+      <c r="E28" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14" t="s">
+      <c r="F28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="9">
+        <v>38</v>
+      </c>
+      <c r="H28" s="8">
+        <v>38</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="18"/>
-      <c r="G27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="12" t="s">
+      <c r="J28" s="5"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="O27" s="14" t="s">
+      <c r="P28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>130</v>
+      </c>
+      <c r="R28" s="10">
+        <v>130</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="O29" s="14"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="O30" s="14"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="O31" s="14"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="B32" s="14" t="s">
         <v>46</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="B33" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="J33" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="O33" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="B34" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="J34" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="O34" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="B35" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="B36" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="O37" s="14"/>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="B38" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="18"/>
+      <c r="G38" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="O38" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="B39" s="15"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="19"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="O39" s="15"/>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="B40" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="18"/>
+      <c r="G40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="O40" s="14" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1156,12 +1566,12 @@
     <mergeCell ref="E7:I7"/>
     <mergeCell ref="J7:N7"/>
     <mergeCell ref="O7:S7"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="K39:M39"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AOQ.xlsx
+++ b/AOQ.xlsx
@@ -15,30 +15,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>ABSTRACT OF QUOTATION</t>
   </si>
   <si>
-    <t>Department: IT Department</t>
-  </si>
-  <si>
-    <t>Date: June 9, 2021</t>
-  </si>
-  <si>
-    <t>Purpose: Lorem Ipsum</t>
-  </si>
-  <si>
-    <t>PR#: ITB21-1001</t>
-  </si>
-  <si>
-    <t>Enduse: Lorem Ipsum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date Needed: </t>
-  </si>
-  <si>
-    <t>Requested By: Jun Jun</t>
+    <t>JO No.: JOR 2021-1-CNPR</t>
+  </si>
+  <si>
+    <t>Project Title: SAMPLE PURPOSE BY HR ADMIN</t>
+  </si>
+  <si>
+    <t>Requested By: SAMPLE REQUEST BY HR ADMIN</t>
+  </si>
+  <si>
+    <t>Department: ITB</t>
   </si>
   <si>
     <t xml:space="preserve"> Tough Performance AutoWorkz
@@ -73,6 +64,9 @@
     <t>CURRENCY</t>
   </si>
   <si>
+    <t>OFFER QTY</t>
+  </si>
+  <si>
     <t>P/U</t>
   </si>
   <si>
@@ -82,34 +76,106 @@
     <t>COMMENTS</t>
   </si>
   <si>
-    <t>Test 12</t>
+    <t>Sample scope of work 1</t>
+  </si>
+  <si>
+    <t>lot/s</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>dfgcvdsf</t>
+  </si>
+  <si>
+    <t>sdaf</t>
+  </si>
+  <si>
+    <t>23sdaf</t>
+  </si>
+  <si>
+    <t>sadc</t>
+  </si>
+  <si>
+    <t>vdfsg</t>
+  </si>
+  <si>
+    <t>safd</t>
+  </si>
+  <si>
+    <t>sdffr</t>
+  </si>
+  <si>
+    <t>sdfg</t>
+  </si>
+  <si>
+    <t>Sample scope of work 2</t>
   </si>
   <si>
     <t>pc/s</t>
   </si>
   <si>
-    <t>test 123</t>
-  </si>
-  <si>
-    <t>PHP</t>
-  </si>
-  <si>
-    <t>test 234</t>
-  </si>
-  <si>
-    <t>test 392</t>
-  </si>
-  <si>
-    <t>test 345</t>
-  </si>
-  <si>
-    <t>test 120</t>
-  </si>
-  <si>
-    <t>test 364</t>
-  </si>
-  <si>
-    <t>test 432</t>
+    <t>asfdsdfhg</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>dfghbvfgd</t>
+  </si>
+  <si>
+    <t>hgjghj</t>
+  </si>
+  <si>
+    <t>sadfghgf</t>
+  </si>
+  <si>
+    <t>dvfsftrsfadc</t>
+  </si>
+  <si>
+    <t>zsdcvf</t>
+  </si>
+  <si>
+    <t>ghdzsc</t>
+  </si>
+  <si>
+    <t>afcavcawc</t>
+  </si>
+  <si>
+    <t>Sample scope of work 3</t>
+  </si>
+  <si>
+    <t>bot/s</t>
+  </si>
+  <si>
+    <t>asfdhj</t>
+  </si>
+  <si>
+    <t>dfsc</t>
+  </si>
+  <si>
+    <t>afvv</t>
+  </si>
+  <si>
+    <t>vdsffy</t>
+  </si>
+  <si>
+    <t>dsscsd</t>
+  </si>
+  <si>
+    <t>arvr</t>
+  </si>
+  <si>
+    <t>dfsghgsr</t>
+  </si>
+  <si>
+    <t>XCZas</t>
+  </si>
+  <si>
+    <t>avfvar</t>
   </si>
   <si>
     <t>a. Price Validity</t>
@@ -145,10 +211,13 @@
     <t>Jonah Benares</t>
   </si>
   <si>
-    <t>sfsdf</t>
-  </si>
-  <si>
-    <t>sdfsdf</t>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Trial only</t>
+  </si>
+  <si>
+    <t>Testing stephine1</t>
   </si>
 </sst>
 </file>
@@ -233,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -243,6 +312,9 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -270,6 +342,9 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -292,6 +367,9 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -593,7 +671,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A8" sqref="A8"/>
@@ -607,495 +685,902 @@
     <col min="6" max="6" width="10" customWidth="true" style="0"/>
     <col min="7" max="7" width="10" customWidth="true" style="0"/>
     <col min="8" max="8" width="10" customWidth="true" style="0"/>
-    <col min="9" max="9" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="30" customWidth="true" style="0"/>
     <col min="11" max="11" width="10" customWidth="true" style="0"/>
     <col min="12" max="12" width="10" customWidth="true" style="0"/>
     <col min="13" max="13" width="10" customWidth="true" style="0"/>
-    <col min="14" max="14" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="30" customWidth="true" style="0"/>
     <col min="16" max="16" width="10" customWidth="true" style="0"/>
     <col min="17" max="17" width="10" customWidth="true" style="0"/>
     <col min="18" max="18" width="10" customWidth="true" style="0"/>
-    <col min="19" max="19" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="22" max="22" width="10.568848" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="E1" s="14"/>
+    <row r="1" spans="1:22">
+      <c r="E1" s="16"/>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="J1" s="14"/>
-      <c r="O1" s="14"/>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="J1" s="16"/>
+      <c r="O1" s="16"/>
+    </row>
+    <row r="2" spans="1:22">
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" t="s">
+      <c r="E2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="O2" s="16"/>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="O2" s="14"/>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="B3" t="s">
+      <c r="E3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="O3" s="16"/>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" t="s">
+      <c r="E4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="O4" s="16"/>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="O3" s="14"/>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="B4" t="s">
+      <c r="E5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="O5" s="16"/>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="E6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="O6" s="16"/>
+    </row>
+    <row r="7" spans="1:22" customHeight="1" ht="50">
+      <c r="E7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" t="s">
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="O4" s="14"/>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="B5" t="s">
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="O5" s="14"/>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="E6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="O6" s="14"/>
-    </row>
-    <row r="7" spans="1:19" customHeight="1" ht="50">
-      <c r="E7" s="9" t="s">
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="11"/>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="9" t="s">
+      <c r="B8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="10"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="E8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="F8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="G8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="H8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="I8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="J8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="9" t="s">
+      <c r="K8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="O8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="P8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" s="9" t="s">
+      <c r="Q8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="T8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P8" s="8" t="s">
+      <c r="U8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="Q8" s="8" t="s">
+      <c r="V8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="R8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="12">
+        <v>5</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="11">
+      <c r="F9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
+        <v>50</v>
+      </c>
+      <c r="I9" s="7">
+        <v>50</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="7">
+        <v>9</v>
+      </c>
+      <c r="N9" s="7">
+        <v>80</v>
+      </c>
+      <c r="O9" s="22">
+        <v>720</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S9" s="7">
+        <v>5</v>
+      </c>
+      <c r="T9" s="7">
+        <v>1000</v>
+      </c>
+      <c r="U9" s="7">
+        <v>5000</v>
+      </c>
+      <c r="V9" s="2"/>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="2"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="7">
+        <v>2</v>
+      </c>
+      <c r="H10" s="7">
+        <v>60</v>
+      </c>
+      <c r="I10" s="7">
+        <v>120</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="7">
+        <v>8</v>
+      </c>
+      <c r="N10" s="7">
+        <v>90</v>
+      </c>
+      <c r="O10" s="22">
+        <v>720</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10" s="7">
+        <v>4</v>
+      </c>
+      <c r="T10" s="7">
+        <v>900</v>
+      </c>
+      <c r="U10" s="7">
+        <v>3600</v>
+      </c>
+      <c r="V10" s="2"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="2"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7">
+        <v>3</v>
+      </c>
+      <c r="H11" s="7">
+        <v>70</v>
+      </c>
+      <c r="I11" s="7">
+        <v>210</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="7">
+        <v>7</v>
+      </c>
+      <c r="N11" s="7">
+        <v>100</v>
+      </c>
+      <c r="O11" s="22">
+        <v>700</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S11" s="7">
+        <v>3</v>
+      </c>
+      <c r="T11" s="7">
+        <v>800</v>
+      </c>
+      <c r="U11" s="7">
+        <v>2400</v>
+      </c>
+      <c r="V11" s="2"/>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="O12" s="16"/>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="O13" s="16"/>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="2">
+        <v>2</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="12">
+        <v>2</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="5">
+        <v>4</v>
+      </c>
+      <c r="H14" s="6">
+        <v>80</v>
+      </c>
+      <c r="I14" s="7">
+        <v>320</v>
+      </c>
+      <c r="J14" s="11"/>
+      <c r="K14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="7">
+        <v>6</v>
+      </c>
+      <c r="N14" s="7">
+        <v>200</v>
+      </c>
+      <c r="O14" s="22">
+        <v>1200</v>
+      </c>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S14" s="7">
+        <v>2</v>
+      </c>
+      <c r="T14" s="7">
+        <v>700</v>
+      </c>
+      <c r="U14" s="7">
+        <v>1400</v>
+      </c>
+      <c r="V14" s="2"/>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="2"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7">
+        <v>5</v>
+      </c>
+      <c r="H15" s="7">
+        <v>90</v>
+      </c>
+      <c r="I15" s="7">
+        <v>450</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="7">
+        <v>5</v>
+      </c>
+      <c r="N15" s="7">
+        <v>300</v>
+      </c>
+      <c r="O15" s="22">
+        <v>1500</v>
+      </c>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S15" s="7">
+        <v>1</v>
+      </c>
+      <c r="T15" s="7">
+        <v>600</v>
+      </c>
+      <c r="U15" s="7">
+        <v>600</v>
+      </c>
+      <c r="V15" s="2"/>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="2"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="7">
+        <v>6</v>
+      </c>
+      <c r="H16" s="7">
+        <v>100</v>
+      </c>
+      <c r="I16" s="7">
+        <v>600</v>
+      </c>
+      <c r="J16" s="11"/>
+      <c r="K16" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="7">
+        <v>4</v>
+      </c>
+      <c r="N16" s="7">
+        <v>400</v>
+      </c>
+      <c r="O16" s="22">
+        <v>1600</v>
+      </c>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S16" s="7">
         <v>10</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="4">
-        <v>121</v>
-      </c>
-      <c r="H9" s="5">
-        <v>1210</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="6">
-        <v>2323</v>
-      </c>
-      <c r="M9" s="6">
-        <v>23230</v>
-      </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>1624</v>
-      </c>
-      <c r="R9" s="6">
-        <v>16240</v>
-      </c>
-      <c r="S9" s="2"/>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="2"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="6">
-        <v>132</v>
-      </c>
-      <c r="H10" s="6">
-        <v>1320</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="6">
-        <v>1223</v>
-      </c>
-      <c r="M10" s="6">
-        <v>12230</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>1955</v>
-      </c>
-      <c r="R10" s="6">
-        <v>19550</v>
-      </c>
-      <c r="S10" s="2"/>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="2"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="6">
-        <v>162</v>
-      </c>
-      <c r="H11" s="6">
-        <v>1620</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="6">
-        <v>1520</v>
-      </c>
-      <c r="M11" s="6">
-        <v>15200</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>4952</v>
-      </c>
-      <c r="R11" s="6">
-        <v>49520</v>
-      </c>
-      <c r="S11" s="2"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="O12" s="14"/>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="O13" s="14"/>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="O14" s="14"/>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="B15" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="B16" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="B17" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="B18" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="B19" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="O20" s="14"/>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="B21" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="18"/>
-      <c r="G21" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="O21" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="B22" s="15"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="19"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="O22" s="15"/>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="B23" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="18"/>
-      <c r="G23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="7" t="s">
+      <c r="T16" s="7">
+        <v>500</v>
+      </c>
+      <c r="U16" s="7">
+        <v>5000</v>
+      </c>
+      <c r="V16" s="2"/>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="O17" s="16"/>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="O18" s="16"/>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" s="2">
+        <v>3</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O23" s="14" t="s">
+      <c r="C19" s="12">
+        <v>6</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>42</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="7">
+        <v>7</v>
+      </c>
+      <c r="H19" s="6">
+        <v>101</v>
+      </c>
+      <c r="I19" s="7">
+        <v>707</v>
+      </c>
+      <c r="J19" s="11"/>
+      <c r="K19" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="7">
+        <v>3</v>
+      </c>
+      <c r="N19" s="7">
+        <v>145</v>
+      </c>
+      <c r="O19" s="22">
+        <v>435</v>
+      </c>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S19" s="7">
+        <v>9</v>
+      </c>
+      <c r="T19" s="7">
+        <v>70</v>
+      </c>
+      <c r="U19" s="7">
+        <v>630</v>
+      </c>
+      <c r="V19" s="2"/>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="2"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="7">
+        <v>8</v>
+      </c>
+      <c r="H20" s="7">
+        <v>102</v>
+      </c>
+      <c r="I20" s="7">
+        <v>816</v>
+      </c>
+      <c r="J20" s="11"/>
+      <c r="K20" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="7">
+        <v>2</v>
+      </c>
+      <c r="N20" s="7">
+        <v>600</v>
+      </c>
+      <c r="O20" s="22">
+        <v>1200</v>
+      </c>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S20" s="7">
+        <v>8</v>
+      </c>
+      <c r="T20" s="7">
+        <v>60</v>
+      </c>
+      <c r="U20" s="7">
+        <v>480</v>
+      </c>
+      <c r="V20" s="2"/>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="2"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="7">
+        <v>9</v>
+      </c>
+      <c r="H21" s="7">
+        <v>103</v>
+      </c>
+      <c r="I21" s="7">
+        <v>927</v>
+      </c>
+      <c r="J21" s="11"/>
+      <c r="K21" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="7">
+        <v>1</v>
+      </c>
+      <c r="N21" s="7">
+        <v>150</v>
+      </c>
+      <c r="O21" s="22">
+        <v>150</v>
+      </c>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S21" s="5">
+        <v>7</v>
+      </c>
+      <c r="T21" s="7">
+        <v>50</v>
+      </c>
+      <c r="U21" s="7">
+        <v>350</v>
+      </c>
+      <c r="V21" s="2"/>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="O22" s="16"/>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="O23" s="16"/>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="O24" s="16"/>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="B25" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="B26" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="B27" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="B28" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="B29" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="O30" s="16"/>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="B31" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="20"/>
+      <c r="G31" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="O31" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="B32" s="17"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="21"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="O32" s="17"/>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="B33" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="G33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="O33" s="16" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="O7:S7"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="Q7:V7"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="K32:M32"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AOQ.xlsx
+++ b/AOQ.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
   <si>
     <t>ABSTRACT OF QUOTATION</t>
   </si>
@@ -82,34 +82,61 @@
     <t>lot/s</t>
   </si>
   <si>
-    <t>testing</t>
+    <t xml:space="preserve">1-11				    						</t>
   </si>
   <si>
     <t>PHP</t>
   </si>
   <si>
-    <t>dfgcvdsf</t>
-  </si>
-  <si>
-    <t>sdaf</t>
-  </si>
-  <si>
-    <t>23sdaf</t>
-  </si>
-  <si>
-    <t>sadc</t>
-  </si>
-  <si>
-    <t>vdfsg</t>
-  </si>
-  <si>
-    <t>safd</t>
-  </si>
-  <si>
-    <t>sdffr</t>
-  </si>
-  <si>
-    <t>sdfg</t>
+    <t xml:space="preserve">1-21				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-31				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-12				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-22				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-32				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-13				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-23				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-33				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-14				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-24				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-34				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-15				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-25				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-35				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-16				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-26				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-36				    						</t>
   </si>
   <si>
     <t>Sample scope of work 2</t>
@@ -118,31 +145,58 @@
     <t>pc/s</t>
   </si>
   <si>
-    <t>asfdsdfhg</t>
-  </si>
-  <si>
-    <t>asdf</t>
-  </si>
-  <si>
-    <t>dfghbvfgd</t>
-  </si>
-  <si>
-    <t>hgjghj</t>
-  </si>
-  <si>
-    <t>sadfghgf</t>
-  </si>
-  <si>
-    <t>dvfsftrsfadc</t>
-  </si>
-  <si>
-    <t>zsdcvf</t>
-  </si>
-  <si>
-    <t>ghdzsc</t>
-  </si>
-  <si>
-    <t>afcavcawc</t>
+    <t xml:space="preserve">2-11				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-21				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-31				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-12				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-22				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-32				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-13				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-23				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-33				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-14				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-24				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-34				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-15				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-25				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-35				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-16				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-26				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-36				    						</t>
   </si>
   <si>
     <t>Sample scope of work 3</t>
@@ -151,31 +205,58 @@
     <t>bot/s</t>
   </si>
   <si>
-    <t>asfdhj</t>
-  </si>
-  <si>
-    <t>dfsc</t>
-  </si>
-  <si>
-    <t>afvv</t>
-  </si>
-  <si>
-    <t>vdsffy</t>
-  </si>
-  <si>
-    <t>dsscsd</t>
-  </si>
-  <si>
-    <t>arvr</t>
-  </si>
-  <si>
-    <t>dfsghgsr</t>
-  </si>
-  <si>
-    <t>XCZas</t>
-  </si>
-  <si>
-    <t>avfvar</t>
+    <t xml:space="preserve">3-11				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-21				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-31				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-12				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-22				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-32				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-13				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-23				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-33				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-14				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-24				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-34				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-15				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-25				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-35				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-16				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-26				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-36				    						</t>
   </si>
   <si>
     <t>a. Price Validity</t>
@@ -209,15 +290,6 @@
   </si>
   <si>
     <t>Jonah Benares</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Trial only</t>
-  </si>
-  <si>
-    <t>Testing stephine1</t>
   </si>
 </sst>
 </file>
@@ -302,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -318,13 +390,13 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="4" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="4" fillId="3" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -341,9 +413,6 @@
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -671,7 +740,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:V33"/>
+  <dimension ref="A1:V42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A8" sqref="A8"/>
@@ -690,63 +759,63 @@
     <col min="11" max="11" width="10" customWidth="true" style="0"/>
     <col min="12" max="12" width="10" customWidth="true" style="0"/>
     <col min="13" max="13" width="10" customWidth="true" style="0"/>
-    <col min="14" max="14" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="30" customWidth="true" style="0"/>
     <col min="16" max="16" width="10" customWidth="true" style="0"/>
     <col min="17" max="17" width="10" customWidth="true" style="0"/>
     <col min="18" max="18" width="10" customWidth="true" style="0"/>
     <col min="19" max="19" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="10.568848" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="E1" s="16"/>
+      <c r="E1" s="15"/>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="J1" s="16"/>
-      <c r="O1" s="16"/>
+      <c r="J1" s="15"/>
+      <c r="O1" s="15"/>
     </row>
     <row r="2" spans="1:22">
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="O2" s="16"/>
+      <c r="E2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="O2" s="15"/>
     </row>
     <row r="3" spans="1:22">
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="O3" s="16"/>
+      <c r="E3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="O3" s="15"/>
     </row>
     <row r="4" spans="1:22">
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="O4" s="16"/>
+      <c r="E4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="O4" s="15"/>
     </row>
     <row r="5" spans="1:22">
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="O5" s="16"/>
+      <c r="E5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="O5" s="15"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="E6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="O6" s="16"/>
+      <c r="E6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="O6" s="15"/>
     </row>
     <row r="7" spans="1:22" customHeight="1" ht="50">
       <c r="E7" s="10" t="s">
@@ -855,7 +924,7 @@
       <c r="D9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -865,26 +934,26 @@
         <v>1</v>
       </c>
       <c r="H9" s="6">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I9" s="7">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J9" s="11"/>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="7">
-        <v>9</v>
-      </c>
-      <c r="N9" s="7">
-        <v>80</v>
-      </c>
-      <c r="O9" s="22">
-        <v>720</v>
+      <c r="M9" s="5">
+        <v>4</v>
+      </c>
+      <c r="N9" s="5">
+        <v>40</v>
+      </c>
+      <c r="O9" s="21">
+        <v>160</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="3" t="s">
@@ -893,14 +962,14 @@
       <c r="R9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S9" s="7">
-        <v>5</v>
-      </c>
-      <c r="T9" s="7">
-        <v>1000</v>
-      </c>
-      <c r="U9" s="7">
-        <v>5000</v>
+      <c r="S9" s="5">
+        <v>7</v>
+      </c>
+      <c r="T9" s="6">
+        <v>10</v>
+      </c>
+      <c r="U9" s="5">
+        <v>70</v>
       </c>
       <c r="V9" s="2"/>
     </row>
@@ -909,36 +978,36 @@
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="7">
-        <v>2</v>
-      </c>
-      <c r="H10" s="7">
-        <v>60</v>
-      </c>
-      <c r="I10" s="7">
-        <v>120</v>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6">
+        <v>20</v>
+      </c>
+      <c r="I10" s="5">
+        <v>20</v>
       </c>
       <c r="J10" s="11"/>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="3" t="s">
         <v>25</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="7">
-        <v>8</v>
-      </c>
-      <c r="N10" s="7">
-        <v>90</v>
-      </c>
-      <c r="O10" s="22">
-        <v>720</v>
+      <c r="M10" s="5">
+        <v>4</v>
+      </c>
+      <c r="N10" s="5">
+        <v>50</v>
+      </c>
+      <c r="O10" s="21">
+        <v>200</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="3" t="s">
@@ -947,14 +1016,14 @@
       <c r="R10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S10" s="7">
-        <v>4</v>
-      </c>
-      <c r="T10" s="7">
-        <v>900</v>
-      </c>
-      <c r="U10" s="7">
-        <v>3600</v>
+      <c r="S10" s="5">
+        <v>7</v>
+      </c>
+      <c r="T10" s="6">
+        <v>20</v>
+      </c>
+      <c r="U10" s="5">
+        <v>140</v>
       </c>
       <c r="V10" s="2"/>
     </row>
@@ -963,36 +1032,36 @@
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>27</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="7">
-        <v>3</v>
-      </c>
-      <c r="H11" s="7">
-        <v>70</v>
-      </c>
-      <c r="I11" s="7">
-        <v>210</v>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>30</v>
+      </c>
+      <c r="I11" s="5">
+        <v>30</v>
       </c>
       <c r="J11" s="11"/>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="3" t="s">
         <v>28</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="7">
-        <v>7</v>
-      </c>
-      <c r="N11" s="7">
-        <v>100</v>
-      </c>
-      <c r="O11" s="22">
-        <v>700</v>
+      <c r="M11" s="5">
+        <v>4</v>
+      </c>
+      <c r="N11" s="5">
+        <v>60</v>
+      </c>
+      <c r="O11" s="21">
+        <v>240</v>
       </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="3" t="s">
@@ -1001,278 +1070,362 @@
       <c r="R11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S11" s="7">
-        <v>3</v>
-      </c>
-      <c r="T11" s="7">
-        <v>800</v>
-      </c>
-      <c r="U11" s="7">
-        <v>2400</v>
+      <c r="S11" s="5">
+        <v>7</v>
+      </c>
+      <c r="T11" s="5">
+        <v>30</v>
+      </c>
+      <c r="U11" s="5">
+        <v>210</v>
       </c>
       <c r="V11" s="2"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="O12" s="16"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5">
+        <v>40</v>
+      </c>
+      <c r="I12" s="5">
+        <v>40</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="5">
+        <v>4</v>
+      </c>
+      <c r="N12" s="5">
+        <v>70</v>
+      </c>
+      <c r="O12" s="21">
+        <v>280</v>
+      </c>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12" s="5">
+        <v>7</v>
+      </c>
+      <c r="T12" s="5">
+        <v>40</v>
+      </c>
+      <c r="U12" s="5">
+        <v>280</v>
+      </c>
+      <c r="V12" s="2"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="O13" s="16"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
+        <v>50</v>
+      </c>
+      <c r="I13" s="5">
+        <v>50</v>
+      </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="5">
+        <v>4</v>
+      </c>
+      <c r="N13" s="5">
+        <v>80</v>
+      </c>
+      <c r="O13" s="21">
+        <v>320</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S13" s="5">
+        <v>7</v>
+      </c>
+      <c r="T13" s="5">
+        <v>50</v>
+      </c>
+      <c r="U13" s="5">
+        <v>350</v>
+      </c>
+      <c r="V13" s="2"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="2">
-        <v>2</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="12">
-        <v>2</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>32</v>
+      <c r="A14" s="2"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="17" t="s">
+        <v>36</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
+        <v>60</v>
+      </c>
+      <c r="I14" s="5">
+        <v>60</v>
+      </c>
+      <c r="J14" s="11"/>
+      <c r="K14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="5">
         <v>4</v>
       </c>
-      <c r="H14" s="6">
-        <v>80</v>
-      </c>
-      <c r="I14" s="7">
-        <v>320</v>
-      </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14" s="7">
-        <v>6</v>
-      </c>
-      <c r="N14" s="7">
-        <v>200</v>
-      </c>
-      <c r="O14" s="22">
-        <v>1200</v>
+      <c r="N14" s="5">
+        <v>90</v>
+      </c>
+      <c r="O14" s="21">
+        <v>360</v>
       </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="R14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S14" s="7">
+      <c r="S14" s="5">
+        <v>7</v>
+      </c>
+      <c r="T14" s="5">
+        <v>60</v>
+      </c>
+      <c r="U14" s="5">
+        <v>420</v>
+      </c>
+      <c r="V14" s="2"/>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="O15" s="15"/>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="O16" s="15"/>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="2">
         <v>2</v>
       </c>
-      <c r="T14" s="7">
-        <v>700</v>
-      </c>
-      <c r="U14" s="7">
-        <v>1400</v>
-      </c>
-      <c r="V14" s="2"/>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="A15" s="2"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="7">
+      <c r="B17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="12">
+        <v>2</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="5">
+        <v>2</v>
+      </c>
+      <c r="H17" s="5">
+        <v>70</v>
+      </c>
+      <c r="I17" s="7">
+        <v>140</v>
+      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="5">
         <v>5</v>
       </c>
-      <c r="H15" s="7">
+      <c r="N17" s="5">
+        <v>10</v>
+      </c>
+      <c r="O17" s="21">
+        <v>50</v>
+      </c>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S17" s="5">
+        <v>8</v>
+      </c>
+      <c r="T17" s="5">
+        <v>70</v>
+      </c>
+      <c r="U17" s="5">
+        <v>560</v>
+      </c>
+      <c r="V17" s="2"/>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="2"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="5">
+        <v>2</v>
+      </c>
+      <c r="H18" s="5">
+        <v>80</v>
+      </c>
+      <c r="I18" s="5">
+        <v>160</v>
+      </c>
+      <c r="J18" s="11"/>
+      <c r="K18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="5">
+        <v>5</v>
+      </c>
+      <c r="N18" s="5">
+        <v>20</v>
+      </c>
+      <c r="O18" s="21">
+        <v>100</v>
+      </c>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" s="5">
+        <v>8</v>
+      </c>
+      <c r="T18" s="5">
+        <v>80</v>
+      </c>
+      <c r="U18" s="5">
+        <v>640</v>
+      </c>
+      <c r="V18" s="2"/>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" s="2"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="5">
+        <v>2</v>
+      </c>
+      <c r="H19" s="5">
         <v>90</v>
       </c>
-      <c r="I15" s="7">
-        <v>450</v>
-      </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="I19" s="5">
+        <v>180</v>
+      </c>
+      <c r="J19" s="11"/>
+      <c r="K19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="5">
         <v>5</v>
       </c>
-      <c r="N15" s="7">
-        <v>300</v>
-      </c>
-      <c r="O15" s="22">
-        <v>1500</v>
-      </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S15" s="7">
-        <v>1</v>
-      </c>
-      <c r="T15" s="7">
-        <v>600</v>
-      </c>
-      <c r="U15" s="7">
-        <v>600</v>
-      </c>
-      <c r="V15" s="2"/>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="A16" s="2"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="7">
-        <v>6</v>
-      </c>
-      <c r="H16" s="7">
-        <v>100</v>
-      </c>
-      <c r="I16" s="7">
-        <v>600</v>
-      </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16" s="7">
-        <v>4</v>
-      </c>
-      <c r="N16" s="7">
-        <v>400</v>
-      </c>
-      <c r="O16" s="22">
-        <v>1600</v>
-      </c>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S16" s="7">
-        <v>10</v>
-      </c>
-      <c r="T16" s="7">
-        <v>500</v>
-      </c>
-      <c r="U16" s="7">
-        <v>5000</v>
-      </c>
-      <c r="V16" s="2"/>
-    </row>
-    <row r="17" spans="1:22">
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="O17" s="16"/>
-    </row>
-    <row r="18" spans="1:22">
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="O18" s="16"/>
-    </row>
-    <row r="19" spans="1:22">
-      <c r="A19" s="2">
-        <v>3</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="12">
-        <v>6</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="7">
-        <v>7</v>
-      </c>
-      <c r="H19" s="6">
-        <v>101</v>
-      </c>
-      <c r="I19" s="7">
-        <v>707</v>
-      </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3</v>
-      </c>
-      <c r="N19" s="7">
-        <v>145</v>
-      </c>
-      <c r="O19" s="22">
-        <v>435</v>
+      <c r="N19" s="5">
+        <v>30</v>
+      </c>
+      <c r="O19" s="21">
+        <v>150</v>
       </c>
       <c r="P19" s="4"/>
       <c r="Q19" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S19" s="7">
-        <v>9</v>
-      </c>
-      <c r="T19" s="7">
-        <v>70</v>
-      </c>
-      <c r="U19" s="7">
-        <v>630</v>
+      <c r="S19" s="5">
+        <v>8</v>
+      </c>
+      <c r="T19" s="5">
+        <v>90</v>
+      </c>
+      <c r="U19" s="5">
+        <v>720</v>
       </c>
       <c r="V19" s="2"/>
     </row>
@@ -1281,52 +1434,52 @@
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="18" t="s">
-        <v>46</v>
+      <c r="E20" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="7">
-        <v>8</v>
-      </c>
-      <c r="H20" s="7">
-        <v>102</v>
-      </c>
-      <c r="I20" s="7">
-        <v>816</v>
+      <c r="G20" s="5">
+        <v>2</v>
+      </c>
+      <c r="H20" s="5">
+        <v>10</v>
+      </c>
+      <c r="I20" s="5">
+        <v>20</v>
       </c>
       <c r="J20" s="11"/>
-      <c r="K20" s="13" t="s">
-        <v>47</v>
+      <c r="K20" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M20" s="7">
-        <v>2</v>
-      </c>
-      <c r="N20" s="7">
-        <v>600</v>
-      </c>
-      <c r="O20" s="22">
-        <v>1200</v>
+      <c r="M20" s="5">
+        <v>5</v>
+      </c>
+      <c r="N20" s="5">
+        <v>40</v>
+      </c>
+      <c r="O20" s="21">
+        <v>200</v>
       </c>
       <c r="P20" s="4"/>
       <c r="Q20" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="R20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S20" s="7">
+      <c r="S20" s="5">
         <v>8</v>
       </c>
-      <c r="T20" s="7">
-        <v>60</v>
-      </c>
-      <c r="U20" s="7">
-        <v>480</v>
+      <c r="T20" s="5">
+        <v>10</v>
+      </c>
+      <c r="U20" s="5">
+        <v>80</v>
       </c>
       <c r="V20" s="2"/>
     </row>
@@ -1335,238 +1488,634 @@
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="18" t="s">
-        <v>49</v>
+      <c r="E21" s="17" t="s">
+        <v>53</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="7">
-        <v>9</v>
-      </c>
-      <c r="H21" s="7">
-        <v>103</v>
-      </c>
-      <c r="I21" s="7">
-        <v>927</v>
+      <c r="G21" s="5">
+        <v>2</v>
+      </c>
+      <c r="H21" s="5">
+        <v>20</v>
+      </c>
+      <c r="I21" s="5">
+        <v>40</v>
       </c>
       <c r="J21" s="11"/>
-      <c r="K21" s="13" t="s">
+      <c r="K21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="5">
+        <v>5</v>
+      </c>
+      <c r="N21" s="5">
         <v>50</v>
       </c>
-      <c r="L21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1</v>
-      </c>
-      <c r="N21" s="7">
-        <v>150</v>
-      </c>
-      <c r="O21" s="22">
-        <v>150</v>
+      <c r="O21" s="21">
+        <v>250</v>
       </c>
       <c r="P21" s="4"/>
       <c r="Q21" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="R21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="S21" s="5">
+        <v>8</v>
+      </c>
+      <c r="T21" s="6">
+        <v>9</v>
+      </c>
+      <c r="U21" s="5">
+        <v>72</v>
+      </c>
+      <c r="V21" s="2"/>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="2"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="5">
+        <v>2</v>
+      </c>
+      <c r="H22" s="5">
+        <v>30</v>
+      </c>
+      <c r="I22" s="5">
+        <v>60</v>
+      </c>
+      <c r="J22" s="11"/>
+      <c r="K22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="5">
+        <v>5</v>
+      </c>
+      <c r="N22" s="5">
+        <v>60</v>
+      </c>
+      <c r="O22" s="21">
+        <v>300</v>
+      </c>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S22" s="5">
+        <v>8</v>
+      </c>
+      <c r="T22" s="6">
+        <v>8</v>
+      </c>
+      <c r="U22" s="5">
+        <v>64</v>
+      </c>
+      <c r="V22" s="2"/>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="O23" s="15"/>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="O24" s="15"/>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="2">
+        <v>3</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="12">
+        <v>6</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="5">
+        <v>3</v>
+      </c>
+      <c r="H25" s="5">
+        <v>40</v>
+      </c>
+      <c r="I25" s="5">
+        <v>120</v>
+      </c>
+      <c r="J25" s="11"/>
+      <c r="K25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="5">
+        <v>6</v>
+      </c>
+      <c r="N25" s="5">
+        <v>70</v>
+      </c>
+      <c r="O25" s="21">
+        <v>420</v>
+      </c>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S25" s="5">
+        <v>9</v>
+      </c>
+      <c r="T25" s="5">
         <v>7</v>
       </c>
-      <c r="T21" s="7">
+      <c r="U25" s="5">
+        <v>63</v>
+      </c>
+      <c r="V25" s="2"/>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="2"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="5">
+        <v>3</v>
+      </c>
+      <c r="H26" s="5">
         <v>50</v>
       </c>
-      <c r="U21" s="7">
-        <v>350</v>
-      </c>
-      <c r="V21" s="2"/>
-    </row>
-    <row r="22" spans="1:22">
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="O22" s="16"/>
-    </row>
-    <row r="23" spans="1:22">
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="O23" s="16"/>
-    </row>
-    <row r="24" spans="1:22">
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="O24" s="16"/>
-    </row>
-    <row r="25" spans="1:22">
-      <c r="B25" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-    </row>
-    <row r="26" spans="1:22">
-      <c r="B26" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
+      <c r="I26" s="5">
+        <v>150</v>
+      </c>
+      <c r="J26" s="11"/>
+      <c r="K26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" s="5">
+        <v>6</v>
+      </c>
+      <c r="N26" s="5">
+        <v>80</v>
+      </c>
+      <c r="O26" s="21">
+        <v>480</v>
+      </c>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S26" s="5">
+        <v>9</v>
+      </c>
+      <c r="T26" s="5">
+        <v>6</v>
+      </c>
+      <c r="U26" s="5">
+        <v>54</v>
+      </c>
+      <c r="V26" s="2"/>
     </row>
     <row r="27" spans="1:22">
-      <c r="B27" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="5">
+        <v>3</v>
+      </c>
+      <c r="H27" s="5">
+        <v>60</v>
+      </c>
+      <c r="I27" s="7">
+        <v>180</v>
+      </c>
+      <c r="J27" s="11"/>
+      <c r="K27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" s="5">
+        <v>6</v>
+      </c>
+      <c r="N27" s="5">
+        <v>90</v>
+      </c>
+      <c r="O27" s="21">
+        <v>540</v>
+      </c>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S27" s="5">
+        <v>9</v>
+      </c>
+      <c r="T27" s="5">
+        <v>5</v>
+      </c>
+      <c r="U27" s="5">
+        <v>45</v>
+      </c>
+      <c r="V27" s="2"/>
     </row>
     <row r="28" spans="1:22">
-      <c r="B28" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="5">
+        <v>3</v>
+      </c>
+      <c r="H28" s="5">
+        <v>70</v>
+      </c>
+      <c r="I28" s="5">
+        <v>210</v>
+      </c>
+      <c r="J28" s="11"/>
+      <c r="K28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28" s="5">
+        <v>6</v>
+      </c>
+      <c r="N28" s="5">
+        <v>10</v>
+      </c>
+      <c r="O28" s="21">
+        <v>60</v>
+      </c>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S28" s="5">
+        <v>9</v>
+      </c>
+      <c r="T28" s="5">
+        <v>4</v>
+      </c>
+      <c r="U28" s="5">
+        <v>36</v>
+      </c>
+      <c r="V28" s="2"/>
     </row>
     <row r="29" spans="1:22">
-      <c r="B29" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="5">
+        <v>3</v>
+      </c>
+      <c r="H29" s="5">
+        <v>80</v>
+      </c>
+      <c r="I29" s="5">
+        <v>240</v>
+      </c>
+      <c r="J29" s="11"/>
+      <c r="K29" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" s="5">
+        <v>6</v>
+      </c>
+      <c r="N29" s="5">
+        <v>20</v>
+      </c>
+      <c r="O29" s="21">
+        <v>120</v>
+      </c>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S29" s="5">
+        <v>9</v>
+      </c>
+      <c r="T29" s="6">
+        <v>3</v>
+      </c>
+      <c r="U29" s="5">
+        <v>27</v>
+      </c>
+      <c r="V29" s="2"/>
     </row>
     <row r="30" spans="1:22">
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="O30" s="16"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="5">
+        <v>3</v>
+      </c>
+      <c r="H30" s="5">
+        <v>90</v>
+      </c>
+      <c r="I30" s="5">
+        <v>270</v>
+      </c>
+      <c r="J30" s="11"/>
+      <c r="K30" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" s="5">
+        <v>6</v>
+      </c>
+      <c r="N30" s="5">
+        <v>30</v>
+      </c>
+      <c r="O30" s="21">
+        <v>180</v>
+      </c>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S30" s="5">
+        <v>9</v>
+      </c>
+      <c r="T30" s="6">
+        <v>2</v>
+      </c>
+      <c r="U30" s="5">
+        <v>18</v>
+      </c>
+      <c r="V30" s="2"/>
     </row>
     <row r="31" spans="1:22">
-      <c r="B31" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="20"/>
-      <c r="G31" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H31"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="O31" s="16" t="s">
-        <v>61</v>
-      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="O31" s="15"/>
     </row>
     <row r="32" spans="1:22">
-      <c r="B32" s="17"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="21"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="O32" s="17"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="O32" s="15"/>
     </row>
     <row r="33" spans="1:22">
-      <c r="B33" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" s="20"/>
-      <c r="G33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="O33" s="16" t="s">
-        <v>65</v>
-      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="O33" s="15"/>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="B34" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="B35" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="B36" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="B37" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="B38" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="O39" s="15"/>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="B40" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" s="19"/>
+      <c r="G40" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H40"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="O40" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="B41" s="16"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="20"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="O41" s="16"/>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="B42" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="19"/>
+      <c r="G42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="8"/>
+      <c r="O42" s="15"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -1575,12 +2124,12 @@
     <mergeCell ref="E7:J7"/>
     <mergeCell ref="K7:P7"/>
     <mergeCell ref="Q7:V7"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="K41:M41"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AOQ.xlsx
+++ b/AOQ.xlsx
@@ -15,34 +15,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>ABSTRACT OF QUOTATION</t>
   </si>
   <si>
-    <t>JO No.: JOR 2021-1-CNPR</t>
-  </si>
-  <si>
-    <t>Project Title: INSTALLATION OF ADDITIONAL CCTV CAMERA IN DRAIN CANALS AND LADIES DORM</t>
-  </si>
-  <si>
-    <t>Requested By: GODFREY SAMANO</t>
-  </si>
-  <si>
-    <t>Department: EMG</t>
-  </si>
-  <si>
-    <t>7RJ Brothers Sand &amp; Gravel &amp; Gen. Mdse.
-Ms. Tata
-(034)458-0190/213-2249</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tough Performance AutoWorkz
-(034) 432 0544 </t>
-  </si>
-  <si>
-    <t>Ablao Enterprises
-461-0376</t>
+    <t>Department: Special Projects</t>
+  </si>
+  <si>
+    <t>Date: April 26, 2022</t>
+  </si>
+  <si>
+    <t>Purpose: Spot Replacement of Damaged Roof at Powerhouse Main Roof and Auxiliary Area.</t>
+  </si>
+  <si>
+    <t>PR#: SPE/Operation22-2201</t>
+  </si>
+  <si>
+    <t>Enduse: Special Projects/Operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date Needed: </t>
+  </si>
+  <si>
+    <t>Requested By: Iris J. Sixto</t>
+  </si>
+  <si>
+    <t>Greenlane Hardware and Construction Supply Inc
+Ronaldo Lao
+432-1119</t>
+  </si>
+  <si>
+    <t>Sugarland Hardware Corp.
+Ma/am Sara / Ma'am Nimfa
+434-5390; 434-4549; 708-8850</t>
+  </si>
+  <si>
+    <t>Visayan Construction Supply
+434-7277 / 213-6200 / 434-7278 / 431-1375/ 213-6200</t>
   </si>
   <si>
     <t>#</t>
@@ -63,9 +73,6 @@
     <t>CURRENCY</t>
   </si>
   <si>
-    <t>OFFER QTY</t>
-  </si>
-  <si>
     <t>P/U</t>
   </si>
   <si>
@@ -75,43 +82,40 @@
     <t>COMMENTS</t>
   </si>
   <si>
-    <t>Supply of manpower, tools and technical expertise for:</t>
-  </si>
-  <si>
-    <t>Materials &amp; Equipment preparations.</t>
-  </si>
-  <si>
-    <t>lot/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing Offer				    						</t>
+    <t>Paper,Sand,#80</t>
+  </si>
+  <si>
+    <t>sht/s</t>
+  </si>
+  <si>
+    <t>Paper,Sand,#80, Brand: champ</t>
   </si>
   <si>
     <t>PHP</t>
   </si>
   <si>
-    <t xml:space="preserve">Material Testing				    						</t>
-  </si>
-  <si>
-    <t>Lay-out &amp; excavation of underground pathway</t>
-  </si>
-  <si>
-    <t>pc/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trial				    						</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Card				    						</t>
+    <t>complying</t>
+  </si>
+  <si>
+    <t>Paper,Sand,#80, Brand: Eagle</t>
   </si>
   <si>
     <t>a. Price Validity</t>
   </si>
   <si>
+    <t>7 days</t>
+  </si>
+  <si>
     <t>b. Payment Terms</t>
   </si>
   <si>
-    <t>c. Work Duration</t>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>c. Delivery Time</t>
+  </si>
+  <si>
+    <t>Ex-stock of supplier</t>
   </si>
   <si>
     <t>d. Items Warranty</t>
@@ -135,7 +139,16 @@
     <t xml:space="preserve">Approved by: </t>
   </si>
   <si>
-    <t>Jonah Benares</t>
+    <t>Prency Francisco</t>
+  </si>
+  <si>
+    <t>Iris J. Sixto</t>
+  </si>
+  <si>
+    <t>Eric Jabiniar/Mila Arana</t>
+  </si>
+  <si>
+    <t>David Tan</t>
   </si>
 </sst>
 </file>
@@ -220,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -233,36 +246,33 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="3" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="3" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -282,9 +292,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -586,7 +593,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A8" sqref="A8"/>
@@ -600,517 +607,431 @@
     <col min="6" max="6" width="10" customWidth="true" style="0"/>
     <col min="7" max="7" width="10" customWidth="true" style="0"/>
     <col min="8" max="8" width="10" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="30" customWidth="true" style="0"/>
     <col min="11" max="11" width="10" customWidth="true" style="0"/>
     <col min="12" max="12" width="10" customWidth="true" style="0"/>
     <col min="13" max="13" width="10" customWidth="true" style="0"/>
-    <col min="14" max="14" width="4.570313" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="30" customWidth="true" style="0"/>
     <col min="16" max="16" width="10" customWidth="true" style="0"/>
     <col min="17" max="17" width="10" customWidth="true" style="0"/>
     <col min="18" max="18" width="10" customWidth="true" style="0"/>
     <col min="19" max="19" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="4.570313" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="22" max="22" width="10.568848" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="E1" s="15"/>
+    <row r="1" spans="1:19">
+      <c r="E1" s="14"/>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="J1" s="15"/>
-      <c r="O1" s="15"/>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="J1" s="14"/>
+      <c r="O1" s="14"/>
+    </row>
+    <row r="2" spans="1:19">
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="O2" s="15"/>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="E2" s="14"/>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="14"/>
+      <c r="O2" s="14"/>
+    </row>
+    <row r="3" spans="1:19">
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="O3" s="15"/>
-    </row>
-    <row r="4" spans="1:22">
+        <v>3</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="14"/>
+      <c r="O3" s="14"/>
+    </row>
+    <row r="4" spans="1:19">
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="O4" s="15"/>
-    </row>
-    <row r="5" spans="1:22">
+        <v>5</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="14"/>
+      <c r="O4" s="14"/>
+    </row>
+    <row r="5" spans="1:19">
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="O5" s="15"/>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="E6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="O6" s="15"/>
-    </row>
-    <row r="7" spans="1:22" customHeight="1" ht="50">
-      <c r="E7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="11"/>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8" s="9" t="s">
+      <c r="E5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="O5" s="14"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="E6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="O6" s="14"/>
+    </row>
+    <row r="7" spans="1:19" customHeight="1" ht="50">
+      <c r="E7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="9"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="F8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="N8" s="9" t="s">
+      <c r="H8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="K8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="L8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Q8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="R8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="S8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="T8" s="9" t="s">
+      <c r="M8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="U8" s="9" t="s">
+      <c r="P8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="V8" s="9" t="s">
+      <c r="Q8" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="A9" s="8" t="s">
+      <c r="R8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10" s="2">
+      <c r="S8" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="12">
-        <v>5</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="C9" s="10">
+        <v>50</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="E9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5">
-        <v>20</v>
-      </c>
-      <c r="I10" s="6">
-        <v>20</v>
-      </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="2"/>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" s="2"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="17" t="s">
+      <c r="F9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5">
-        <v>50</v>
-      </c>
-      <c r="I11" s="4">
-        <v>50</v>
-      </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="2"/>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="2">
-        <v>2</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="G9" s="4">
+        <v>15</v>
+      </c>
+      <c r="H9" s="5">
+        <v>750</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="12">
-        <v>10</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="J9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="K9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="4">
+        <v>15</v>
+      </c>
+      <c r="M9" s="6">
+        <v>750</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>16</v>
+      </c>
+      <c r="R9" s="6">
+        <v>800</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="O10" s="14"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="O11" s="14"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="O12" s="14"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="B13" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="4">
-        <v>2</v>
-      </c>
-      <c r="H12" s="5">
-        <v>50</v>
-      </c>
-      <c r="I12" s="6">
-        <v>100</v>
-      </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="2"/>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="A13" s="2"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="11"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="4">
-        <v>3</v>
-      </c>
-      <c r="H13" s="5">
-        <v>60</v>
-      </c>
-      <c r="I13" s="4">
-        <v>180</v>
-      </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="2"/>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="O14" s="15"/>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="B15" s="15" t="s">
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="J13" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="O13" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="B14" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="B16" s="15" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-    </row>
-    <row r="17" spans="1:22">
-      <c r="B17" s="15" t="s">
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="J14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="O14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="B15" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-    </row>
-    <row r="18" spans="1:22">
-      <c r="B18" s="15" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-    </row>
-    <row r="19" spans="1:22">
-      <c r="B19" s="15" t="s">
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="J15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="O15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="B16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="B17" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="O18" s="14"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="B19" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="E19" s="18"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="G19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="O19" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="J20" s="15"/>
+      <c r="E20" s="19"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
       <c r="O20" s="15"/>
     </row>
-    <row r="21" spans="1:22">
-      <c r="B21" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="19"/>
-      <c r="G21" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="O21" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
-      <c r="B22" s="16"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="20"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="O22" s="16"/>
-    </row>
-    <row r="23" spans="1:22">
-      <c r="B23" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="19"/>
-      <c r="G23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="7"/>
-      <c r="O23" s="15"/>
+    <row r="21" spans="1:19">
+      <c r="B21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="G21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A9:V9"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="K7:P7"/>
-    <mergeCell ref="Q7:V7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="O7:S7"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K20:M20"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
